--- a/Support/configDescriptions.xlsx
+++ b/Support/configDescriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\RemotelyBackedUp\Git\StepTextConversion\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36521732-A1D4-43B4-9512-293D5CF3C7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A39A2F3-8213-4B52-A079-15D5A3C414E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{128561E6-B5C2-46ED-B2EC-132D38FABE72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{128561E6-B5C2-46ED-B2EC-132D38FABE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="PatternBasedElements" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$176</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="362">
   <si>
     <t>stepDbgAddDebugAttributesToNodes</t>
   </si>
@@ -80,9 +80,6 @@
     <t>stepDistributionLicence</t>
   </si>
   <si>
-    <t>stepRunType</t>
-  </si>
-  <si>
     <t>stepIsCopyrightText</t>
   </si>
   <si>
@@ -527,15 +524,6 @@
     <t>Options</t>
   </si>
   <si>
-    <t>Determines whether this is a minor release run or a major release run (or for evaluation only).</t>
-  </si>
-  <si>
-    <t>This is used to set the value of stepReleaseType to major, minor or tbd (to be determined during processing).  stepRunType is then itself set to 'release' or 'evaluationOnly'.</t>
-  </si>
-  <si>
-    <t>Deduced from stepRunType, qv.  Distiguishes major and minor releases.</t>
-  </si>
-  <si>
     <t>Used to force the processing to use vernacular formats for any references which it generates.  You will seldom want this to be Yes, because obtaining details of how references are formatted is onerous.</t>
   </si>
   <si>
@@ -725,9 +713,6 @@
     <t>Basic / Academic / &lt;Empty&gt;.</t>
   </si>
   <si>
-    <t>majorRelease / minorRelease / release / evaluationOnly.</t>
-  </si>
-  <si>
     <t>Public / Step.</t>
   </si>
   <si>
@@ -1128,6 +1113,9 @@
   </si>
   <si>
     <t>Required</t>
+  </si>
+  <si>
+    <t>Distinguishes major and minor releases.</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA178B6-0440-4C0A-80B5-314A6045F544}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1737,7 +1725,7 @@
     <row r="1" spans="1:14" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1757,7 +1745,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1787,7 +1775,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1803,7 +1791,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1833,7 +1821,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1849,7 +1837,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1865,7 +1853,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1900,13 +1888,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,757 +1909,757 @@
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
         <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
         <v>98</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
         <v>135</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>361</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" t="s">
         <v>114</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s">
         <v>158</v>
-      </c>
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2679,117 +2667,117 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C45" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D45" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E45" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G45" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H45" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I45" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G46" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H46" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I46" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2797,225 +2785,225 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F47" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G47" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H47" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I47" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E48" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F48" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G48" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H48" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I48" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
         <v>83</v>
       </c>
-      <c r="B49" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" t="s">
-        <v>84</v>
-      </c>
       <c r="F49" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G49" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H49" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I49" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E50" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F50" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G50" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H50" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I50" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B51" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E51" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F51" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G51" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H51" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I51" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C52" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D52" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E52" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F52" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G52" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H52" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I52" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C53" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D53" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E53" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F53" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G53" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H53" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I53" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B54" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D54" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E54" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F54" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G54" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H54" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I54" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3023,28 +3011,28 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E55" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F55" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G55" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H55" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3052,141 +3040,141 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F56" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G56" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H56" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I56" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F57" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G57" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H57" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I57" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F58" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G58" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H58" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I58" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F59" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G59" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H59" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F60" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G60" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H60" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3194,167 +3182,167 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E61" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F61" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G61" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H61" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I61" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F62" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G62" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H62" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I62" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F63" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H63" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I63" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C64" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D64" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E64" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F64" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G64" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H64" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I64" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C65" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D65" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E65" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F65" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G65" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H65" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I65" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B66" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C66" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D66" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E66" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F66" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G66" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H66" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I66" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3362,28 +3350,28 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E67" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F67" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G67" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H67" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I67" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3391,28 +3379,28 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G68" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H68" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I68" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3420,28 +3408,28 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E69" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F69" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G69" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H69" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I69" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3449,167 +3437,167 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G70" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H70" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I70" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D71" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E71" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F71" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G71" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H71" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I71" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E72" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F72" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G72" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H72" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I72" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C73" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D73" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E73" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F73" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G73" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H73" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I73" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C74" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D74" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E74" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F74" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G74" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H74" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I74" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B75" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C75" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D75" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E75" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F75" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G75" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H75" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I75" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3617,28 +3605,28 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" t="s">
+        <v>345</v>
+      </c>
+      <c r="F76" t="s">
+        <v>213</v>
+      </c>
+      <c r="G76" t="s">
+        <v>242</v>
+      </c>
+      <c r="H76" t="s">
+        <v>348</v>
+      </c>
+      <c r="I76" t="s">
         <v>125</v>
-      </c>
-      <c r="C76" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" t="s">
-        <v>350</v>
-      </c>
-      <c r="F76" t="s">
-        <v>217</v>
-      </c>
-      <c r="G76" t="s">
-        <v>247</v>
-      </c>
-      <c r="H76" t="s">
-        <v>353</v>
-      </c>
-      <c r="I76" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3646,1071 +3634,1071 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E77" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F77" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G77" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H77" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I77" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F78" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G78" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H78" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I78" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C79" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D79" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E79" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F79" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G79" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H79" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I79" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C80" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D80" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E80" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F80" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G80" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H80" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I80" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B81" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C81" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D81" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E81" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F81" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G81" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H81" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I81" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E82" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F82" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G82" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H82" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I82" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F83" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G83" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H83" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I83" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" t="s">
         <v>154</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" t="s">
         <v>155</v>
       </c>
-      <c r="D84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
+        <v>228</v>
+      </c>
+      <c r="G84" t="s">
+        <v>242</v>
+      </c>
+      <c r="H84" t="s">
+        <v>347</v>
+      </c>
+      <c r="I84" t="s">
         <v>156</v>
-      </c>
-      <c r="F84" t="s">
-        <v>233</v>
-      </c>
-      <c r="G84" t="s">
-        <v>247</v>
-      </c>
-      <c r="H84" t="s">
-        <v>352</v>
-      </c>
-      <c r="I84" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C85" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D85" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E85" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F85" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G85" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H85" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I85" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C86" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D86" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E86" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F86" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G86" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H86" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I86" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B87" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C87" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D87" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E87" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F87" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G87" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H87" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I87" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B88" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E88" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F88" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G88" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H88" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I88" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F89" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G89" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H89" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I89" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B90" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F90" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G90" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H90" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I90" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E91" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F91" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G91" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H91" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I91" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B92" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F92" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G92" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H92" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I92" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B93" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F93" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G93" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H93" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I93" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B94" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E94" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F94" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G94" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H94" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I94" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C95" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D95" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E95" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F95" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G95" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H95" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I95" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C96" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D96" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E96" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F96" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G96" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H96" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I96" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B97" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C97" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D97" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E97" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F97" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G97" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H97" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I97" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B98" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F98" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G98" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H98" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I98" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F99" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G99" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H99" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I99" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F100" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G100" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H100" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I100" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" t="s">
+        <v>154</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="s">
         <v>110</v>
       </c>
-      <c r="C101" t="s">
-        <v>155</v>
-      </c>
-      <c r="D101" t="s">
-        <v>28</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
+        <v>345</v>
+      </c>
+      <c r="G101" t="s">
+        <v>242</v>
+      </c>
+      <c r="H101" t="s">
+        <v>347</v>
+      </c>
+      <c r="I101" t="s">
         <v>111</v>
-      </c>
-      <c r="F101" t="s">
-        <v>350</v>
-      </c>
-      <c r="G101" t="s">
-        <v>247</v>
-      </c>
-      <c r="H101" t="s">
-        <v>352</v>
-      </c>
-      <c r="I101" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B102" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E102" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F102" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G102" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H102" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I102" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D103" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F103" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G103" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H103" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I103" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" t="s">
+        <v>179</v>
+      </c>
+      <c r="E104" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" t="s">
+        <v>215</v>
+      </c>
+      <c r="G104" t="s">
+        <v>242</v>
+      </c>
+      <c r="H104" t="s">
+        <v>347</v>
+      </c>
+      <c r="I104" t="s">
         <v>120</v>
-      </c>
-      <c r="C104" t="s">
-        <v>30</v>
-      </c>
-      <c r="D104" t="s">
-        <v>183</v>
-      </c>
-      <c r="E104" t="s">
-        <v>108</v>
-      </c>
-      <c r="F104" t="s">
-        <v>219</v>
-      </c>
-      <c r="G104" t="s">
-        <v>247</v>
-      </c>
-      <c r="H104" t="s">
-        <v>352</v>
-      </c>
-      <c r="I104" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C105" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D105" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E105" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F105" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G105" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H105" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I105" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B107" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C107" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D107" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E107" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F107" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G107" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H107" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I107" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F108" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G108" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H108" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I108" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F109" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G109" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H109" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I109" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C110" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D110" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E110" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F110" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G110" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H110" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I110" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C111" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D111" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E111" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F111" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G111" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H111" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I111" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B112" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C112" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D112" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E112" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F112" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G112" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H112" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I112" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" t="s">
         <v>147</v>
       </c>
-      <c r="B113" t="s">
-        <v>148</v>
-      </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E113" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F113" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G113" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H113" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B114" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" t="s">
+        <v>179</v>
+      </c>
+      <c r="E114" t="s">
+        <v>214</v>
+      </c>
+      <c r="F114" t="s">
+        <v>217</v>
+      </c>
+      <c r="G114" t="s">
+        <v>239</v>
+      </c>
+      <c r="H114" t="s">
+        <v>352</v>
+      </c>
+      <c r="I114" t="s">
         <v>145</v>
-      </c>
-      <c r="C114" t="s">
-        <v>30</v>
-      </c>
-      <c r="D114" t="s">
-        <v>183</v>
-      </c>
-      <c r="E114" t="s">
-        <v>218</v>
-      </c>
-      <c r="F114" t="s">
-        <v>221</v>
-      </c>
-      <c r="G114" t="s">
-        <v>244</v>
-      </c>
-      <c r="H114" t="s">
-        <v>357</v>
-      </c>
-      <c r="I114" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4718,167 +4706,167 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>154</v>
+      </c>
+      <c r="D115" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" t="s">
+        <v>345</v>
+      </c>
+      <c r="F115" t="s">
+        <v>217</v>
+      </c>
+      <c r="G115" t="s">
+        <v>239</v>
+      </c>
+      <c r="H115" t="s">
+        <v>356</v>
+      </c>
+      <c r="I115" t="s">
         <v>116</v>
-      </c>
-      <c r="C115" t="s">
-        <v>155</v>
-      </c>
-      <c r="D115" t="s">
-        <v>27</v>
-      </c>
-      <c r="E115" t="s">
-        <v>350</v>
-      </c>
-      <c r="F115" t="s">
-        <v>221</v>
-      </c>
-      <c r="G115" t="s">
-        <v>244</v>
-      </c>
-      <c r="H115" t="s">
-        <v>361</v>
-      </c>
-      <c r="I115" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B116" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E116" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F116" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G116" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H116" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="I116" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B117" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E117" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F117" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G117" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H117" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="I117" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C118" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D118" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E118" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F118" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G118" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H118" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I118" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C119" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D119" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E119" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F119" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G119" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H119" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I119" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B120" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C120" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D120" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E120" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F120" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G120" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H120" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I120" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4886,28 +4874,28 @@
         <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E121" t="s">
+        <v>345</v>
+      </c>
+      <c r="F121" t="s">
+        <v>219</v>
+      </c>
+      <c r="G121" t="s">
+        <v>242</v>
+      </c>
+      <c r="H121" t="s">
         <v>350</v>
       </c>
-      <c r="F121" t="s">
-        <v>223</v>
-      </c>
-      <c r="G121" t="s">
-        <v>247</v>
-      </c>
-      <c r="H121" t="s">
-        <v>355</v>
-      </c>
       <c r="I121" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4915,283 +4903,283 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E122" t="s">
+        <v>345</v>
+      </c>
+      <c r="F122" t="s">
+        <v>220</v>
+      </c>
+      <c r="G122" t="s">
+        <v>242</v>
+      </c>
+      <c r="H122" t="s">
         <v>350</v>
       </c>
-      <c r="F122" t="s">
-        <v>224</v>
-      </c>
-      <c r="G122" t="s">
-        <v>247</v>
-      </c>
-      <c r="H122" t="s">
-        <v>355</v>
-      </c>
       <c r="I122" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C123" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D123" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E123" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F123" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G123" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H123" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I123" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C124" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D124" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E124" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F124" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G124" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H124" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I124" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B125" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C125" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D125" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E125" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F125" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G125" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H125" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I125" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F126" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G126" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H126" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I126" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F127" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G127" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H127" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I127" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B128" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D128" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E128" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F128" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G128" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H128" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I128" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D129" t="s">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="E129" t="s">
+        <v>132</v>
+      </c>
+      <c r="F129" t="s">
+        <v>215</v>
+      </c>
+      <c r="G129" t="s">
+        <v>230</v>
+      </c>
+      <c r="H129" t="s">
         <v>350</v>
       </c>
-      <c r="F129" t="s">
-        <v>231</v>
-      </c>
-      <c r="G129" t="s">
-        <v>235</v>
-      </c>
-      <c r="H129" t="s">
-        <v>363</v>
-      </c>
       <c r="I129" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E130" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="F130" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G130" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H130" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="I130" t="s">
-        <v>162</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="B131" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D131" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E131" t="s">
-        <v>177</v>
+        <v>345</v>
       </c>
       <c r="F131" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G131" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H131" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I131" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5199,1319 +5187,1290 @@
         <v>77</v>
       </c>
       <c r="B132" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D132" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="E132" t="s">
-        <v>350</v>
+        <v>202</v>
       </c>
       <c r="F132" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G132" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H132" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I132" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B133" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D133" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="E133" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="F133" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G133" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="H133" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="I133" t="s">
-        <v>350</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>23</v>
-      </c>
       <c r="B134" t="s">
-        <v>118</v>
+        <v>345</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>345</v>
       </c>
       <c r="D134" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="E134" t="s">
-        <v>28</v>
+        <v>345</v>
       </c>
       <c r="F134" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="G134" t="s">
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="H134" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="I134" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C135" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D135" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E135" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F135" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G135" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H135" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I135" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>341</v>
+      </c>
       <c r="B136" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C136" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D136" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E136" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F136" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G136" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H136" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I136" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="B137" t="s">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="C137" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
-        <v>350</v>
+        <v>26</v>
       </c>
       <c r="E137" t="s">
-        <v>350</v>
+        <v>106</v>
       </c>
       <c r="F137" t="s">
-        <v>350</v>
+        <v>216</v>
       </c>
       <c r="G137" t="s">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="H137" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="I137" t="s">
-        <v>350</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B138" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D138" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F138" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G138" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H138" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I138" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>281</v>
       </c>
       <c r="B139" t="s">
-        <v>97</v>
+        <v>285</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F139" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G139" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H139" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>282</v>
+      </c>
+      <c r="B140" t="s">
         <v>286</v>
       </c>
-      <c r="B140" t="s">
-        <v>290</v>
-      </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D140" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E140" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F140" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G140" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H140" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s">
         <v>287</v>
       </c>
-      <c r="B141" t="s">
-        <v>291</v>
-      </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D141" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E141" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F141" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G141" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H141" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I141" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142" t="s">
         <v>288</v>
       </c>
-      <c r="B142" t="s">
-        <v>292</v>
-      </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E142" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F142" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G142" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H142" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I142" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>289</v>
-      </c>
       <c r="B143" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>345</v>
       </c>
       <c r="D143" t="s">
-        <v>27</v>
+        <v>345</v>
       </c>
       <c r="E143" t="s">
-        <v>107</v>
+        <v>345</v>
       </c>
       <c r="F143" t="s">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="G143" t="s">
-        <v>247</v>
+        <v>345</v>
       </c>
       <c r="H143" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="I143" t="s">
-        <v>106</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C144" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D144" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E144" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F144" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G144" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H144" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I144" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>342</v>
+      </c>
       <c r="B145" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C145" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D145" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E145" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F145" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G145" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H145" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I145" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>347</v>
+        <v>18</v>
       </c>
       <c r="B146" t="s">
-        <v>350</v>
+        <v>37</v>
       </c>
       <c r="C146" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="D146" t="s">
-        <v>350</v>
+        <v>26</v>
       </c>
       <c r="E146" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F146" t="s">
-        <v>350</v>
+        <v>243</v>
       </c>
       <c r="G146" t="s">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="H146" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I146" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="C147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D147" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E147" t="s">
-        <v>350</v>
+        <v>132</v>
       </c>
       <c r="F147" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G147" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H147" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I147" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="B148" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E148" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F148" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G148" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H148" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I148" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D149" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E149" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F149" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G149" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H149" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I149" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="B150" t="s">
         <v>142</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D150" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E150" t="s">
-        <v>133</v>
+        <v>345</v>
       </c>
       <c r="F150" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G150" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H150" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I150" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>141</v>
-      </c>
       <c r="B151" t="s">
-        <v>143</v>
+        <v>345</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>345</v>
       </c>
       <c r="D151" t="s">
-        <v>27</v>
+        <v>345</v>
       </c>
       <c r="E151" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F151" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
       <c r="G151" t="s">
-        <v>247</v>
+        <v>345</v>
       </c>
       <c r="H151" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="I151" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C152" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D152" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E152" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F152" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G152" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H152" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I152" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>343</v>
+      </c>
       <c r="B153" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C153" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D153" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E153" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F153" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G153" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H153" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I153" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="B154" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="C154" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="D154" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="E154" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="F154" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G154" t="s">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="H154" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="I154" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B155" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D155" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E155" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F155" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G155" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H155" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I155" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D156" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E156" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F156" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G156" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H156" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I156" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B157" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D157" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E157" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F157" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G157" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H157" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I157" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B158" t="s">
-        <v>328</v>
+        <v>130</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D158" t="s">
-        <v>324</v>
+        <v>179</v>
       </c>
       <c r="E158" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F158" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G158" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H158" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I158" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B159" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D159" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E159" t="s">
+        <v>324</v>
+      </c>
+      <c r="F159" t="s">
+        <v>320</v>
+      </c>
+      <c r="G159" t="s">
+        <v>242</v>
+      </c>
+      <c r="H159" t="s">
+        <v>354</v>
+      </c>
+      <c r="I159" t="s">
         <v>325</v>
-      </c>
-      <c r="F159" t="s">
-        <v>325</v>
-      </c>
-      <c r="G159" t="s">
-        <v>247</v>
-      </c>
-      <c r="H159" t="s">
-        <v>359</v>
-      </c>
-      <c r="I159" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>51</v>
       </c>
       <c r="B160" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D160" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E160" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F160" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G160" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H160" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I160" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="B161" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D161" t="s">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="E161" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F161" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G161" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H161" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I161" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B162" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D162" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E162" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F162" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G162" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H162" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I162" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B163" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D163" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="E163" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="F163" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G163" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="H163" t="s">
-        <v>359</v>
+        <v>27</v>
       </c>
       <c r="I163" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B164" t="s">
+        <v>130</v>
+      </c>
+      <c r="C164" t="s">
+        <v>29</v>
+      </c>
+      <c r="D164" t="s">
+        <v>319</v>
+      </c>
+      <c r="E164" t="s">
         <v>131</v>
       </c>
-      <c r="C164" t="s">
-        <v>28</v>
-      </c>
-      <c r="D164" t="s">
-        <v>28</v>
-      </c>
-      <c r="E164" t="s">
-        <v>350</v>
-      </c>
       <c r="F164" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G164" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="H164" t="s">
-        <v>28</v>
+        <v>354</v>
       </c>
       <c r="I164" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B165" t="s">
+        <v>130</v>
+      </c>
+      <c r="C165" t="s">
+        <v>29</v>
+      </c>
+      <c r="D165" t="s">
+        <v>319</v>
+      </c>
+      <c r="E165" t="s">
         <v>131</v>
       </c>
-      <c r="C165" t="s">
-        <v>30</v>
-      </c>
-      <c r="D165" t="s">
-        <v>324</v>
-      </c>
-      <c r="E165" t="s">
-        <v>132</v>
-      </c>
       <c r="F165" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G165" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H165" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I165" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>315</v>
+      </c>
+      <c r="B166" t="s">
+        <v>130</v>
+      </c>
+      <c r="C166" t="s">
+        <v>29</v>
+      </c>
+      <c r="D166" t="s">
         <v>319</v>
       </c>
-      <c r="B166" t="s">
+      <c r="E166" t="s">
         <v>131</v>
       </c>
-      <c r="C166" t="s">
-        <v>30</v>
-      </c>
-      <c r="D166" t="s">
-        <v>324</v>
-      </c>
-      <c r="E166" t="s">
-        <v>132</v>
-      </c>
       <c r="F166" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G166" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H166" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I166" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>316</v>
+      </c>
+      <c r="B167" t="s">
+        <v>130</v>
+      </c>
+      <c r="C167" t="s">
+        <v>29</v>
+      </c>
+      <c r="D167" t="s">
+        <v>319</v>
+      </c>
+      <c r="E167" t="s">
+        <v>131</v>
+      </c>
+      <c r="F167" t="s">
         <v>320</v>
       </c>
-      <c r="B167" t="s">
-        <v>131</v>
-      </c>
-      <c r="C167" t="s">
-        <v>30</v>
-      </c>
-      <c r="D167" t="s">
-        <v>324</v>
-      </c>
-      <c r="E167" t="s">
-        <v>132</v>
-      </c>
-      <c r="F167" t="s">
-        <v>325</v>
-      </c>
       <c r="G167" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H167" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I167" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B168" t="s">
+        <v>130</v>
+      </c>
+      <c r="C168" t="s">
+        <v>29</v>
+      </c>
+      <c r="D168" t="s">
+        <v>319</v>
+      </c>
+      <c r="E168" t="s">
         <v>131</v>
       </c>
-      <c r="C168" t="s">
-        <v>30</v>
-      </c>
-      <c r="D168" t="s">
-        <v>324</v>
-      </c>
-      <c r="E168" t="s">
-        <v>132</v>
-      </c>
       <c r="F168" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G168" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H168" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I168" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>322</v>
-      </c>
       <c r="B169" t="s">
-        <v>131</v>
+        <v>345</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>345</v>
       </c>
       <c r="D169" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="E169" t="s">
-        <v>132</v>
+        <v>345</v>
       </c>
       <c r="F169" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G169" t="s">
-        <v>247</v>
+        <v>345</v>
       </c>
       <c r="H169" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="I169" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C170" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D170" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E170" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F170" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G170" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H170" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I170" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>344</v>
+      </c>
       <c r="B171" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C171" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D171" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E171" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F171" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G171" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H171" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I171" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="B172" t="s">
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="C172" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="D172" t="s">
-        <v>350</v>
+        <v>179</v>
       </c>
       <c r="E172" t="s">
-        <v>350</v>
+        <v>123</v>
       </c>
       <c r="F172" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G172" t="s">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="H172" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="I172" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B173" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D173" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E173" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F173" t="s">
-        <v>350</v>
+        <v>213</v>
       </c>
       <c r="G173" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H173" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I173" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>279</v>
+        <v>86</v>
       </c>
       <c r="B174" t="s">
-        <v>280</v>
+        <v>122</v>
       </c>
       <c r="C174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D174" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E174" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F174" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G174" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H174" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I174" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>87</v>
+        <v>276</v>
       </c>
       <c r="B175" t="s">
+        <v>277</v>
+      </c>
+      <c r="C175" t="s">
+        <v>29</v>
+      </c>
+      <c r="D175" t="s">
+        <v>179</v>
+      </c>
+      <c r="E175" t="s">
         <v>123</v>
       </c>
-      <c r="C175" t="s">
-        <v>30</v>
-      </c>
-      <c r="D175" t="s">
-        <v>183</v>
-      </c>
-      <c r="E175" t="s">
-        <v>124</v>
-      </c>
       <c r="F175" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G175" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H175" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I175" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>281</v>
+        <v>87</v>
       </c>
       <c r="B176" t="s">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E176" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="F176" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G176" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H176" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I176" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>88</v>
-      </c>
-      <c r="B177" t="s">
-        <v>175</v>
-      </c>
-      <c r="C177" t="s">
-        <v>30</v>
-      </c>
-      <c r="D177" t="s">
-        <v>183</v>
-      </c>
-      <c r="E177" t="s">
-        <v>176</v>
-      </c>
-      <c r="F177" t="s">
-        <v>227</v>
-      </c>
-      <c r="G177" t="s">
-        <v>247</v>
-      </c>
-      <c r="H177" t="s">
-        <v>360</v>
-      </c>
-      <c r="I177" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I177" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I133">
-      <sortCondition ref="D2:D133"/>
+  <autoFilter ref="A2:I176" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I132">
+      <sortCondition ref="D2:D132"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I133">
-    <sortCondition ref="A3:A133"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I132">
+    <sortCondition ref="A3:A132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6533,17 +6492,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Support/configDescriptions.xlsx
+++ b/Support/configDescriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\RemotelyBackedUp\Git\StepTextConversion\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A39A2F3-8213-4B52-A079-15D5A3C414E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02FFA50-7A6E-4C9A-B5FE-2F6B7AE065BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{128561E6-B5C2-46ED-B2EC-132D38FABE72}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PatternBasedElements" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$178</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="364">
   <si>
     <t>stepDbgAddDebugAttributesToNodes</t>
   </si>
@@ -38,1084 +38,1090 @@
     <t>stepDbgDisplayReversificationRows</t>
   </si>
   <si>
+    <t>stepFileSelectorForOwnerOrganisation</t>
+  </si>
+  <si>
+    <t>stepFileSelectorForExternalDataFormat</t>
+  </si>
+  <si>
+    <t>xweird</t>
+  </si>
+  <si>
+    <t>stepTextOwnerOrganisationFullName</t>
+  </si>
+  <si>
+    <t>stepTextIdSuppliedBySourceRepositoryOrOwnerOrganisation</t>
+  </si>
+  <si>
+    <t>stepTextVersionSuppliedBySourceRepositoryOrOwnerOrganisation</t>
+  </si>
+  <si>
+    <t>stepBibleNameEnglish</t>
+  </si>
+  <si>
+    <t>stepBibleNameVernacular</t>
+  </si>
+  <si>
+    <t>stepAbbreviationEnglish</t>
+  </si>
+  <si>
+    <t>stepAbbreviationVernacular</t>
+  </si>
+  <si>
+    <t>stepShortCopyright</t>
+  </si>
+  <si>
+    <t>stepAboutAsSupplied</t>
+  </si>
+  <si>
+    <t>stepDistributionLicence</t>
+  </si>
+  <si>
+    <t>stepIsCopyrightText</t>
+  </si>
+  <si>
+    <t>stepOkToGenerateFootnotes</t>
+  </si>
+  <si>
+    <t>dbgSelectBooks</t>
+  </si>
+  <si>
+    <t>stepStartProcessFromOsis</t>
+  </si>
+  <si>
+    <t>stepCheckInputsAgainstPreviousModule</t>
+  </si>
+  <si>
+    <t>stepEvaluateSchemesOnly</t>
+  </si>
+  <si>
+    <t>stepTargetAudience</t>
+  </si>
+  <si>
+    <t>stepExplanationCallout</t>
+  </si>
+  <si>
+    <t>stepBookList</t>
+  </si>
+  <si>
+    <t>stepOriginData</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>English form of abbreviated Bible name.</t>
+  </si>
+  <si>
+    <t>UserSpecified</t>
+  </si>
+  <si>
+    <t>Vernacular form of abbreviated Bible name.</t>
+  </si>
+  <si>
+    <t>Indicates that this is (or is to be treated as) a copyright text.</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>HowSet</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Limits the run to processing only selected books (may possibly work only with USX input).</t>
+  </si>
+  <si>
+    <t>stepAbout</t>
+  </si>
+  <si>
+    <t>stepAcknowledgmentOfDerivedWork</t>
+  </si>
+  <si>
+    <t>stepAddedValueLinesForSwordConfigComments</t>
+  </si>
+  <si>
+    <t>stepAddedValueMorphology</t>
+  </si>
+  <si>
+    <t>stepAddedValueStrongs</t>
+  </si>
+  <si>
+    <t>stepAdminLine</t>
+  </si>
+  <si>
+    <t>stepChangesMadeByUsInDerivedWork</t>
+  </si>
+  <si>
+    <t>stepConversionInfo</t>
+  </si>
+  <si>
+    <t>stepDataPath</t>
+  </si>
+  <si>
+    <t>stepDisambiguatorForId</t>
+  </si>
+  <si>
+    <t>stepDistributionNotes</t>
+  </si>
+  <si>
+    <t>stepEncrypted</t>
+  </si>
+  <si>
+    <t>stepExtendedLanguageCode</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_ReversificationData</t>
+  </si>
+  <si>
+    <t>stepForceUpIssue</t>
+  </si>
+  <si>
+    <t>stepInputFileDigests</t>
+  </si>
+  <si>
+    <t>stepLanguageCode2Char</t>
+  </si>
+  <si>
+    <t>stepLanguageCode3Char</t>
+  </si>
+  <si>
+    <t>stepLanguageNameInEnglish</t>
+  </si>
+  <si>
+    <t>stepLicenceExpiryDate</t>
+  </si>
+  <si>
+    <t>stepLicenceId</t>
+  </si>
+  <si>
+    <t>stepManualOsis2mod</t>
+  </si>
+  <si>
+    <t>stepModuleCreationDate</t>
+  </si>
+  <si>
+    <t>stepModuleName</t>
+  </si>
+  <si>
+    <t>stepOnlineUsageOnly</t>
+  </si>
+  <si>
+    <t>stepOptions</t>
+  </si>
+  <si>
+    <t>stepOsis2ModEncryptionKey</t>
+  </si>
+  <si>
+    <t>stepOsis2ModVersion</t>
+  </si>
+  <si>
+    <t>stepOsis2modType</t>
+  </si>
+  <si>
+    <t>stepReleaseType</t>
+  </si>
+  <si>
+    <t>stepReversificationFootnoteLevel</t>
+  </si>
+  <si>
+    <t>stepReversificationType</t>
+  </si>
+  <si>
+    <t>stepShortPromo</t>
+  </si>
+  <si>
+    <t>stepSoftwareVersionRequired</t>
+  </si>
+  <si>
+    <t>stepSpecialFeatures</t>
+  </si>
+  <si>
+    <t>stepStepOsis2ModFolderPath</t>
+  </si>
+  <si>
+    <t>stepSuppliedCountryCode</t>
+  </si>
+  <si>
+    <t>stepSuppliedScriptCode</t>
+  </si>
+  <si>
+    <t>stepSupplierUpdateReason</t>
+  </si>
+  <si>
+    <t>stepSwordSoftwareDefaultVersion</t>
+  </si>
+  <si>
+    <t>stepTextDirection</t>
+  </si>
+  <si>
+    <t>stepTextDirectionForSword</t>
+  </si>
+  <si>
+    <t>stepTextModifiedDate</t>
+  </si>
+  <si>
+    <t>stepTextOwnerOrganisationAbbreviatedName</t>
+  </si>
+  <si>
+    <t>stepTextRepositoryOrganisationAbbreviatedName</t>
+  </si>
+  <si>
+    <t>stepTextRepositoryOrganisationFullName</t>
+  </si>
+  <si>
+    <t>stepTextRevision</t>
+  </si>
+  <si>
+    <t>stepTextSource</t>
+  </si>
+  <si>
+    <t>stepThanks</t>
+  </si>
+  <si>
+    <t>stepTypeOfDocument</t>
+  </si>
+  <si>
+    <t>stepUpIssued</t>
+  </si>
+  <si>
+    <t>stepUseVernacularFormats</t>
+  </si>
+  <si>
+    <t>stepValidationReportOutOfOrderAsError</t>
+  </si>
+  <si>
+    <t>stepVersificationScheme</t>
+  </si>
+  <si>
+    <t>stepVersified</t>
+  </si>
+  <si>
+    <t>2-character language code.</t>
+  </si>
+  <si>
+    <t>3-character language code.</t>
+  </si>
+  <si>
+    <t>Determined from name of root folder.</t>
+  </si>
+  <si>
+    <t>The callout to be used for explanation footnotes.</t>
+  </si>
+  <si>
+    <t>Language name in English.</t>
+  </si>
+  <si>
+    <t>Determined from language code in name of root folder.</t>
+  </si>
+  <si>
+    <t>Used for admin purposes only.  With DBL data, this can be deduced automatically from license.xml.</t>
+  </si>
+  <si>
+    <t>stepCrossReferenceCallout</t>
+  </si>
+  <si>
+    <t>The callout to be used for cross-reference footnotes.</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>English form of full Bible name.</t>
+  </si>
+  <si>
+    <t>Vernacular form of full Bible name.</t>
+  </si>
+  <si>
+    <t>May want to change this to suit the vernacular.</t>
+  </si>
+  <si>
+    <t>Down-arrow</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Licence id.</t>
+  </si>
+  <si>
+    <t>Says whether it is ok to generate footnotes (depending upon licence conditions, it may not be).</t>
+  </si>
+  <si>
+    <t>No if copyright text, otherwise yes.</t>
+  </si>
+  <si>
+    <t>You can force the matter by overtly specifying a value.</t>
+  </si>
+  <si>
+    <t>Indicates whether to apply runtime, conversion-time or no reversification.</t>
+  </si>
+  <si>
+    <t>Depends on various parameters.</t>
+  </si>
+  <si>
+    <t>if conversionTimeReversification is set to yes on the command line, then conversion-time is used.  Otherwise all STEP modules use runtime reversification, and all public modules use none.  Conversion-time has not been exercised currently.</t>
+  </si>
+  <si>
+    <t>Determines whether we are building a STEP-internal or a public facing module.</t>
+  </si>
+  <si>
+    <t>Needed only where the root folder name ends in PublicStep, indicating that both forms of module can be built from the same source data.  In this case, says which should be built.</t>
+  </si>
+  <si>
+    <t>Determines whether out-of-order verses are reported as an error.</t>
+  </si>
+  <si>
+    <t>Sometimes translators may deliberately put verses out of order, and we may need to accept this.  However, this works only for STEP-internal modules.</t>
+  </si>
+  <si>
+    <t>Versification scheme.  This is used only with public modules, when it needs to be one of the schemes supported by osis2mod and must be a reasonable fit.</t>
+  </si>
+  <si>
+    <t>Standard rubric thanking people who have supplied texts.</t>
+  </si>
+  <si>
+    <t>Standard text already supplied in one of the configuration files.</t>
+  </si>
+  <si>
+    <t>Any id supplied by the source repository or owner organisation to identify this text.</t>
+  </si>
+  <si>
+    <t>On DBL texts, something relevant may be available in metadata.xml.</t>
+  </si>
+  <si>
+    <t>Used internally to hold some markup information which I think may be needed only until STEPBible can be fixed.</t>
+  </si>
+  <si>
+    <t>Used as part of the information on the copyright page, via the About parameter in the Sword config file.  Calculated from various other elements.</t>
+  </si>
+  <si>
+    <t>Used to hold the line of admin data which is stored as a comment near the top of Sword config files.</t>
+  </si>
+  <si>
+    <t>With DBL texts, may be derived from metadata.xml.</t>
+  </si>
+  <si>
+    <t>Path from which to obtain reversification data.  May be a URL or a local file; I recommend the former so you are always using the most recent data.</t>
+  </si>
+  <si>
+    <t>The URL of the STEP repository.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>By default, if the reason for generating a new module is the same as that used last time, the module is not up-issued.  Give this as 'yes' if you want to force the issue.</t>
+  </si>
+  <si>
+    <t>Determines whether we use the STEP version of osis2mod or the Crosswire version.</t>
+  </si>
+  <si>
+    <t>Deduced from the type of module being generated.</t>
+  </si>
+  <si>
+    <t>Set this to yes if STEP has added morphology.  Used to include this fact on the copyright page.</t>
+  </si>
+  <si>
+    <t>Set this to yes if STEP has added Strongs.  Used to include this fact on the copyright page.</t>
+  </si>
+  <si>
+    <t>Used to add debug attributes to XML nodes to assist with debugging.</t>
+  </si>
+  <si>
+    <t>stepDbgReversificationAnticipatedSourceType</t>
+  </si>
+  <si>
+    <t>Used to display active reversification rows for debugging purposes.</t>
+  </si>
+  <si>
+    <t>Used to indicate what flavour of versification we believe the text follows, so as to be able to check whether the correct reversification rows are selected.  Actually of very limited use.</t>
+  </si>
+  <si>
+    <t>If yes, indicates that the text has used runtime reversification.</t>
+  </si>
+  <si>
+    <t>Path to the location of the STEP version of osis2mod.</t>
+  </si>
+  <si>
+    <t>I'm not sure whether we can get away without this, relying on the program to be in the path.  I'm assuming not because of needing to pick up the right DLLs on Windows.</t>
+  </si>
+  <si>
+    <t>stepCrosswireOsis2ModFolderPath</t>
+  </si>
+  <si>
+    <t>Path to the location of the Crosswire version of osis2mod.</t>
+  </si>
+  <si>
+    <t>Set to hold details of those features in the text which osis2mod needs to be aware of.</t>
+  </si>
+  <si>
+    <t>Set to USX, VL, OSIS, etc, reflecting the input data used on this run.</t>
+  </si>
+  <si>
+    <t>Gives the software version number reported by osis2mod.  Used for admin purposes, so we know which osis2mod was used.</t>
+  </si>
+  <si>
+    <t>The brief description of the Bible which appears on the Bible chooser in STEP.  Typically made up of a number of elements, but you can override that by specifying a value for stepBibleDescriptionAsItAppearsOnBibleListOverride.</t>
+  </si>
+  <si>
+    <t>Used to obtain a list of book names and abbreviations from an external metadata source where available.</t>
+  </si>
+  <si>
+    <t>LTR, RTL or BiDi (currently we've never used BiDi).  May be specified, defaulted, or calculated.</t>
+  </si>
+  <si>
+    <t>UserSpecifiedOrCalculated</t>
+  </si>
+  <si>
+    <t>LTR</t>
+  </si>
+  <si>
+    <t>The system will try to work this out by examining the input if necessary.</t>
+  </si>
+  <si>
+    <t>LToR, RToL or BiDi.  Aggravating that we need this alternative form, but there we are.</t>
+  </si>
+  <si>
+    <t>Deduced from stepTextDirection.</t>
+  </si>
+  <si>
+    <t>Used only in the OSIS header (and I'm not sure it’s useful there).  You can specify it, but the default (of today's date) is probably good enough.</t>
+  </si>
+  <si>
+    <t>Used where we have non-OSIS inputs available, but nonetheless want to start from the current OSIS.</t>
+  </si>
+  <si>
+    <t>Where alternative inputs are available, you will be warned if you opt to use OSIS and the other inputs are more up to date.</t>
+  </si>
+  <si>
+    <t>Used to hold the encryption key to be used when generating the module.</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Used to force the processing to use vernacular formats for any references which it generates.  You will seldom want this to be Yes, because obtaining details of how references are formatted is onerous.</t>
+  </si>
+  <si>
+    <t>Set to 'y' if the text is being up-issued.  The processing will normally work this out for itself, but you can force the issue using stepForceUpIssue.</t>
+  </si>
+  <si>
+    <t>For Biblica texts, give Biblica here.  Other owning organisations may be added in future.  Used to make it possible to pick up definitions related to this organisation, and to apply organisation-specific corrections to texts.</t>
+  </si>
+  <si>
+    <t>For DBL texts, give Dbl here.  Other repository organisations may be added in future.  Used to make it possible to pick up definitions directly from the metadata files supplied by the organisation.</t>
+  </si>
+  <si>
+    <t>Language code plus script code and / or country code where appropriate.  (To date, this has never done anything with script- or country- codes.)</t>
+  </si>
+  <si>
+    <t>Indicates which version of the STEP software is required to display the module.</t>
+  </si>
+  <si>
+    <t>Holds details of where the source came from.  Involves some fairly fiddly processing to allow for the fact that different modules may have different information available.</t>
+  </si>
+  <si>
+    <t>Probably always going to be Bible.</t>
+  </si>
+  <si>
+    <t>Bible</t>
+  </si>
+  <si>
+    <t>"Unspecified"</t>
+  </si>
+  <si>
+    <t>Checks the SHA-256 of the present inputs against those for the previous version of the module.</t>
+  </si>
+  <si>
+    <t>Used to hold complex information about the conversion processing</t>
+  </si>
+  <si>
+    <t>Holds a relative data path pointing to data within the module zip file.</t>
+  </si>
+  <si>
+    <t>stepWordingForDerivedWorkStipulatedByTextSupplier</t>
+  </si>
+  <si>
+    <t>Some suppliers require us to use particular words to acknowledge the fact that we have made changes in our version.</t>
+  </si>
+  <si>
+    <t>MandatoryAlways</t>
+  </si>
+  <si>
+    <t>For admin purposes, we use a text-supplier's id for a text where available.  However, there is no guarantee that another text supplier may not use this same id.  stepDisambiguatorForId allows you to specify a string which is prepended to the id which hopefully will make clashes less likely.  If you don't supply something, the processing will determine a value for itself, although the absolute backstop is to use the string 'Unknown'.</t>
+  </si>
+  <si>
+    <t>"Unknown"</t>
+  </si>
+  <si>
+    <t>Says, for instance, that the text is covered by a CC licence.</t>
+  </si>
+  <si>
+    <t>Optional notes giving more details about the distribution licence etc.</t>
+  </si>
+  <si>
+    <t>Set to Yes on copyright texts.</t>
+  </si>
+  <si>
+    <t>A brief description of the copyright status.</t>
+  </si>
+  <si>
+    <t>A short promotion for the text supplier -- perhaps naming them and linking to their website.</t>
+  </si>
+  <si>
+    <t>A country code.</t>
+  </si>
+  <si>
+    <t>A script code for the module.</t>
+  </si>
+  <si>
+    <t>Country code for module.</t>
+  </si>
+  <si>
+    <t>Latn</t>
+  </si>
+  <si>
+    <t>A script code.</t>
+  </si>
+  <si>
+    <t>Where the new module is being produced because the supplier has changed things, details of those changes.</t>
+  </si>
+  <si>
+    <t>stepStepUpdateReason</t>
+  </si>
+  <si>
+    <t>Any version number for the text supplied by the source repository or the owning organisation.</t>
+  </si>
+  <si>
+    <t>Abbreviated name of the owning organisation.  (We use the full name if the abbreviated name is not available.)</t>
+  </si>
+  <si>
+    <t>Full name of the owning organisation.</t>
+  </si>
+  <si>
+    <t>Where the text comes from a repository, the abbreviated name of the repository organisation.  (We use the full name if the abbreviated name is not available.)</t>
+  </si>
+  <si>
+    <t>Full name of the repository organisation, if there is one.</t>
+  </si>
+  <si>
+    <t>The new revision number for the module.</t>
+  </si>
+  <si>
+    <t>This module cannot be used in offline STEP.</t>
+  </si>
+  <si>
+    <t>The default version of Sword software needed to render the module.  There is a default value for this, so you shouldn't normally need to set it.</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>Indicates the type of footnotes to be generated on verses affected by reversification.</t>
+  </si>
+  <si>
+    <t>MandatorySometimes</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>If yes, the run simply scores the text against the schemes available in Crosswire's osis2mod.</t>
+  </si>
+  <si>
+    <t>Used internally to hold digests of the input files.</t>
+  </si>
+  <si>
+    <t>Today's date.</t>
+  </si>
+  <si>
+    <t>The basic module name plus various flags to distinguish release modules from evaluation ones etc.</t>
+  </si>
+  <si>
+    <t>Used to hold details of any special features which need to appear in the Sword config file.  (At the time of writing, does not appear to be used).</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>??? An intermediate calculated value, which returns a formatted version stepChangesMadeByUsInDerivedWork if the latter is defined, and otherwise an empty string.</t>
+  </si>
+  <si>
+    <t>Arbitrary string.</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Yes / No.</t>
+  </si>
+  <si>
+    <t>Arbitrary string.  Can also use specific values to force callouts to be a, b, c, etc.</t>
+  </si>
+  <si>
+    <t>Path.</t>
+  </si>
+  <si>
+    <t>Not policed, but should be drawn from a list which appears in the Crosswire documentation.</t>
+  </si>
+  <si>
+    <t>Currently 'Dbl' only, or empty.</t>
+  </si>
+  <si>
+    <t>Currently 'Biblica' only, or empty.</t>
+  </si>
+  <si>
+    <t>Date.</t>
+  </si>
+  <si>
+    <t>Text to be recorded on History line to explain why the module has been generated (used when the new module has been occasioned by STEP itself).</t>
+  </si>
+  <si>
+    <t>Currently only 'Bible' makes sense.</t>
+  </si>
+  <si>
+    <t>One of the versification schemes supported by Crosswire.</t>
+  </si>
+  <si>
+    <t>English / Hebrew / Latin / Greek.</t>
+  </si>
+  <si>
+    <t>Basic / Academic / &lt;Empty&gt;.</t>
+  </si>
+  <si>
+    <t>Public / Step.</t>
+  </si>
+  <si>
+    <t>LTR / RTL / BiDi.</t>
+  </si>
+  <si>
+    <t>SetWhere</t>
+  </si>
+  <si>
+    <t>CommandLine</t>
+  </si>
+  <si>
+    <t>stepDbgConfigData</t>
+  </si>
+  <si>
+    <t>Outputs information which may be of use when trying to debug config data.</t>
+  </si>
+  <si>
+    <t>stepConversionTimeReversification</t>
+  </si>
+  <si>
+    <t>If Yes, restructures the text to conform to NRSVA structure.</t>
+  </si>
+  <si>
+    <t>The root folder holding data for the module.</t>
+  </si>
+  <si>
+    <t>stepBuildTimestamp</t>
+  </si>
+  <si>
+    <t>Present date / time in specific format.</t>
+  </si>
+  <si>
+    <t>EnvironmentVariable</t>
+  </si>
+  <si>
+    <t>It may be convenient to store _all_ data under a given folder.  If you define this variable to identify that folder, you can then use relative paths elsewhere, and have things work relative to this one.  That way, it's easy to move everything to a new location if necessary.</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>List of book abbreviations, book range, etc.</t>
+  </si>
+  <si>
+    <t>Needed when performing conversion time or runtime reversification.</t>
+  </si>
+  <si>
+    <t>Needed when creating a public-facing module.  For STEP-internal modules, this parameter is set internally to a name which reflects the name of the module.</t>
+  </si>
+  <si>
+    <t>Arbitrary string or empty.</t>
+  </si>
+  <si>
+    <t>stepTextOwnerOrganisationWebsiteLinkOrDescription</t>
+  </si>
+  <si>
+    <t>Details of text owner and / or link to their website as HTML.</t>
+  </si>
+  <si>
+    <t>MandatoryAlwaysMayBeEmpty</t>
+  </si>
+  <si>
+    <t>stepTextRepositoryOrganisationWebsiteLinkOrDescription</t>
+  </si>
+  <si>
+    <t>Details of repository organisation and / or link to their website as HTML.</t>
+  </si>
+  <si>
+    <t>Date on which licence expires.</t>
+  </si>
+  <si>
+    <t>Occasionally it is impossible to get osis2mod to run under control of the program in the IDE.  This lets you pause at the point where osis2mod is required in order to run it manually.</t>
+  </si>
+  <si>
+    <t>Configuration data descriptions</t>
+  </si>
+  <si>
+    <t>This file contains descriptions of all of the configuration parameters used by the converter.</t>
+  </si>
+  <si>
+    <t>in the Resources section of the converter JAR file.</t>
+  </si>
+  <si>
+    <t>The PatternBasedElements tab contains a list of configuration name prefixes of items for which I don't</t>
+  </si>
+  <si>
+    <t>want to give a detailed description – things like vernacular text strings.  This is recorded here simply for</t>
+  </si>
+  <si>
+    <t>information: you need to take these details into account manually in ConfigDataSupport.</t>
+  </si>
+  <si>
+    <t>Data from the IndividualElements tab should be copied as-is and pasted into configDataDescriptors.tsv</t>
+  </si>
+  <si>
+    <t>stepVlCommentMarker</t>
+  </si>
+  <si>
+    <t>Used when processing VL to indicate how comments (if any) are marked in the VL text.</t>
+  </si>
+  <si>
+    <t>Regular expression which defines how lines in VL format should be parsed.   Needs to hold named capturing groups called bookAbbrev, chapter, verse and text.</t>
+  </si>
+  <si>
+    <t>Regex.</t>
+  </si>
+  <si>
+    <t>String with particular format.</t>
+  </si>
+  <si>
+    <t>An XSLT stylesheet used to pre-process theinput data where where we are starting from OSIS.</t>
+  </si>
+  <si>
+    <t>step_TMP_garbage</t>
+  </si>
+  <si>
+    <t>Used internally only.</t>
+  </si>
+  <si>
+    <t>stepStepDidTheSwordConversion</t>
+  </si>
+  <si>
+    <t>Standard text explaining that we did the conversion.</t>
+  </si>
+  <si>
+    <t>stepThanksToCrosswire</t>
+  </si>
+  <si>
+    <t>Standard text thanking Crosswire for their software etc.</t>
+  </si>
+  <si>
+    <t>History_.*</t>
+  </si>
+  <si>
+    <t>V_.*</t>
+  </si>
+  <si>
+    <t>stepNonOsisXsltStyleSheet_.*</t>
+  </si>
+  <si>
+    <t>stepMapCallout</t>
+  </si>
+  <si>
+    <t>stepStudyNotesCallout</t>
+  </si>
+  <si>
+    <t>stepTranslationNotesCallout</t>
+  </si>
+  <si>
+    <t>stepVariantTextCallout</t>
+  </si>
+  <si>
+    <t>The callout to be used for maps.</t>
+  </si>
+  <si>
+    <t>The callout to be used for study notes.</t>
+  </si>
+  <si>
+    <t>The callout to be used for translation notes.</t>
+  </si>
+  <si>
+    <t>The callout to be used for variant text notes.</t>
+  </si>
+  <si>
+    <t>stepSimplePreprocessTagModifications</t>
+  </si>
+  <si>
+    <t>A string of the form 'mapping | mapping | …' where each mapping looks like 'para:li4 -&gt; para:li1' or  note -&gt; specialNote to change a given _USX_ tag or tag and style attribute.  You can also specify eg tag:attr -&gt; tag, to remove the attribute altogether.</t>
+  </si>
+  <si>
+    <t>stepStandardWordingForDerivedWorkWeHaveChangedVersification</t>
+  </si>
+  <si>
+    <t>Standard wording explaining we may have changed the versification structure.</t>
+  </si>
+  <si>
+    <t>stepRootFolder</t>
+  </si>
+  <si>
+    <t>stepReversificationMap</t>
+  </si>
+  <si>
+    <t>Used internally to hold mapping details for run-time reversification.</t>
+  </si>
+  <si>
+    <t>stepModuleSize</t>
+  </si>
+  <si>
+    <t>Used internally when creating the Sword config file.</t>
+  </si>
+  <si>
+    <t>OptionalOrCalculated</t>
+  </si>
+  <si>
+    <t>FileOrCalculated</t>
+  </si>
+  <si>
+    <t>Typically you allow this to be calculated, because the format is complicated.  But particularly when updating older modules, you may want to keep the previous value, in which case you can specify that value in a configuration file.</t>
+  </si>
+  <si>
+    <t>Basic information which feeds into the Sword About parameter and thence into our copyright page (ie information typically provided by the text supplier to describe the text).</t>
+  </si>
+  <si>
+    <t>ChangeWhen</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_CrosswireModuleListBibles</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_CrosswireModuleListCommentaries</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_CrosswireModuleListDevotionals</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_CrosswireWebsite</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_DblWebsite</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_StepDataRepository</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_TaggingActRev</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_TaggingAll</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_TaggingGenDeu</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_TaggingIsaMal</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_TaggingJobSng</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_TaggingJosEst</t>
+  </si>
+  <si>
+    <t>stepExternalDataPath_TaggingMatJhn</t>
+  </si>
+  <si>
+    <t>Points to the list of Bibles available from Crosswire.  Not used currently so far as I can see.</t>
+  </si>
+  <si>
+    <t>NotUsed</t>
+  </si>
+  <si>
+    <t>URL.</t>
+  </si>
+  <si>
+    <t>Points to the list of commentaries available from Crosswire.  Not used currently so far as I can see.</t>
+  </si>
+  <si>
+    <t>Points to the list of devotionals available from Crosswire.  Not used currently so far as I can see.</t>
+  </si>
+  <si>
+    <t>Points to Crosswire website.</t>
+  </si>
+  <si>
+    <t>The URL of the tab-separated form of the reversification data within the STEP repository.</t>
+  </si>
+  <si>
+    <t>The URL of a portion of the tagging data within the STEP data repository.</t>
+  </si>
+  <si>
+    <t># Controlling organisations.</t>
+  </si>
+  <si>
+    <t># Copyright and licensing.</t>
+  </si>
+  <si>
+    <t># Description of text.</t>
+  </si>
+  <si>
+    <t>stepBibleDescriptionAsItAppearsOnBiblePicker</t>
+  </si>
+  <si>
+    <t># Text identification and versioning.</t>
+  </si>
+  <si>
+    <t># Description of language or script.</t>
+  </si>
+  <si>
+    <t># Preprocessing.</t>
+  </si>
+  <si>
+    <t>stepVlLineFormat</t>
+  </si>
+  <si>
+    <t># Process control.</t>
+  </si>
+  <si>
+    <t># Value added by STEP project.</t>
+  </si>
+  <si>
+    <t># Converter environment.</t>
+  </si>
+  <si>
+    <t># Interface to external metadata.</t>
+  </si>
+  <si>
+    <t># Command-line.</t>
+  </si>
+  <si>
+    <t># Rendering.</t>
+  </si>
+  <si>
+    <t># Debug etc.</t>
+  </si>
+  <si>
+    <t># External data paths and URLs.  With the exception of Reversification data, in general these aren't used or will be fixed.  They are available if you need to refer out to them from your own config file.</t>
+  </si>
+  <si>
+    <t># Standard values.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DO NOT SORT THE ROWS ON THIS PAGE.  The user-specifiable portion is organised to let us auto-generate a sensible outline config file.</t>
+  </si>
+  <si>
+    <t>PerTextIfNecessary</t>
+  </si>
+  <si>
+    <t>PerTextIfAvailable</t>
+  </si>
+  <si>
+    <t>PerRunIfNecessary</t>
+  </si>
+  <si>
+    <t>PerTextIfDesired</t>
+  </si>
+  <si>
+    <t>PerRunForDebugging</t>
+  </si>
+  <si>
+    <t>IfComputingEnvironmentChanges</t>
+  </si>
+  <si>
+    <t>IfCrosswireInternalsChange</t>
+  </si>
+  <si>
+    <t>IfOutsideWorldChanges</t>
+  </si>
+  <si>
+    <t>ProbablyNever</t>
+  </si>
+  <si>
+    <t>IfYouOptToUseThis</t>
+  </si>
+  <si>
+    <t>PerhapsPerLanguage</t>
+  </si>
+  <si>
+    <t>PerTextAlways</t>
+  </si>
+  <si>
+    <t>PerTextIfWarranted</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Distinguishes major and minor releases.</t>
+  </si>
+  <si>
+    <t>stepJarVersion</t>
+  </si>
+  <si>
+    <t>Version number for converter JAR.</t>
+  </si>
+  <si>
+    <t>stepRegexForGeneralInputPreprocessing</t>
+  </si>
+  <si>
+    <t>stepXsltStylesheetForGeneralInputPreprocessing</t>
+  </si>
+  <si>
+    <t>stepXsltStylesheetForForcedOsisPreprocessing</t>
+  </si>
+  <si>
+    <t>An XSLT stylesheet used to pre-process the OSIS file where we are forcibly starting from OSIS.</t>
+  </si>
+  <si>
+    <t>stepRegexForForcedOsisPreprocessing</t>
+  </si>
+  <si>
+    <t>May occur multiple times.  Lines should be of the form 'stepRegexForForcedOsisPreprocessing=regex=&gt;replacement'.  Each statement defines a modification to be applied to the OSIS before processing.</t>
+  </si>
+  <si>
+    <t>May occur multiple times.  Lines should be of the form 'stepRegexForGeneralInputPreprocessing=regex=&gt;replacement'.  Each statement defines a modification to be applied to the input data before processing.</t>
+  </si>
+  <si>
+    <t>stepTemporaryInvestigationsFolderPath</t>
+  </si>
+  <si>
+    <t>Location for any temporaries generated while debugging.</t>
+  </si>
+  <si>
     <t>stepSharedConfigFolder</t>
   </si>
   <si>
-    <t>stepFileSelectorForOwnerOrganisation</t>
-  </si>
-  <si>
-    <t>stepFileSelectorForExternalDataFormat</t>
-  </si>
-  <si>
-    <t>xweird</t>
-  </si>
-  <si>
-    <t>stepTextOwnerOrganisationFullName</t>
-  </si>
-  <si>
-    <t>stepTextIdSuppliedBySourceRepositoryOrOwnerOrganisation</t>
-  </si>
-  <si>
-    <t>stepTextVersionSuppliedBySourceRepositoryOrOwnerOrganisation</t>
-  </si>
-  <si>
-    <t>stepBibleNameEnglish</t>
-  </si>
-  <si>
-    <t>stepBibleNameVernacular</t>
-  </si>
-  <si>
-    <t>stepAbbreviationEnglish</t>
-  </si>
-  <si>
-    <t>stepAbbreviationVernacular</t>
-  </si>
-  <si>
-    <t>stepShortCopyright</t>
-  </si>
-  <si>
-    <t>stepAboutAsSupplied</t>
-  </si>
-  <si>
-    <t>stepDistributionLicence</t>
-  </si>
-  <si>
-    <t>stepIsCopyrightText</t>
-  </si>
-  <si>
-    <t>stepOkToGenerateFootnotes</t>
-  </si>
-  <si>
-    <t>dbgSelectBooks</t>
-  </si>
-  <si>
-    <t>stepStartProcessFromOsis</t>
-  </si>
-  <si>
-    <t>stepCheckInputsAgainstPreviousModule</t>
-  </si>
-  <si>
-    <t>stepEvaluateSchemesOnly</t>
-  </si>
-  <si>
-    <t>stepTargetAudience</t>
-  </si>
-  <si>
-    <t>stepExplanationCallout</t>
-  </si>
-  <si>
-    <t>stepBookList</t>
-  </si>
-  <si>
-    <t>stepOriginData</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Calculated</t>
-  </si>
-  <si>
-    <t>English form of abbreviated Bible name.</t>
-  </si>
-  <si>
-    <t>UserSpecified</t>
-  </si>
-  <si>
-    <t>Vernacular form of abbreviated Bible name.</t>
-  </si>
-  <si>
-    <t>Indicates that this is (or is to be treated as) a copyright text.</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>HowSet</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>stepTemporaryInvestigationsFolderPath</t>
-  </si>
-  <si>
-    <t>Limits the run to processing only selected books (may possibly work only with USX input).</t>
-  </si>
-  <si>
-    <t>stepAbout</t>
-  </si>
-  <si>
-    <t>stepAcknowledgmentOfDerivedWork</t>
-  </si>
-  <si>
-    <t>stepAddedValueLinesForSwordConfigComments</t>
-  </si>
-  <si>
-    <t>stepAddedValueMorphology</t>
-  </si>
-  <si>
-    <t>stepAddedValueStrongs</t>
-  </si>
-  <si>
-    <t>stepAdminLine</t>
-  </si>
-  <si>
-    <t>stepChangesMadeByUsInDerivedWork</t>
-  </si>
-  <si>
-    <t>stepConversionInfo</t>
-  </si>
-  <si>
-    <t>stepDataPath</t>
-  </si>
-  <si>
-    <t>stepDisambiguatorForId</t>
-  </si>
-  <si>
-    <t>stepDistributionNotes</t>
-  </si>
-  <si>
-    <t>stepEncrypted</t>
-  </si>
-  <si>
-    <t>stepExtendedLanguageCode</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_ReversificationData</t>
-  </si>
-  <si>
-    <t>stepForceUpIssue</t>
-  </si>
-  <si>
-    <t>stepInputFileDigests</t>
-  </si>
-  <si>
-    <t>stepLanguageCode2Char</t>
-  </si>
-  <si>
-    <t>stepLanguageCode3Char</t>
-  </si>
-  <si>
-    <t>stepLanguageNameInEnglish</t>
-  </si>
-  <si>
-    <t>stepLicenceExpiryDate</t>
-  </si>
-  <si>
-    <t>stepLicenceId</t>
-  </si>
-  <si>
-    <t>stepManualOsis2mod</t>
-  </si>
-  <si>
-    <t>stepModuleCreationDate</t>
-  </si>
-  <si>
-    <t>stepModuleName</t>
-  </si>
-  <si>
-    <t>stepOnlineUsageOnly</t>
-  </si>
-  <si>
-    <t>stepOptions</t>
-  </si>
-  <si>
-    <t>stepOsis2ModEncryptionKey</t>
-  </si>
-  <si>
-    <t>stepOsis2ModVersion</t>
-  </si>
-  <si>
-    <t>stepOsis2modType</t>
-  </si>
-  <si>
-    <t>stepReleaseType</t>
-  </si>
-  <si>
-    <t>stepReversificationFootnoteLevel</t>
-  </si>
-  <si>
-    <t>stepReversificationType</t>
-  </si>
-  <si>
-    <t>stepShortPromo</t>
-  </si>
-  <si>
-    <t>stepSoftwareVersionRequired</t>
-  </si>
-  <si>
-    <t>stepSpecialFeatures</t>
-  </si>
-  <si>
-    <t>stepStepOsis2ModFolderPath</t>
-  </si>
-  <si>
-    <t>stepSuppliedCountryCode</t>
-  </si>
-  <si>
-    <t>stepSuppliedScriptCode</t>
-  </si>
-  <si>
-    <t>stepSupplierUpdateReason</t>
-  </si>
-  <si>
-    <t>stepSwordSoftwareDefaultVersion</t>
-  </si>
-  <si>
-    <t>stepTextDirection</t>
-  </si>
-  <si>
-    <t>stepTextDirectionForSword</t>
-  </si>
-  <si>
-    <t>stepTextModifiedDate</t>
-  </si>
-  <si>
-    <t>stepTextOwnerOrganisationAbbreviatedName</t>
-  </si>
-  <si>
-    <t>stepTextRepositoryOrganisationAbbreviatedName</t>
-  </si>
-  <si>
-    <t>stepTextRepositoryOrganisationFullName</t>
-  </si>
-  <si>
-    <t>stepTextRevision</t>
-  </si>
-  <si>
-    <t>stepTextSource</t>
-  </si>
-  <si>
-    <t>stepThanks</t>
-  </si>
-  <si>
-    <t>stepTypeOfDocument</t>
-  </si>
-  <si>
-    <t>stepUpIssued</t>
-  </si>
-  <si>
-    <t>stepUseVernacularFormats</t>
-  </si>
-  <si>
-    <t>stepValidationReportOutOfOrderAsError</t>
-  </si>
-  <si>
-    <t>stepVersificationScheme</t>
-  </si>
-  <si>
-    <t>stepVersified</t>
-  </si>
-  <si>
-    <t>2-character language code.</t>
-  </si>
-  <si>
-    <t>3-character language code.</t>
-  </si>
-  <si>
-    <t>Determined from name of root folder.</t>
-  </si>
-  <si>
-    <t>The callout to be used for explanation footnotes.</t>
-  </si>
-  <si>
-    <t>Language name in English.</t>
-  </si>
-  <si>
-    <t>Determined from language code in name of root folder.</t>
-  </si>
-  <si>
-    <t>Used for admin purposes only.  With DBL data, this can be deduced automatically from license.xml.</t>
-  </si>
-  <si>
-    <t>stepCrossReferenceCallout</t>
-  </si>
-  <si>
-    <t>The callout to be used for cross-reference footnotes.</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>English form of full Bible name.</t>
-  </si>
-  <si>
-    <t>Vernacular form of full Bible name.</t>
-  </si>
-  <si>
-    <t>May want to change this to suit the vernacular.</t>
-  </si>
-  <si>
-    <t>Down-arrow</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Licence id.</t>
-  </si>
-  <si>
-    <t>Says whether it is ok to generate footnotes (depending upon licence conditions, it may not be).</t>
-  </si>
-  <si>
-    <t>No if copyright text, otherwise yes.</t>
-  </si>
-  <si>
-    <t>You can force the matter by overtly specifying a value.</t>
-  </si>
-  <si>
-    <t>Indicates whether to apply runtime, conversion-time or no reversification.</t>
-  </si>
-  <si>
-    <t>Depends on various parameters.</t>
-  </si>
-  <si>
-    <t>if conversionTimeReversification is set to yes on the command line, then conversion-time is used.  Otherwise all STEP modules use runtime reversification, and all public modules use none.  Conversion-time has not been exercised currently.</t>
-  </si>
-  <si>
-    <t>Defines a folder within which commonly used configuration can be stored.</t>
-  </si>
-  <si>
-    <t>Needed only if you choose to use it include statements.  Probably best defined in the StepTextConverterParameters environment variable.</t>
-  </si>
-  <si>
-    <t>Determines whether we are building a STEP-internal or a public facing module.</t>
-  </si>
-  <si>
-    <t>Needed only where the root folder name ends in PublicStep, indicating that both forms of module can be built from the same source data.  In this case, says which should be built.</t>
-  </si>
-  <si>
-    <t>Determines whether out-of-order verses are reported as an error.</t>
-  </si>
-  <si>
-    <t>Sometimes translators may deliberately put verses out of order, and we may need to accept this.  However, this works only for STEP-internal modules.</t>
-  </si>
-  <si>
-    <t>Versification scheme.  This is used only with public modules, when it needs to be one of the schemes supported by osis2mod and must be a reasonable fit.</t>
-  </si>
-  <si>
-    <t>Standard rubric thanking people who have supplied texts.</t>
-  </si>
-  <si>
-    <t>Standard text already supplied in one of the configuration files.</t>
-  </si>
-  <si>
-    <t>Any id supplied by the source repository or owner organisation to identify this text.</t>
-  </si>
-  <si>
-    <t>On DBL texts, something relevant may be available in metadata.xml.</t>
-  </si>
-  <si>
-    <t>Used internally to hold some markup information which I think may be needed only until STEPBible can be fixed.</t>
-  </si>
-  <si>
-    <t>Used as part of the information on the copyright page, via the About parameter in the Sword config file.  Calculated from various other elements.</t>
-  </si>
-  <si>
-    <t>Used to hold the line of admin data which is stored as a comment near the top of Sword config files.</t>
-  </si>
-  <si>
-    <t>With DBL texts, may be derived from metadata.xml.</t>
-  </si>
-  <si>
-    <t>Path from which to obtain reversification data.  May be a URL or a local file; I recommend the former so you are always using the most recent data.</t>
-  </si>
-  <si>
-    <t>The URL of the STEP repository.</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>By default, if the reason for generating a new module is the same as that used last time, the module is not up-issued.  Give this as 'yes' if you want to force the issue.</t>
-  </si>
-  <si>
-    <t>Determines whether we use the STEP version of osis2mod or the Crosswire version.</t>
-  </si>
-  <si>
-    <t>Deduced from the type of module being generated.</t>
-  </si>
-  <si>
-    <t>An XSLT stylesheet used to pre-process the OSIS file where we are starting from OSIS.</t>
-  </si>
-  <si>
-    <t>Set this to yes if STEP has added morphology.  Used to include this fact on the copyright page.</t>
-  </si>
-  <si>
-    <t>Set this to yes if STEP has added Strongs.  Used to include this fact on the copyright page.</t>
-  </si>
-  <si>
-    <t>Used to add debug attributes to XML nodes to assist with debugging.</t>
-  </si>
-  <si>
-    <t>stepDbgReversificationAnticipatedSourceType</t>
-  </si>
-  <si>
-    <t>Used to display active reversification rows for debugging purposes.</t>
-  </si>
-  <si>
-    <t>Used to indicate what flavour of versification we believe the text follows, so as to be able to check whether the correct reversification rows are selected.  Actually of very limited use.</t>
-  </si>
-  <si>
-    <t>If yes, indicates that the text has used runtime reversification.</t>
-  </si>
-  <si>
-    <t>Path to the location of the STEP version of osis2mod.</t>
-  </si>
-  <si>
-    <t>I'm not sure whether we can get away without this, relying on the program to be in the path.  I'm assuming not because of needing to pick up the right DLLs on Windows.</t>
-  </si>
-  <si>
-    <t>stepCrosswireOsis2ModFolderPath</t>
-  </si>
-  <si>
-    <t>Path to the location of the Crosswire version of osis2mod.</t>
-  </si>
-  <si>
-    <t>Set to hold details of those features in the text which osis2mod needs to be aware of.</t>
-  </si>
-  <si>
-    <t>Set to USX, VL, OSIS, etc, reflecting the input data used on this run.</t>
-  </si>
-  <si>
-    <t>Gives the software version number reported by osis2mod.  Used for admin purposes, so we know which osis2mod was used.</t>
-  </si>
-  <si>
-    <t>The brief description of the Bible which appears on the Bible chooser in STEP.  Typically made up of a number of elements, but you can override that by specifying a value for stepBibleDescriptionAsItAppearsOnBibleListOverride.</t>
-  </si>
-  <si>
-    <t>Used to obtain a list of book names and abbreviations from an external metadata source where available.</t>
-  </si>
-  <si>
-    <t>LTR, RTL or BiDi (currently we've never used BiDi).  May be specified, defaulted, or calculated.</t>
-  </si>
-  <si>
-    <t>UserSpecifiedOrCalculated</t>
-  </si>
-  <si>
-    <t>LTR</t>
-  </si>
-  <si>
-    <t>The system will try to work this out by examining the input if necessary.</t>
-  </si>
-  <si>
-    <t>LToR, RToL or BiDi.  Aggravating that we need this alternative form, but there we are.</t>
-  </si>
-  <si>
-    <t>Deduced from stepTextDirection.</t>
-  </si>
-  <si>
-    <t>Used only in the OSIS header (and I'm not sure it’s useful there).  You can specify it, but the default (of today's date) is probably good enough.</t>
-  </si>
-  <si>
-    <t>Used where we have non-OSIS inputs available, but nonetheless want to start from the current OSIS.</t>
-  </si>
-  <si>
-    <t>Where alternative inputs are available, you will be warned if you opt to use OSIS and the other inputs are more up to date.</t>
-  </si>
-  <si>
-    <t>Used to hold the encryption key to be used when generating the module.</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>Used to force the processing to use vernacular formats for any references which it generates.  You will seldom want this to be Yes, because obtaining details of how references are formatted is onerous.</t>
-  </si>
-  <si>
-    <t>Set to 'y' if the text is being up-issued.  The processing will normally work this out for itself, but you can force the issue using stepForceUpIssue.</t>
-  </si>
-  <si>
-    <t>For Biblica texts, give Biblica here.  Other owning organisations may be added in future.  Used to make it possible to pick up definitions related to this organisation, and to apply organisation-specific corrections to texts.</t>
-  </si>
-  <si>
-    <t>For DBL texts, give Dbl here.  Other repository organisations may be added in future.  Used to make it possible to pick up definitions directly from the metadata files supplied by the organisation.</t>
-  </si>
-  <si>
-    <t>Language code plus script code and / or country code where appropriate.  (To date, this has never done anything with script- or country- codes.)</t>
-  </si>
-  <si>
-    <t>Indicates which version of the STEP software is required to display the module.</t>
-  </si>
-  <si>
-    <t>Holds details of where the source came from.  Involves some fairly fiddly processing to allow for the fact that different modules may have different information available.</t>
-  </si>
-  <si>
-    <t>Probably always going to be Bible.</t>
-  </si>
-  <si>
-    <t>Bible</t>
-  </si>
-  <si>
-    <t>"Unspecified"</t>
-  </si>
-  <si>
-    <t>Checks the SHA-256 of the present inputs against those for the previous version of the module.</t>
-  </si>
-  <si>
-    <t>Used to hold complex information about the conversion processing</t>
-  </si>
-  <si>
-    <t>Holds a relative data path pointing to data within the module zip file.</t>
-  </si>
-  <si>
-    <t>stepWordingForDerivedWorkStipulatedByTextSupplier</t>
-  </si>
-  <si>
-    <t>Some suppliers require us to use particular words to acknowledge the fact that we have made changes in our version.</t>
-  </si>
-  <si>
-    <t>MandatoryAlways</t>
-  </si>
-  <si>
-    <t>For admin purposes, we use a text-supplier's id for a text where available.  However, there is no guarantee that another text supplier may not use this same id.  stepDisambiguatorForId allows you to specify a string which is prepended to the id which hopefully will make clashes less likely.  If you don't supply something, the processing will determine a value for itself, although the absolute backstop is to use the string 'Unknown'.</t>
-  </si>
-  <si>
-    <t>"Unknown"</t>
-  </si>
-  <si>
-    <t>Says, for instance, that the text is covered by a CC licence.</t>
-  </si>
-  <si>
-    <t>Optional notes giving more details about the distribution licence etc.</t>
-  </si>
-  <si>
-    <t>Set to Yes on copyright texts.</t>
-  </si>
-  <si>
-    <t>A brief description of the copyright status.</t>
-  </si>
-  <si>
-    <t>A short promotion for the text supplier -- perhaps naming them and linking to their website.</t>
-  </si>
-  <si>
-    <t>A country code.</t>
-  </si>
-  <si>
-    <t>A script code for the module.</t>
-  </si>
-  <si>
-    <t>Country code for module.</t>
-  </si>
-  <si>
-    <t>Latn</t>
-  </si>
-  <si>
-    <t>A script code.</t>
-  </si>
-  <si>
-    <t>Where the new module is being produced because the supplier has changed things, details of those changes.</t>
-  </si>
-  <si>
-    <t>stepStepUpdateReason</t>
-  </si>
-  <si>
-    <t>Any version number for the text supplied by the source repository or the owning organisation.</t>
-  </si>
-  <si>
-    <t>Abbreviated name of the owning organisation.  (We use the full name if the abbreviated name is not available.)</t>
-  </si>
-  <si>
-    <t>Full name of the owning organisation.</t>
-  </si>
-  <si>
-    <t>Where the text comes from a repository, the abbreviated name of the repository organisation.  (We use the full name if the abbreviated name is not available.)</t>
-  </si>
-  <si>
-    <t>Full name of the repository organisation, if there is one.</t>
-  </si>
-  <si>
-    <t>The new revision number for the module.</t>
-  </si>
-  <si>
-    <t>This module cannot be used in offline STEP.</t>
-  </si>
-  <si>
-    <t>The default version of Sword software needed to render the module.  There is a default value for this, so you shouldn't normally need to set it.</t>
-  </si>
-  <si>
-    <t>1.7.2</t>
-  </si>
-  <si>
-    <t>Indicates the type of footnotes to be generated on verses affected by reversification.</t>
-  </si>
-  <si>
-    <t>MandatorySometimes</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>If yes, the run simply scores the text against the schemes available in Crosswire's osis2mod.</t>
-  </si>
-  <si>
-    <t>Used internally to hold digests of the input files.</t>
-  </si>
-  <si>
-    <t>Today's date.</t>
-  </si>
-  <si>
-    <t>The basic module name plus various flags to distinguish release modules from evaluation ones etc.</t>
-  </si>
-  <si>
-    <t>Used to hold details of any special features which need to appear in the Sword config file.  (At the time of writing, does not appear to be used).</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>??? An intermediate calculated value, which returns a formatted version stepChangesMadeByUsInDerivedWork if the latter is defined, and otherwise an empty string.</t>
-  </si>
-  <si>
-    <t>Arbitrary string.</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Yes / No.</t>
-  </si>
-  <si>
-    <t>Arbitrary string.  Can also use specific values to force callouts to be a, b, c, etc.</t>
-  </si>
-  <si>
-    <t>Path.</t>
-  </si>
-  <si>
-    <t>Not policed, but should be drawn from a list which appears in the Crosswire documentation.</t>
-  </si>
-  <si>
-    <t>Currently 'Dbl' only, or empty.</t>
-  </si>
-  <si>
-    <t>Currently 'Biblica' only, or empty.</t>
-  </si>
-  <si>
-    <t>Date.</t>
-  </si>
-  <si>
-    <t>Text to be recorded on History line to explain why the module has been generated (used when the new module has been occasioned by STEP itself).</t>
-  </si>
-  <si>
-    <t>Currently only 'Bible' makes sense.</t>
-  </si>
-  <si>
-    <t>One of the versification schemes supported by Crosswire.</t>
-  </si>
-  <si>
-    <t>English / Hebrew / Latin / Greek.</t>
-  </si>
-  <si>
-    <t>Basic / Academic / &lt;Empty&gt;.</t>
-  </si>
-  <si>
-    <t>Public / Step.</t>
-  </si>
-  <si>
-    <t>LTR / RTL / BiDi.</t>
-  </si>
-  <si>
-    <t>SetWhere</t>
-  </si>
-  <si>
-    <t>CommandLine</t>
-  </si>
-  <si>
-    <t>stepDbgConfigData</t>
-  </si>
-  <si>
-    <t>Outputs information which may be of use when trying to debug config data.</t>
-  </si>
-  <si>
-    <t>stepConversionTimeReversification</t>
-  </si>
-  <si>
-    <t>If Yes, restructures the text to conform to NRSVA structure.</t>
-  </si>
-  <si>
-    <t>The root folder holding data for the module.</t>
-  </si>
-  <si>
-    <t>stepBuildTimestamp</t>
-  </si>
-  <si>
-    <t>Present date / time in specific format.</t>
-  </si>
-  <si>
-    <t>Location for storing any temporary files used while carrying out investigations.</t>
-  </si>
-  <si>
-    <t>EnvironmentVariable</t>
-  </si>
-  <si>
-    <t>stepTextConverterDataRoot</t>
-  </si>
-  <si>
-    <t>It may be convenient to store _all_ data under a given folder.  If you define this variable to identify that folder, you can then use relative paths elsewhere, and have things work relative to this one.  That way, it's easy to move everything to a new location if necessary.</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>List of book abbreviations, book range, etc.</t>
-  </si>
-  <si>
-    <t>Needed when performing conversion time or runtime reversification.</t>
-  </si>
-  <si>
-    <t>Needed when creating a public-facing module.  For STEP-internal modules, this parameter is set internally to a name which reflects the name of the module.</t>
-  </si>
-  <si>
-    <t>Arbitrary string or empty.</t>
-  </si>
-  <si>
-    <t>stepTextOwnerOrganisationWebsiteLinkOrDescription</t>
-  </si>
-  <si>
-    <t>Details of text owner and / or link to their website as HTML.</t>
-  </si>
-  <si>
-    <t>MandatoryAlwaysMayBeEmpty</t>
-  </si>
-  <si>
-    <t>stepTextRepositoryOrganisationWebsiteLinkOrDescription</t>
-  </si>
-  <si>
-    <t>Details of repository organisation and / or link to their website as HTML.</t>
-  </si>
-  <si>
-    <t>Date on which licence expires.</t>
-  </si>
-  <si>
-    <t>Occasionally it is impossible to get osis2mod to run under control of the program in the IDE.  This lets you pause at the point where osis2mod is required in order to run it manually.</t>
-  </si>
-  <si>
-    <t>Configuration data descriptions</t>
-  </si>
-  <si>
-    <t>This file contains descriptions of all of the configuration parameters used by the converter.</t>
-  </si>
-  <si>
-    <t>in the Resources section of the converter JAR file.</t>
-  </si>
-  <si>
-    <t>The PatternBasedElements tab contains a list of configuration name prefixes of items for which I don't</t>
-  </si>
-  <si>
-    <t>want to give a detailed description – things like vernacular text strings.  This is recorded here simply for</t>
-  </si>
-  <si>
-    <t>information: you need to take these details into account manually in ConfigDataSupport.</t>
-  </si>
-  <si>
-    <t>Data from the IndividualElements tab should be copied as-is and pasted into configDataDescriptors.tsv</t>
-  </si>
-  <si>
-    <t>stepVlCommentMarker</t>
-  </si>
-  <si>
-    <t>Used when processing VL to indicate how comments (if any) are marked in the VL text.</t>
-  </si>
-  <si>
-    <t>Regular expression which defines how lines in VL format should be parsed.   Needs to hold named capturing groups called bookAbbrev, chapter, verse and text.</t>
-  </si>
-  <si>
-    <t>Regex.</t>
-  </si>
-  <si>
-    <t>stepOsisRegex</t>
-  </si>
-  <si>
-    <t>String with particular format.</t>
-  </si>
-  <si>
-    <t>stepNonOsisRegex</t>
-  </si>
-  <si>
-    <t>May occur multiple times.  Lines should be of the form 'stepOsisRegex=regex=&gt;replacement'.  Each statement defines a modification to be applied to the input data before processing.</t>
-  </si>
-  <si>
-    <t>May occur multiple times.  Lines should be of the form 'stepOsisRegex=regex=&gt;replacement'.  Each statement defines a modification to be applied to the OSIS before processing.</t>
-  </si>
-  <si>
-    <t>stepNonOsisXsltStyleSheet</t>
-  </si>
-  <si>
-    <t>An XSLT stylesheet used to pre-process theinput data where where we are starting from OSIS.</t>
-  </si>
-  <si>
-    <t>step_TMP_garbage</t>
-  </si>
-  <si>
-    <t>Used internally only.</t>
-  </si>
-  <si>
-    <t>stepStepDidTheSwordConversion</t>
-  </si>
-  <si>
-    <t>Standard text explaining that we did the conversion.</t>
-  </si>
-  <si>
-    <t>stepThanksToCrosswire</t>
-  </si>
-  <si>
-    <t>Standard text thanking Crosswire for their software etc.</t>
-  </si>
-  <si>
-    <t>History_.*</t>
-  </si>
-  <si>
-    <t>V_.*</t>
-  </si>
-  <si>
-    <t>stepNonOsisXsltStyleSheet_.*</t>
-  </si>
-  <si>
-    <t>stepMapCallout</t>
-  </si>
-  <si>
-    <t>stepStudyNotesCallout</t>
-  </si>
-  <si>
-    <t>stepTranslationNotesCallout</t>
-  </si>
-  <si>
-    <t>stepVariantTextCallout</t>
-  </si>
-  <si>
-    <t>The callout to be used for maps.</t>
-  </si>
-  <si>
-    <t>The callout to be used for study notes.</t>
-  </si>
-  <si>
-    <t>The callout to be used for translation notes.</t>
-  </si>
-  <si>
-    <t>The callout to be used for variant text notes.</t>
-  </si>
-  <si>
-    <t>stepSimplePreprocessTagModifications</t>
-  </si>
-  <si>
-    <t>A string of the form 'mapping | mapping | …' where each mapping looks like 'para:li4 -&gt; para:li1' or  note -&gt; specialNote to change a given _USX_ tag or tag and style attribute.  You can also specify eg tag:attr -&gt; tag, to remove the attribute altogether.</t>
-  </si>
-  <si>
-    <t>stepStandardWordingForDerivedWorkWeHaveChangedVersification</t>
-  </si>
-  <si>
-    <t>Standard wording explaining we may have changed the versification structure.</t>
-  </si>
-  <si>
-    <t>stepRootFolder</t>
-  </si>
-  <si>
-    <t>stepReversificationMap</t>
-  </si>
-  <si>
-    <t>Used internally to hold mapping details for run-time reversification.</t>
-  </si>
-  <si>
-    <t>stepModuleSize</t>
-  </si>
-  <si>
-    <t>Used internally when creating the Sword config file.</t>
-  </si>
-  <si>
-    <t>stepOsisXsltStylesheet</t>
-  </si>
-  <si>
-    <t>OptionalOrCalculated</t>
-  </si>
-  <si>
-    <t>FileOrCalculated</t>
-  </si>
-  <si>
-    <t>Typically you allow this to be calculated, because the format is complicated.  But particularly when updating older modules, you may want to keep the previous value, in which case you can specify that value in a configuration file.</t>
-  </si>
-  <si>
-    <t>Basic information which feeds into the Sword About parameter and thence into our copyright page (ie information typically provided by the text supplier to describe the text).</t>
-  </si>
-  <si>
-    <t>ChangeWhen</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_CrosswireModuleListBibles</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_CrosswireModuleListCommentaries</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_CrosswireModuleListDevotionals</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_CrosswireWebsite</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_DblWebsite</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_OsisXsd</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_StepDataRepository</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_TaggingActRev</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_TaggingAll</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_TaggingGenDeu</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_TaggingIsaMal</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_TaggingJobSng</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_TaggingJosEst</t>
-  </si>
-  <si>
-    <t>stepExternalDataPath_TaggingMatJhn</t>
-  </si>
-  <si>
-    <t>Points to the list of Bibles available from Crosswire.  Not used currently so far as I can see.</t>
-  </si>
-  <si>
-    <t>NotUsed</t>
-  </si>
-  <si>
-    <t>URL.</t>
-  </si>
-  <si>
-    <t>Points to the list of commentaries available from Crosswire.  Not used currently so far as I can see.</t>
-  </si>
-  <si>
-    <t>Points to the list of devotionals available from Crosswire.  Not used currently so far as I can see.</t>
-  </si>
-  <si>
-    <t>Points to Crosswire website.</t>
-  </si>
-  <si>
-    <t>URL of the OSIS XSD.</t>
-  </si>
-  <si>
-    <t>This is required in the OSIS header.  In fact the value they specify (which is the one I use) no longer exists, so it's a bit pointless.</t>
-  </si>
-  <si>
-    <t>The URL of the tab-separated form of the reversification data within the STEP repository.</t>
-  </si>
-  <si>
-    <t>The URL of a portion of the tagging data within the STEP data repository.</t>
-  </si>
-  <si>
-    <t># Controlling organisations.</t>
-  </si>
-  <si>
-    <t># Copyright and licensing.</t>
-  </si>
-  <si>
-    <t># Description of text.</t>
-  </si>
-  <si>
-    <t>stepBibleDescriptionAsItAppearsOnBiblePicker</t>
-  </si>
-  <si>
-    <t># Text identification and versioning.</t>
-  </si>
-  <si>
-    <t># Description of language or script.</t>
-  </si>
-  <si>
-    <t># Preprocessing.</t>
-  </si>
-  <si>
-    <t>stepVlLineFormat</t>
-  </si>
-  <si>
-    <t># Process control.</t>
-  </si>
-  <si>
-    <t># Value added by STEP project.</t>
-  </si>
-  <si>
-    <t># Converter environment.</t>
-  </si>
-  <si>
-    <t># Interface to external metadata.</t>
-  </si>
-  <si>
-    <t># Command-line.</t>
-  </si>
-  <si>
-    <t># Rendering.</t>
-  </si>
-  <si>
-    <t># Debug etc.</t>
-  </si>
-  <si>
-    <t># External data paths and URLs.  With the exception of Reversification data, in general these aren't used or will be fixed.  They are available if you need to refer out to them from your own config file.</t>
-  </si>
-  <si>
-    <t># Standard values.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>DO NOT SORT THE ROWS ON THIS PAGE.  The user-specifiable portion is organised to let us auto-generate a sensible outline config file.</t>
-  </si>
-  <si>
-    <t>PerTextIfNecessary</t>
-  </si>
-  <si>
-    <t>PerTextIfAvailable</t>
-  </si>
-  <si>
-    <t>PerRunIfNecessary</t>
-  </si>
-  <si>
-    <t>PerTextIfDesired</t>
-  </si>
-  <si>
-    <t>PerRunForDebugging</t>
-  </si>
-  <si>
-    <t>IfComputingEnvironmentChanges</t>
-  </si>
-  <si>
-    <t>IfCrosswireInternalsChange</t>
-  </si>
-  <si>
-    <t>IfOutsideWorldChanges</t>
-  </si>
-  <si>
-    <t>ProbablyNever</t>
-  </si>
-  <si>
-    <t>IfYouOptToUseThis</t>
-  </si>
-  <si>
-    <t>PerhapsPerLanguage</t>
-  </si>
-  <si>
-    <t>PerTextAlways</t>
-  </si>
-  <si>
-    <t>PerTextIfWarranted</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Distinguishes major and minor releases.</t>
+    <t>Path to folder containing shared config information.</t>
+  </si>
+  <si>
+    <t>stepTextConverterOverallDataRoot</t>
+  </si>
+  <si>
+    <t>stepVersion</t>
+  </si>
+  <si>
+    <t>Requests the version of the converter JAR.</t>
+  </si>
+  <si>
+    <t>stepHelp</t>
+  </si>
+  <si>
+    <t>Not requested</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1731,7 @@
     <row r="1" spans="1:14" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1745,7 +1751,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1775,7 +1781,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1791,7 +1797,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1821,7 +1827,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1837,7 +1843,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1853,7 +1859,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1888,13 +1894,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A148" sqref="A148"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,4568 +1915,4570 @@
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>346</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>347</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>284</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>361</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>294</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="I31" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
         <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>312</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>328</v>
-      </c>
-      <c r="B45" t="s">
-        <v>345</v>
-      </c>
-      <c r="C45" t="s">
-        <v>345</v>
-      </c>
-      <c r="D45" t="s">
-        <v>345</v>
-      </c>
-      <c r="E45" t="s">
-        <v>345</v>
-      </c>
-      <c r="F45" t="s">
-        <v>345</v>
-      </c>
-      <c r="G45" t="s">
-        <v>345</v>
-      </c>
-      <c r="H45" t="s">
-        <v>345</v>
-      </c>
-      <c r="I45" t="s">
-        <v>345</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>329</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>329</v>
       </c>
       <c r="F46" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="G46" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H46" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="I46" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>345</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="G47" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H47" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="I47" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>247</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E48" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G48" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H48" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="I48" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="F49" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="G49" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H49" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="I49" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>345</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="G50" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H50" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="I50" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E51" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F51" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G51" t="s">
+        <v>235</v>
+      </c>
+      <c r="H51" t="s">
+        <v>342</v>
+      </c>
+      <c r="I51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
         <v>242</v>
       </c>
-      <c r="H51" t="s">
-        <v>358</v>
-      </c>
-      <c r="I51" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>345</v>
-      </c>
-      <c r="C52" t="s">
-        <v>345</v>
-      </c>
-      <c r="D52" t="s">
-        <v>345</v>
-      </c>
       <c r="E52" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F52" t="s">
-        <v>345</v>
+        <v>239</v>
       </c>
       <c r="G52" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="H52" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I52" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C53" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D53" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E53" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F53" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G53" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H53" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I53" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>329</v>
-      </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C54" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D54" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E54" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F54" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G54" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H54" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I54" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D55" t="s">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="E55" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F55" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="G55" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H55" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="I55" t="s">
-        <v>129</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F56" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G56" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H56" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="I56" t="s">
-        <v>345</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="E57" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F57" t="s">
         <v>213</v>
       </c>
       <c r="G57" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H57" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="I57" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>329</v>
       </c>
       <c r="F58" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G58" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H58" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="I58" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" t="s">
-        <v>345</v>
+        <v>174</v>
       </c>
       <c r="F59" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G59" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H59" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="I59" t="s">
-        <v>99</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F60" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G60" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H60" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="I60" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F61" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G61" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H61" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="I61" t="s">
-        <v>345</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="E62" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F62" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G62" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H62" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="I62" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F63" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G63" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H63" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="I63" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>172</v>
+      </c>
       <c r="B64" t="s">
-        <v>345</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D64" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F64" t="s">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="G64" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="H64" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="I64" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C65" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D65" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E65" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F65" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G65" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H65" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I65" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>330</v>
-      </c>
       <c r="B66" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C66" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D66" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E66" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F66" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G66" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H66" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I66" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>314</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>329</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D67" t="s">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="E67" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F67" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="G67" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H67" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="I67" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="F68" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G68" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H68" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="I68" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>345</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G69" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H69" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="I69" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>329</v>
       </c>
       <c r="F70" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G70" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H70" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="I70" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>331</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
-        <v>299</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>345</v>
+        <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="G71" t="s">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="H71" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I71" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>315</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="D72" t="s">
-        <v>204</v>
+        <v>286</v>
       </c>
       <c r="E72" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F72" t="s">
-        <v>224</v>
+        <v>329</v>
       </c>
       <c r="G72" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="H72" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I72" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
       <c r="B73" t="s">
-        <v>345</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D73" t="s">
-        <v>345</v>
+        <v>199</v>
       </c>
       <c r="E73" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F73" t="s">
-        <v>345</v>
+        <v>219</v>
       </c>
       <c r="G73" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="H73" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="I73" t="s">
-        <v>345</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C74" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D74" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E74" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F74" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G74" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H74" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I74" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>332</v>
-      </c>
       <c r="B75" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C75" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D75" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E75" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F75" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G75" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H75" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I75" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>329</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="E76" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F76" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="G76" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H76" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="I76" t="s">
-        <v>125</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F77" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G77" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H77" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="I77" t="s">
-        <v>345</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>181</v>
+        <v>329</v>
       </c>
       <c r="F78" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G78" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H78" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="I78" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
       <c r="B79" t="s">
-        <v>345</v>
+        <v>175</v>
       </c>
       <c r="C79" t="s">
-        <v>345</v>
+        <v>149</v>
       </c>
       <c r="D79" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>345</v>
+        <v>176</v>
       </c>
       <c r="F79" t="s">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="G79" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="H79" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="I79" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C80" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D80" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E80" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F80" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G80" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H80" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I80" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>333</v>
-      </c>
       <c r="B81" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C81" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D81" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E81" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F81" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G81" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H81" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I81" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>329</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="E82" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F82" t="s">
-        <v>187</v>
+        <v>329</v>
       </c>
       <c r="G82" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H82" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="I82" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="F83" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G83" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H83" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="I83" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="F84" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="G84" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H84" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I84" t="s">
-        <v>156</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>76</v>
+      </c>
       <c r="B85" t="s">
-        <v>345</v>
+        <v>148</v>
       </c>
       <c r="C85" t="s">
-        <v>345</v>
+        <v>149</v>
       </c>
       <c r="D85" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="E85" t="s">
-        <v>345</v>
+        <v>150</v>
       </c>
       <c r="F85" t="s">
-        <v>345</v>
+        <v>223</v>
       </c>
       <c r="G85" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="H85" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="I85" t="s">
-        <v>345</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C86" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D86" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E86" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F86" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G86" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H86" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I86" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>334</v>
-      </c>
       <c r="B87" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C87" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D87" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E87" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F87" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G87" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H87" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I87" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="B88" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="E88" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F88" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="G88" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H88" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="I88" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F89" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="G89" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H89" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I89" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E90" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F90" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G90" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H90" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I90" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>278</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F91" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="G91" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H91" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I91" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="B92" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F92" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="G92" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H92" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I92" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F93" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="G93" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H93" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I93" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F94" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="G94" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H94" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I94" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>349</v>
+      </c>
       <c r="B95" t="s">
-        <v>345</v>
+        <v>259</v>
       </c>
       <c r="C95" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D95" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="E95" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F95" t="s">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="G95" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="H95" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="I95" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C96" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D96" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E96" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F96" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G96" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H96" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I96" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>336</v>
-      </c>
       <c r="B97" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C97" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D97" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E97" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F97" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G97" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H97" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I97" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="B98" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="E98" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="F98" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="G98" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H98" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="I98" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="B99" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F99" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G99" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H99" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I99" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F100" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G100" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H100" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="I100" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C101" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E101" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F101" t="s">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="G101" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="H101" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="I101" t="s">
-        <v>111</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="D102" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="E102" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="F102" t="s">
-        <v>226</v>
+        <v>329</v>
       </c>
       <c r="G102" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H102" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I102" t="s">
-        <v>244</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B103" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D103" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G103" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H103" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I103" t="s">
-        <v>345</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D104" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E104" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="F104" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G104" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H104" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="I104" t="s">
-        <v>120</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>88</v>
+      </c>
       <c r="B105" t="s">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D105" t="s">
-        <v>345</v>
+        <v>174</v>
       </c>
       <c r="E105" t="s">
-        <v>345</v>
+        <v>105</v>
       </c>
       <c r="F105" t="s">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="G105" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="H105" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="I105" t="s">
-        <v>345</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C106" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D106" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E106" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F106" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G106" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H106" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I106" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>337</v>
-      </c>
       <c r="B107" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C107" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D107" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E107" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F107" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G107" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H107" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I107" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="B108" t="s">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="E108" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="F108" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="G108" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H108" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="I108" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E109" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F109" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G109" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H109" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="I109" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>40</v>
+      </c>
       <c r="B110" t="s">
-        <v>345</v>
+        <v>133</v>
       </c>
       <c r="C110" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="E110" t="s">
-        <v>345</v>
+        <v>128</v>
       </c>
       <c r="F110" t="s">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="G110" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="H110" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I110" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C111" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D111" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E111" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F111" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G111" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H111" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I111" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>338</v>
-      </c>
       <c r="B112" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C112" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D112" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E112" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F112" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G112" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H112" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I112" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>322</v>
       </c>
       <c r="B113" t="s">
-        <v>147</v>
+        <v>329</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D113" t="s">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="E113" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F113" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="G113" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="H113" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="I113" t="s">
-        <v>145</v>
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="B114" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E114" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="F114" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G114" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H114" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="I114" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>2</v>
+        <v>357</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>358</v>
       </c>
       <c r="C115" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="E115" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F115" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G115" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H115" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="I115" t="s">
-        <v>116</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="E116" t="s">
-        <v>345</v>
+        <v>209</v>
       </c>
       <c r="F116" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G116" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H116" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="I116" t="s">
-        <v>345</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="B117" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F117" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G117" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H117" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="I117" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C118" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D118" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E118" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F118" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G118" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H118" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I118" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C119" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D119" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E119" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F119" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G119" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H119" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I119" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B120" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C120" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D120" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E120" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F120" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G120" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H120" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I120" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E121" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F121" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G121" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H121" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="I121" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E122" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F122" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G122" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H122" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="I122" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C123" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D123" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E123" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F123" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G123" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H123" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I123" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C124" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D124" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E124" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F124" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G124" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H124" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I124" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B125" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C125" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D125" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E125" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F125" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G125" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H125" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I125" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E126" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F126" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G126" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H126" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="I126" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E127" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F127" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G127" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H127" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="I127" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>293</v>
+        <v>362</v>
       </c>
       <c r="B128" t="s">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="E128" t="s">
-        <v>345</v>
-      </c>
-      <c r="F128" t="s">
-        <v>217</v>
+        <v>363</v>
       </c>
       <c r="G128" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H128" t="s">
-        <v>358</v>
-      </c>
-      <c r="I128" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="E129" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="F129" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G129" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H129" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="I129" t="s">
-        <v>161</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D130" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E130" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="F130" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G130" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H130" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="I130" t="s">
-        <v>345</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="B131" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E131" t="s">
-        <v>345</v>
+        <v>168</v>
       </c>
       <c r="F131" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G131" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H131" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="I131" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D132" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="E132" t="s">
-        <v>202</v>
+        <v>329</v>
       </c>
       <c r="F132" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G132" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="H132" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="I132" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B133" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D133" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E133" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="F133" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="G133" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H133" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="I133" t="s">
-        <v>118</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
       <c r="B134" t="s">
-        <v>345</v>
+        <v>113</v>
       </c>
       <c r="C134" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>345</v>
+        <v>199</v>
       </c>
       <c r="E134" t="s">
-        <v>345</v>
+        <v>26</v>
       </c>
       <c r="F134" t="s">
-        <v>345</v>
+        <v>222</v>
       </c>
       <c r="G134" t="s">
-        <v>345</v>
+        <v>225</v>
       </c>
       <c r="H134" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="I134" t="s">
-        <v>345</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>360</v>
+      </c>
       <c r="B135" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D135" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="E135" t="s">
-        <v>345</v>
-      </c>
-      <c r="F135" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="G135" t="s">
-        <v>345</v>
+        <v>225</v>
       </c>
       <c r="H135" t="s">
-        <v>345</v>
-      </c>
-      <c r="I135" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>341</v>
-      </c>
       <c r="B136" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C136" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D136" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E136" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F136" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G136" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H136" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I136" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>100</v>
-      </c>
       <c r="B137" t="s">
-        <v>101</v>
+        <v>329</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D137" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="E137" t="s">
-        <v>106</v>
+        <v>329</v>
       </c>
       <c r="F137" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="G137" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H137" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="I137" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>325</v>
       </c>
       <c r="B138" t="s">
-        <v>96</v>
+        <v>329</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D138" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="E138" t="s">
-        <v>106</v>
+        <v>329</v>
       </c>
       <c r="F138" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="G138" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H138" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="I138" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="B139" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D139" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E139" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F139" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G139" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H139" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="I139" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="B140" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D140" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E140" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G140" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H140" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="I140" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B141" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E141" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F141" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G141" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H141" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="I141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B142" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D142" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E142" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F142" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G142" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H142" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="I142" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>271</v>
+      </c>
       <c r="B143" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="C143" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D143" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="E143" t="s">
-        <v>345</v>
+        <v>104</v>
       </c>
       <c r="F143" t="s">
-        <v>345</v>
+        <v>211</v>
       </c>
       <c r="G143" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="H143" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I143" t="s">
-        <v>345</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>272</v>
+      </c>
       <c r="B144" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="C144" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D144" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="E144" t="s">
-        <v>345</v>
+        <v>104</v>
       </c>
       <c r="F144" t="s">
-        <v>345</v>
+        <v>211</v>
       </c>
       <c r="G144" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="H144" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I144" t="s">
-        <v>345</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>342</v>
-      </c>
       <c r="B145" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C145" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D145" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E145" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F145" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G145" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H145" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I145" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>18</v>
-      </c>
       <c r="B146" t="s">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D146" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="E146" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F146" t="s">
-        <v>243</v>
+        <v>329</v>
       </c>
       <c r="G146" t="s">
-        <v>230</v>
+        <v>329</v>
       </c>
       <c r="H146" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="I146" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="B147" t="s">
-        <v>139</v>
+        <v>329</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="F147" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="G147" t="s">
-        <v>230</v>
+        <v>329</v>
       </c>
       <c r="H147" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="I147" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D148" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="F148" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G148" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H148" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I148" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E149" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F149" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G149" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H149" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I149" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D150" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E150" t="s">
-        <v>345</v>
+        <v>128</v>
       </c>
       <c r="F150" t="s">
+        <v>210</v>
+      </c>
+      <c r="G150" t="s">
         <v>225</v>
       </c>
-      <c r="G150" t="s">
-        <v>242</v>
-      </c>
       <c r="H150" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I150" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1</v>
+      </c>
       <c r="B151" t="s">
-        <v>345</v>
+        <v>136</v>
       </c>
       <c r="C151" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D151" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="E151" t="s">
-        <v>345</v>
+        <v>128</v>
       </c>
       <c r="F151" t="s">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="G151" t="s">
-        <v>345</v>
+        <v>225</v>
       </c>
       <c r="H151" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I151" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>135</v>
+      </c>
       <c r="B152" t="s">
-        <v>345</v>
+        <v>137</v>
       </c>
       <c r="C152" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D152" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="E152" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F152" t="s">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="G152" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="H152" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I152" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B153" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="C153" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D153" t="s">
-        <v>345</v>
-      </c>
-      <c r="E153" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="F153" t="s">
-        <v>345</v>
-      </c>
-      <c r="G153" t="s">
-        <v>345</v>
+        <v>212</v>
       </c>
       <c r="H153" t="s">
-        <v>345</v>
-      </c>
-      <c r="I153" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>304</v>
-      </c>
       <c r="B154" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D154" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E154" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F154" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G154" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H154" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="I154" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>305</v>
-      </c>
       <c r="B155" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D155" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E155" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F155" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G155" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H155" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="I155" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="B156" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D156" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E156" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F156" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G156" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H156" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="I156" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B157" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D157" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E157" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G157" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H157" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I157" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B158" t="s">
-        <v>130</v>
+        <v>307</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D158" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="E158" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G158" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H158" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I158" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B159" t="s">
-        <v>130</v>
+        <v>308</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D159" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="E159" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G159" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H159" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I159" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>51</v>
+        <v>294</v>
       </c>
       <c r="B160" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D160" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="E160" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G160" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H160" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I160" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B161" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D161" t="s">
-        <v>319</v>
+        <v>174</v>
       </c>
       <c r="E161" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G161" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H161" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I161" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>311</v>
+        <v>49</v>
       </c>
       <c r="B162" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D162" t="s">
-        <v>319</v>
+        <v>174</v>
       </c>
       <c r="E162" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G162" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H162" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I162" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B163" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" t="s">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="E163" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="G163" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="H163" t="s">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="I163" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B164" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D164" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E164" t="s">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G164" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H164" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I164" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B165" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D165" t="s">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="E165" t="s">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="G165" t="s">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="H165" t="s">
-        <v>354</v>
+        <v>26</v>
       </c>
       <c r="I165" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B166" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D166" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E166" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G166" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H166" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I166" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B167" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D167" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E167" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G167" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H167" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I167" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B168" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D168" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E168" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G168" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H168" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="I168" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>302</v>
+      </c>
       <c r="B169" t="s">
-        <v>345</v>
+        <v>126</v>
       </c>
       <c r="C169" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D169" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="E169" t="s">
-        <v>345</v>
+        <v>127</v>
       </c>
       <c r="F169" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="G169" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="H169" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I169" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>303</v>
+      </c>
       <c r="B170" t="s">
-        <v>345</v>
+        <v>126</v>
       </c>
       <c r="C170" t="s">
-        <v>345</v>
+        <v>28</v>
       </c>
       <c r="D170" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="E170" t="s">
-        <v>345</v>
+        <v>127</v>
       </c>
       <c r="F170" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="G170" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="H170" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I170" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>344</v>
-      </c>
-      <c r="B171" t="s">
-        <v>345</v>
-      </c>
-      <c r="C171" t="s">
-        <v>345</v>
-      </c>
-      <c r="D171" t="s">
-        <v>345</v>
-      </c>
-      <c r="E171" t="s">
-        <v>345</v>
-      </c>
-      <c r="F171" t="s">
-        <v>345</v>
-      </c>
-      <c r="G171" t="s">
-        <v>345</v>
-      </c>
-      <c r="H171" t="s">
-        <v>345</v>
-      </c>
-      <c r="I171" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>291</v>
-      </c>
       <c r="B172" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D172" t="s">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="E172" t="s">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="G172" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H172" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="I172" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="B173" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="D173" t="s">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="E173" t="s">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="G173" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="H173" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="I173" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>86</v>
+        <v>279</v>
       </c>
       <c r="B174" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D174" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E174" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F174" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G174" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H174" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="I174" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B175" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D175" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F175" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G175" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H175" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="I175" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B176" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D176" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E176" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="F176" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="G176" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H176" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="I176" t="s">
-        <v>345</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>264</v>
+      </c>
+      <c r="B177" t="s">
+        <v>265</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>174</v>
+      </c>
+      <c r="E177" t="s">
+        <v>119</v>
+      </c>
+      <c r="F177" t="s">
+        <v>208</v>
+      </c>
+      <c r="G177" t="s">
+        <v>235</v>
+      </c>
+      <c r="H177" t="s">
+        <v>339</v>
+      </c>
+      <c r="I177" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>85</v>
+      </c>
+      <c r="B178" t="s">
+        <v>166</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>174</v>
+      </c>
+      <c r="E178" t="s">
+        <v>167</v>
+      </c>
+      <c r="F178" t="s">
+        <v>218</v>
+      </c>
+      <c r="G178" t="s">
+        <v>235</v>
+      </c>
+      <c r="H178" t="s">
+        <v>339</v>
+      </c>
+      <c r="I178" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I176" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I132">
-      <sortCondition ref="D2:D132"/>
+  <autoFilter ref="A2:I178" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I133">
+      <sortCondition ref="D2:D133"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I132">
-    <sortCondition ref="A3:A132"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I133">
+    <sortCondition ref="A3:A133"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6492,17 +6500,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Support/configDescriptions.xlsx
+++ b/Support/configDescriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\RemotelyBackedUp\Git\StepTextConversion\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02FFA50-7A6E-4C9A-B5FE-2F6B7AE065BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09983ED5-8E44-4AA4-877D-D79F442AEBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{128561E6-B5C2-46ED-B2EC-132D38FABE72}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PatternBasedElements" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$177</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="362">
   <si>
     <t>stepDbgAddDebugAttributesToNodes</t>
   </si>
@@ -245,9 +245,6 @@
     <t>stepSpecialFeatures</t>
   </si>
   <si>
-    <t>stepStepOsis2ModFolderPath</t>
-  </si>
-  <si>
     <t>stepSuppliedCountryCode</t>
   </si>
   <si>
@@ -449,18 +446,9 @@
     <t>If yes, indicates that the text has used runtime reversification.</t>
   </si>
   <si>
-    <t>Path to the location of the STEP version of osis2mod.</t>
-  </si>
-  <si>
     <t>I'm not sure whether we can get away without this, relying on the program to be in the path.  I'm assuming not because of needing to pick up the right DLLs on Windows.</t>
   </si>
   <si>
-    <t>stepCrosswireOsis2ModFolderPath</t>
-  </si>
-  <si>
-    <t>Path to the location of the Crosswire version of osis2mod.</t>
-  </si>
-  <si>
     <t>Set to hold details of those features in the text which osis2mod needs to be aware of.</t>
   </si>
   <si>
@@ -1103,12 +1091,6 @@
     <t>Location for any temporaries generated while debugging.</t>
   </si>
   <si>
-    <t>stepSharedConfigFolder</t>
-  </si>
-  <si>
-    <t>Path to folder containing shared config information.</t>
-  </si>
-  <si>
     <t>stepTextConverterOverallDataRoot</t>
   </si>
   <si>
@@ -1122,6 +1104,18 @@
   </si>
   <si>
     <t>Not requested</t>
+  </si>
+  <si>
+    <t>stepCrosswireOsis2ModFilePath</t>
+  </si>
+  <si>
+    <t>Path to the  Crosswire version of osis2mod.</t>
+  </si>
+  <si>
+    <t>stepStepOsis2ModFilePath</t>
+  </si>
+  <si>
+    <t>Path to the  STEP version of osis2mod.</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1725,7 @@
     <row r="1" spans="1:14" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1751,7 +1745,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1781,7 +1775,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1797,7 +1791,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1827,7 +1821,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1843,7 +1837,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1859,7 +1853,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1894,13 +1888,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C142" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:I178"/>
+      <selection pane="bottomRight" activeCell="A115" sqref="A115:XFD115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,7 +1909,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1929,19 +1923,19 @@
         <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>34</v>
@@ -1949,10 +1943,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1972,7 +1966,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -1992,7 +1986,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -2012,7 +2006,7 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -2032,7 +2026,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -2052,7 +2046,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -2069,10 +2063,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -2092,7 +2086,7 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -2112,7 +2106,7 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -2132,7 +2126,7 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -2152,7 +2146,7 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -2172,7 +2166,7 @@
         <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -2192,7 +2186,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -2209,10 +2203,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B16" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -2232,7 +2226,7 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -2247,7 +2241,7 @@
         <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2255,22 +2249,22 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
         <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2278,22 +2272,22 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
         <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2301,7 +2295,7 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -2318,10 +2312,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -2341,7 +2335,7 @@
         <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -2361,7 +2355,7 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -2381,7 +2375,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -2401,7 +2395,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -2421,7 +2415,7 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -2441,22 +2435,22 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
         <v>130</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2464,7 +2458,7 @@
         <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
@@ -2484,7 +2478,7 @@
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
@@ -2501,10 +2495,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -2524,25 +2518,25 @@
         <v>67</v>
       </c>
       <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
         <v>110</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s">
         <v>111</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2550,7 +2544,7 @@
         <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
@@ -2570,7 +2564,7 @@
         <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -2587,10 +2581,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
@@ -2605,15 +2599,15 @@
         <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
@@ -2630,10 +2624,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
@@ -2650,10 +2644,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
@@ -2670,10 +2664,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
         <v>26</v>
@@ -2693,7 +2687,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
@@ -2710,10 +2704,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
@@ -2730,10 +2724,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
         <v>26</v>
@@ -2750,39 +2744,39 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B46" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C46" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D46" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E46" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F46" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G46" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H46" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I46" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -2794,16 +2788,16 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G47" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H47" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I47" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2811,65 +2805,65 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F48" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H48" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I48" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E49" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F49" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G49" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H49" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I49" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -2878,158 +2872,158 @@
         <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G50" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H50" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I50" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E51" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F51" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G51" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I51" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E52" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F52" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G52" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I52" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C53" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D53" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E53" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F53" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G53" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H53" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I53" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C54" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D54" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E54" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F54" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G54" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H54" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I54" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B55" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C55" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D55" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E55" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F55" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G55" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H55" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I55" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3037,28 +3031,28 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F56" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G56" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H56" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3066,28 +3060,28 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E57" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F57" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G57" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H57" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I57" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3095,7 +3089,7 @@
         <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -3104,19 +3098,19 @@
         <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F58" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G58" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H58" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I58" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3130,19 +3124,19 @@
         <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F59" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G59" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H59" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I59" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3150,7 +3144,7 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -3159,19 +3153,19 @@
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F60" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G60" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H60" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3179,7 +3173,7 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -3188,19 +3182,19 @@
         <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F61" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G61" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H61" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3208,28 +3202,28 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E62" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F62" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G62" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H62" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I62" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3237,7 +3231,7 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -3246,27 +3240,27 @@
         <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F63" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G63" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H63" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I63" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -3275,100 +3269,100 @@
         <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F64" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G64" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H64" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I64" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C65" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D65" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E65" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F65" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G65" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H65" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I65" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C66" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D66" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E66" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F66" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G66" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H66" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I66" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B67" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C67" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D67" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E67" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F67" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G67" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H67" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I67" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3382,22 +3376,22 @@
         <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E68" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G68" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H68" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I68" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3417,16 +3411,16 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G69" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H69" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I69" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3434,28 +3428,28 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E70" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F70" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G70" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H70" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I70" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3463,7 +3457,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -3475,155 +3469,155 @@
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G71" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H71" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I71" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D72" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E72" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F72" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G72" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H72" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I72" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
       </c>
       <c r="D73" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E73" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F73" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G73" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H73" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I73" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C74" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D74" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E74" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F74" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G74" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H74" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I74" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C75" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D75" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E75" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F75" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G75" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H75" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I75" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B76" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C76" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D76" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E76" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F76" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G76" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H76" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I76" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3631,7 +3625,7 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -3640,19 +3634,19 @@
         <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F77" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G77" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H77" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3660,7 +3654,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -3669,19 +3663,19 @@
         <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F78" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G78" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H78" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I78" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3689,117 +3683,117 @@
         <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D79" t="s">
         <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F79" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G79" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H79" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I79" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C80" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D80" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E80" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F80" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G80" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H80" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I80" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C81" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D81" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E81" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F81" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G81" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H81" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I81" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B82" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C82" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D82" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E82" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F82" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G82" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H82" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I82" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -3808,27 +3802,27 @@
         <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F83" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G83" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H83" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I83" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -3837,137 +3831,137 @@
         <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F84" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G84" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H84" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I84" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D85" t="s">
         <v>25</v>
       </c>
       <c r="E85" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F85" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G85" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H85" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I85" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C86" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D86" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E86" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F86" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G86" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H86" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I86" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C87" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D87" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E87" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F87" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G87" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H87" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I87" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B88" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C88" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D88" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E88" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F88" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G88" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H88" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I88" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B89" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -3976,27 +3970,27 @@
         <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F89" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G89" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H89" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I89" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B90" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -4005,27 +3999,27 @@
         <v>25</v>
       </c>
       <c r="E90" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F90" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G90" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H90" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I90" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -4034,27 +4028,27 @@
         <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F91" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G91" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H91" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I91" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -4063,27 +4057,27 @@
         <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G92" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H92" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I92" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B93" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -4092,27 +4086,27 @@
         <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F93" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G93" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H93" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I93" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B94" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -4121,27 +4115,27 @@
         <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F94" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G94" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H94" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I94" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -4150,108 +4144,108 @@
         <v>25</v>
       </c>
       <c r="E95" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F95" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G95" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H95" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I95" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C96" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D96" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E96" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F96" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G96" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H96" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I96" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C97" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D97" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E97" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F97" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G97" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H97" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I97" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B98" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C98" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D98" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E98" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F98" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G98" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H98" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I98" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B99" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -4260,19 +4254,19 @@
         <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F99" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G99" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H99" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I99" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4280,7 +4274,7 @@
         <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -4289,19 +4283,19 @@
         <v>25</v>
       </c>
       <c r="E100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F100" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G100" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H100" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I100" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4309,7 +4303,7 @@
         <v>50</v>
       </c>
       <c r="B101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -4318,19 +4312,19 @@
         <v>25</v>
       </c>
       <c r="E101" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F101" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G101" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H101" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I101" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4338,28 +4332,28 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>145</v>
+      </c>
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" t="s">
         <v>107</v>
       </c>
-      <c r="C102" t="s">
-        <v>149</v>
-      </c>
-      <c r="D102" t="s">
-        <v>26</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
+        <v>325</v>
+      </c>
+      <c r="G102" t="s">
+        <v>231</v>
+      </c>
+      <c r="H102" t="s">
+        <v>327</v>
+      </c>
+      <c r="I102" t="s">
         <v>108</v>
-      </c>
-      <c r="F102" t="s">
-        <v>329</v>
-      </c>
-      <c r="G102" t="s">
-        <v>235</v>
-      </c>
-      <c r="H102" t="s">
-        <v>331</v>
-      </c>
-      <c r="I102" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4367,167 +4361,167 @@
         <v>66</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
       </c>
       <c r="D103" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E103" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G103" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H103" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I103" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
       </c>
       <c r="D104" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F104" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G104" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H104" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I104" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" t="s">
+        <v>104</v>
+      </c>
+      <c r="F105" t="s">
+        <v>206</v>
+      </c>
+      <c r="G105" t="s">
+        <v>231</v>
+      </c>
+      <c r="H105" t="s">
+        <v>327</v>
+      </c>
+      <c r="I105" t="s">
         <v>115</v>
-      </c>
-      <c r="C105" t="s">
-        <v>28</v>
-      </c>
-      <c r="D105" t="s">
-        <v>174</v>
-      </c>
-      <c r="E105" t="s">
-        <v>105</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
-      </c>
-      <c r="G105" t="s">
-        <v>235</v>
-      </c>
-      <c r="H105" t="s">
-        <v>331</v>
-      </c>
-      <c r="I105" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C106" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D106" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E106" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F106" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G106" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H106" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I106" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C107" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D107" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E107" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F107" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G107" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H107" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I107" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B108" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C108" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D108" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E108" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F108" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G108" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H108" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I108" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4535,7 +4529,7 @@
         <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -4544,19 +4538,19 @@
         <v>25</v>
       </c>
       <c r="E109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G109" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H109" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I109" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4564,7 +4558,7 @@
         <v>40</v>
       </c>
       <c r="B110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -4573,305 +4567,305 @@
         <v>25</v>
       </c>
       <c r="E110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G110" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H110" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I110" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D111" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E111" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F111" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G111" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H111" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I111" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C112" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D112" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E112" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F112" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G112" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H112" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I112" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B113" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C113" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D113" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E113" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F113" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G113" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H113" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I113" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>358</v>
       </c>
       <c r="B114" t="s">
-        <v>142</v>
+        <v>359</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
       </c>
       <c r="D114" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E114" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F114" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G114" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H114" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I114" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B115" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E115" t="s">
-        <v>329</v>
+        <v>205</v>
       </c>
       <c r="F115" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G115" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H115" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I115" t="s">
-        <v>329</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>71</v>
+        <v>353</v>
       </c>
       <c r="B116" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="E116" t="s">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="F116" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G116" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H116" t="s">
         <v>336</v>
       </c>
       <c r="I116" t="s">
-        <v>140</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>359</v>
-      </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="E117" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F117" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="G117" t="s">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="H117" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="I117" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C118" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D118" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E118" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F118" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G118" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H118" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I118" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>319</v>
+      </c>
       <c r="B119" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C119" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D119" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E119" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F119" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G119" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H119" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I119" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>323</v>
+        <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>329</v>
+        <v>158</v>
       </c>
       <c r="C120" t="s">
-        <v>329</v>
+        <v>28</v>
       </c>
       <c r="D120" t="s">
-        <v>329</v>
+        <v>25</v>
       </c>
       <c r="E120" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F120" t="s">
-        <v>329</v>
+        <v>210</v>
       </c>
       <c r="G120" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="H120" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I120" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -4880,137 +4874,137 @@
         <v>25</v>
       </c>
       <c r="E121" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F121" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G121" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H121" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I121" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>2</v>
-      </c>
       <c r="B122" t="s">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="D122" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="E122" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F122" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="G122" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="H122" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="I122" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C123" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D123" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E123" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F123" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G123" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H123" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I123" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>320</v>
+      </c>
       <c r="B124" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C124" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D124" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E124" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F124" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G124" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H124" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I124" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="C125" t="s">
-        <v>329</v>
+        <v>28</v>
       </c>
       <c r="D125" t="s">
-        <v>329</v>
+        <v>25</v>
       </c>
       <c r="E125" t="s">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="F125" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="G125" t="s">
-        <v>329</v>
+        <v>221</v>
       </c>
       <c r="H125" t="s">
         <v>329</v>
       </c>
       <c r="I125" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -5019,27 +5013,27 @@
         <v>25</v>
       </c>
       <c r="E126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F126" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G126" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H126" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I126" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="B127" t="s">
-        <v>201</v>
+        <v>355</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -5048,79 +5042,79 @@
         <v>25</v>
       </c>
       <c r="E127" t="s">
-        <v>128</v>
-      </c>
-      <c r="F127" t="s">
-        <v>210</v>
+        <v>357</v>
       </c>
       <c r="G127" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H127" t="s">
-        <v>333</v>
-      </c>
-      <c r="I127" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="B128" t="s">
-        <v>361</v>
+        <v>226</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="E128" t="s">
-        <v>363</v>
+        <v>325</v>
+      </c>
+      <c r="F128" t="s">
+        <v>208</v>
       </c>
       <c r="G128" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H128" t="s">
-        <v>333</v>
+        <v>338</v>
+      </c>
+      <c r="I128" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
       </c>
       <c r="D129" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="E129" t="s">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="F129" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G129" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H129" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="I129" t="s">
-        <v>329</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -5129,27 +5123,27 @@
         <v>25</v>
       </c>
       <c r="E130" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="F130" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G130" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H130" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I130" t="s">
-        <v>156</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -5158,19 +5152,19 @@
         <v>25</v>
       </c>
       <c r="E131" t="s">
-        <v>168</v>
+        <v>325</v>
       </c>
       <c r="F131" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G131" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H131" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I131" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5178,198 +5172,198 @@
         <v>74</v>
       </c>
       <c r="B132" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
       </c>
       <c r="D132" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="E132" t="s">
-        <v>329</v>
+        <v>193</v>
       </c>
       <c r="F132" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G132" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H132" t="s">
         <v>333</v>
       </c>
       <c r="I132" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
       </c>
       <c r="D133" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="E133" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="F133" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G133" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H133" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="I133" t="s">
-        <v>329</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>354</v>
       </c>
       <c r="B134" t="s">
-        <v>113</v>
+        <v>355</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="E134" t="s">
-        <v>26</v>
-      </c>
-      <c r="F134" t="s">
-        <v>222</v>
+        <v>357</v>
       </c>
       <c r="G134" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H134" t="s">
-        <v>333</v>
-      </c>
-      <c r="I134" t="s">
-        <v>114</v>
+        <v>329</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>360</v>
-      </c>
       <c r="B135" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="E135" t="s">
-        <v>363</v>
+        <v>325</v>
+      </c>
+      <c r="F135" t="s">
+        <v>325</v>
       </c>
       <c r="G135" t="s">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="H135" t="s">
-        <v>333</v>
+        <v>325</v>
+      </c>
+      <c r="I135" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C136" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D136" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E136" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F136" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G136" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H136" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I136" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>321</v>
+      </c>
       <c r="B137" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C137" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D137" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E137" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F137" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G137" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H137" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I137" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>325</v>
+        <v>97</v>
       </c>
       <c r="B138" t="s">
-        <v>329</v>
+        <v>98</v>
       </c>
       <c r="C138" t="s">
-        <v>329</v>
+        <v>28</v>
       </c>
       <c r="D138" t="s">
-        <v>329</v>
+        <v>25</v>
       </c>
       <c r="E138" t="s">
-        <v>329</v>
+        <v>103</v>
       </c>
       <c r="F138" t="s">
-        <v>329</v>
+        <v>207</v>
       </c>
       <c r="G138" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="H138" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="I138" t="s">
-        <v>329</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="B139" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -5378,27 +5372,27 @@
         <v>25</v>
       </c>
       <c r="E139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F139" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G139" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H139" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I139" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="B140" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -5407,27 +5401,27 @@
         <v>25</v>
       </c>
       <c r="E140" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F140" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G140" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H140" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -5436,27 +5430,27 @@
         <v>25</v>
       </c>
       <c r="E141" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F141" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G141" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H141" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -5465,27 +5459,27 @@
         <v>25</v>
       </c>
       <c r="E142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F142" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G142" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H142" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I142" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -5494,137 +5488,137 @@
         <v>25</v>
       </c>
       <c r="E143" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F143" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G143" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H143" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I143" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>272</v>
-      </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="D144" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="E144" t="s">
-        <v>104</v>
+        <v>325</v>
       </c>
       <c r="F144" t="s">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="G144" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="H144" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="I144" t="s">
-        <v>103</v>
+        <v>325</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C145" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D145" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E145" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F145" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G145" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H145" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I145" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>322</v>
+      </c>
       <c r="B146" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C146" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D146" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E146" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F146" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G146" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H146" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I146" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>326</v>
+        <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>329</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s">
-        <v>329</v>
+        <v>28</v>
       </c>
       <c r="D147" t="s">
-        <v>329</v>
+        <v>25</v>
       </c>
       <c r="E147" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F147" t="s">
-        <v>329</v>
+        <v>232</v>
       </c>
       <c r="G147" t="s">
-        <v>329</v>
+        <v>221</v>
       </c>
       <c r="H147" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I147" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -5633,27 +5627,27 @@
         <v>25</v>
       </c>
       <c r="E148" t="s">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="F148" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="G148" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H148" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I148" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -5662,27 +5656,27 @@
         <v>25</v>
       </c>
       <c r="E149" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F149" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G149" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H149" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I149" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -5691,24 +5685,24 @@
         <v>25</v>
       </c>
       <c r="E150" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F150" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G150" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H150" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I150" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="B151" t="s">
         <v>136</v>
@@ -5720,27 +5714,27 @@
         <v>25</v>
       </c>
       <c r="E151" t="s">
-        <v>128</v>
+        <v>325</v>
       </c>
       <c r="F151" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G151" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H151" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I151" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>135</v>
+        <v>351</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -5748,737 +5742,708 @@
       <c r="D152" t="s">
         <v>25</v>
       </c>
-      <c r="E152" t="s">
-        <v>329</v>
-      </c>
       <c r="F152" t="s">
-        <v>220</v>
-      </c>
-      <c r="G152" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="H152" t="s">
         <v>335</v>
       </c>
-      <c r="I152" t="s">
-        <v>329</v>
-      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>355</v>
-      </c>
       <c r="B153" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="D153" t="s">
-        <v>25</v>
+        <v>325</v>
+      </c>
+      <c r="E153" t="s">
+        <v>325</v>
       </c>
       <c r="F153" t="s">
-        <v>212</v>
+        <v>325</v>
+      </c>
+      <c r="G153" t="s">
+        <v>325</v>
       </c>
       <c r="H153" t="s">
-        <v>339</v>
+        <v>325</v>
+      </c>
+      <c r="I153" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C154" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D154" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E154" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F154" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G154" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H154" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I154" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>323</v>
+      </c>
       <c r="B155" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C155" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D155" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E155" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F155" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G155" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H155" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I155" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="B156" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="C156" t="s">
-        <v>329</v>
+        <v>28</v>
       </c>
       <c r="D156" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="E156" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="G156" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="H156" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I156" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B157" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
       </c>
       <c r="D157" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E157" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G157" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H157" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I157" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
       </c>
       <c r="D158" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E158" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G158" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H158" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I158" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
       </c>
       <c r="D159" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E159" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G159" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H159" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I159" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B160" t="s">
-        <v>309</v>
+        <v>125</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
       </c>
       <c r="D160" t="s">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="E160" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G160" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H160" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I160" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>295</v>
+        <v>49</v>
       </c>
       <c r="B161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
       </c>
       <c r="D161" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E161" t="s">
         <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G161" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H161" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I161" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="B162" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
       </c>
       <c r="D162" t="s">
-        <v>174</v>
+        <v>301</v>
       </c>
       <c r="E162" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G162" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H162" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I162" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B163" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
       </c>
       <c r="D163" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E163" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G163" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H163" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I163" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B164" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D164" t="s">
-        <v>305</v>
+        <v>26</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="F164" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="G164" t="s">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="H164" t="s">
-        <v>338</v>
+        <v>26</v>
       </c>
       <c r="I164" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B165" t="s">
+        <v>125</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>301</v>
+      </c>
+      <c r="E165" t="s">
         <v>126</v>
       </c>
-      <c r="C165" t="s">
-        <v>26</v>
-      </c>
-      <c r="D165" t="s">
-        <v>26</v>
-      </c>
-      <c r="E165" t="s">
-        <v>329</v>
-      </c>
       <c r="F165" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="G165" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="H165" t="s">
-        <v>26</v>
+        <v>334</v>
       </c>
       <c r="I165" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B166" t="s">
+        <v>125</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>301</v>
+      </c>
+      <c r="E166" t="s">
         <v>126</v>
       </c>
-      <c r="C166" t="s">
-        <v>28</v>
-      </c>
-      <c r="D166" t="s">
-        <v>305</v>
-      </c>
-      <c r="E166" t="s">
-        <v>127</v>
-      </c>
       <c r="F166" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G166" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H166" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I166" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B167" t="s">
+        <v>125</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>301</v>
+      </c>
+      <c r="E167" t="s">
         <v>126</v>
       </c>
-      <c r="C167" t="s">
-        <v>28</v>
-      </c>
-      <c r="D167" t="s">
-        <v>305</v>
-      </c>
-      <c r="E167" t="s">
-        <v>127</v>
-      </c>
       <c r="F167" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G167" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H167" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I167" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>298</v>
+      </c>
+      <c r="B168" t="s">
+        <v>125</v>
+      </c>
+      <c r="C168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" t="s">
         <v>301</v>
       </c>
-      <c r="B168" t="s">
+      <c r="E168" t="s">
         <v>126</v>
       </c>
-      <c r="C168" t="s">
-        <v>28</v>
-      </c>
-      <c r="D168" t="s">
-        <v>305</v>
-      </c>
-      <c r="E168" t="s">
-        <v>127</v>
-      </c>
       <c r="F168" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G168" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H168" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>299</v>
+      </c>
+      <c r="B169" t="s">
+        <v>125</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>301</v>
+      </c>
+      <c r="E169" t="s">
+        <v>126</v>
+      </c>
+      <c r="F169" t="s">
         <v>302</v>
       </c>
-      <c r="B169" t="s">
-        <v>126</v>
-      </c>
-      <c r="C169" t="s">
-        <v>28</v>
-      </c>
-      <c r="D169" t="s">
-        <v>305</v>
-      </c>
-      <c r="E169" t="s">
-        <v>127</v>
-      </c>
-      <c r="F169" t="s">
-        <v>306</v>
-      </c>
       <c r="G169" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H169" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I169" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>303</v>
-      </c>
-      <c r="B170" t="s">
-        <v>126</v>
-      </c>
-      <c r="C170" t="s">
-        <v>28</v>
-      </c>
-      <c r="D170" t="s">
-        <v>305</v>
-      </c>
-      <c r="E170" t="s">
-        <v>127</v>
-      </c>
-      <c r="F170" t="s">
-        <v>306</v>
-      </c>
-      <c r="G170" t="s">
-        <v>235</v>
-      </c>
-      <c r="H170" t="s">
-        <v>338</v>
-      </c>
-      <c r="I170" t="s">
-        <v>329</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>325</v>
+      </c>
+      <c r="C171" t="s">
+        <v>325</v>
+      </c>
+      <c r="D171" t="s">
+        <v>325</v>
+      </c>
+      <c r="E171" t="s">
+        <v>325</v>
+      </c>
+      <c r="F171" t="s">
+        <v>325</v>
+      </c>
+      <c r="G171" t="s">
+        <v>325</v>
+      </c>
+      <c r="H171" t="s">
+        <v>325</v>
+      </c>
+      <c r="I171" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>324</v>
+      </c>
       <c r="B172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="B173" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="C173" t="s">
-        <v>329</v>
+        <v>28</v>
       </c>
       <c r="D173" t="s">
-        <v>329</v>
+        <v>170</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>118</v>
       </c>
       <c r="F173" t="s">
-        <v>329</v>
+        <v>204</v>
       </c>
       <c r="G173" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="H173" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="I173" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B174" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
       </c>
       <c r="D174" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E174" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F174" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G174" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H174" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I174" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>262</v>
+        <v>83</v>
       </c>
       <c r="B175" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
       </c>
       <c r="D175" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E175" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F175" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G175" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H175" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I175" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c r="B176" t="s">
+        <v>261</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>170</v>
+      </c>
+      <c r="E176" t="s">
         <v>118</v>
       </c>
-      <c r="C176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D176" t="s">
-        <v>174</v>
-      </c>
-      <c r="E176" t="s">
-        <v>119</v>
-      </c>
       <c r="F176" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G176" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H176" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I176" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="B177" t="s">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
       </c>
       <c r="D177" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E177" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="F177" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G177" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H177" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I177" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>85</v>
-      </c>
-      <c r="B178" t="s">
-        <v>166</v>
-      </c>
-      <c r="C178" t="s">
-        <v>28</v>
-      </c>
-      <c r="D178" t="s">
-        <v>174</v>
-      </c>
-      <c r="E178" t="s">
-        <v>167</v>
-      </c>
-      <c r="F178" t="s">
-        <v>218</v>
-      </c>
-      <c r="G178" t="s">
-        <v>235</v>
-      </c>
-      <c r="H178" t="s">
-        <v>339</v>
-      </c>
-      <c r="I178" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I178" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I133">
-      <sortCondition ref="D2:D133"/>
+  <autoFilter ref="A2:I177" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I132">
+      <sortCondition ref="D2:D132"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I133">
-    <sortCondition ref="A3:A133"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I132">
+    <sortCondition ref="A3:A132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6500,17 +6465,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/Support/configDescriptions.xlsx
+++ b/Support/configDescriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\RemotelyBackedUp\Git\StepTextConversion\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09983ED5-8E44-4AA4-877D-D79F442AEBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D8C67B-ECFF-4990-9F6F-2DB1EADDEB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{128561E6-B5C2-46ED-B2EC-132D38FABE72}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="362">
   <si>
     <t>stepDbgAddDebugAttributesToNodes</t>
   </si>
@@ -647,9 +647,6 @@
     <t>Arbitrary string.</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
     <t>Yes / No.</t>
   </si>
   <si>
@@ -1106,16 +1103,19 @@
     <t>Not requested</t>
   </si>
   <si>
-    <t>stepCrosswireOsis2ModFilePath</t>
-  </si>
-  <si>
-    <t>Path to the  Crosswire version of osis2mod.</t>
-  </si>
-  <si>
-    <t>stepStepOsis2ModFilePath</t>
-  </si>
-  <si>
-    <t>Path to the  STEP version of osis2mod.</t>
+    <t>stepOsis2ModFilePath</t>
+  </si>
+  <si>
+    <t>Path to the STEP version of osis2mod.  (The STEP version can be used both for STEP-only and for public modules -- it works in the same way as the Crosswire version when given the appropriate command line parameters.)</t>
+  </si>
+  <si>
+    <t>stepOsis2modReturnCode</t>
+  </si>
+  <si>
+    <t>Return code from running osis2mod.</t>
+  </si>
+  <si>
+    <t>Integer.</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1725,7 @@
     <row r="1" spans="1:14" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1745,7 +1745,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1775,7 +1775,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1791,7 +1791,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1821,7 +1821,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1837,7 +1837,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1853,7 +1853,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1891,10 +1891,10 @@
   <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A115" sqref="A115:XFD115"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,7 +1909,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>99</v>
@@ -1932,10 +1932,10 @@
         <v>154</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>34</v>
@@ -1943,10 +1943,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s">
         <v>256</v>
-      </c>
-      <c r="B3" t="s">
-        <v>257</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" t="s">
         <v>227</v>
-      </c>
-      <c r="B9" t="s">
-        <v>228</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" t="s">
         <v>342</v>
-      </c>
-      <c r="B16" t="s">
-        <v>343</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" t="s">
         <v>280</v>
-      </c>
-      <c r="B21" t="s">
-        <v>281</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -2478,7 +2478,7 @@
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B30" t="s">
         <v>278</v>
-      </c>
-      <c r="B30" t="s">
-        <v>279</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s">
         <v>125</v>
@@ -2744,31 +2744,31 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2791,13 +2791,13 @@
         <v>204</v>
       </c>
       <c r="G47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2811,51 +2811,51 @@
         <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" t="s">
         <v>236</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
         <v>237</v>
       </c>
-      <c r="C49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" t="s">
-        <v>238</v>
-      </c>
       <c r="E49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2878,13 +2878,13 @@
         <v>204</v>
       </c>
       <c r="G50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2898,132 +2898,132 @@
         <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52" t="s">
         <v>239</v>
       </c>
-      <c r="B52" t="s">
-        <v>240</v>
-      </c>
       <c r="C52" t="s">
         <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -3040,16 +3040,16 @@
         <v>170</v>
       </c>
       <c r="E56" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F56" t="s">
         <v>204</v>
       </c>
       <c r="G56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I56" t="s">
         <v>124</v>
@@ -3069,19 +3069,19 @@
         <v>170</v>
       </c>
       <c r="E57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3098,19 +3098,19 @@
         <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F58" t="s">
         <v>204</v>
       </c>
       <c r="G58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3127,16 +3127,16 @@
         <v>170</v>
       </c>
       <c r="F59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3144,7 +3144,7 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -3153,16 +3153,16 @@
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I60" t="s">
         <v>96</v>
@@ -3182,16 +3182,16 @@
         <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F61" t="s">
         <v>204</v>
       </c>
       <c r="G61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I61" t="s">
         <v>96</v>
@@ -3211,19 +3211,19 @@
         <v>170</v>
       </c>
       <c r="E62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F62" t="s">
         <v>204</v>
       </c>
       <c r="G62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3240,19 +3240,19 @@
         <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F63" t="s">
         <v>204</v>
       </c>
       <c r="G63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3269,100 +3269,100 @@
         <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F64" t="s">
         <v>204</v>
       </c>
       <c r="G64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3379,19 +3379,19 @@
         <v>170</v>
       </c>
       <c r="E68" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F68" t="s">
         <v>204</v>
       </c>
       <c r="G68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I68" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3414,13 +3414,13 @@
         <v>204</v>
       </c>
       <c r="G69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3437,19 +3437,19 @@
         <v>170</v>
       </c>
       <c r="E70" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F70" t="s">
         <v>204</v>
       </c>
       <c r="G70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H70" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I70" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3472,18 +3472,18 @@
         <v>204</v>
       </c>
       <c r="G71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I71" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B72" t="s">
         <v>142</v>
@@ -3492,22 +3492,22 @@
         <v>145</v>
       </c>
       <c r="D72" t="s">
+        <v>281</v>
+      </c>
+      <c r="E72" t="s">
+        <v>324</v>
+      </c>
+      <c r="F72" t="s">
+        <v>324</v>
+      </c>
+      <c r="G72" t="s">
         <v>282</v>
       </c>
-      <c r="E72" t="s">
-        <v>325</v>
-      </c>
-      <c r="F72" t="s">
-        <v>325</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
+        <v>326</v>
+      </c>
+      <c r="I72" t="s">
         <v>283</v>
-      </c>
-      <c r="H72" t="s">
-        <v>327</v>
-      </c>
-      <c r="I72" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3524,100 +3524,100 @@
         <v>195</v>
       </c>
       <c r="E73" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H73" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3634,16 +3634,16 @@
         <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F77" t="s">
         <v>204</v>
       </c>
       <c r="G77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H77" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I77" t="s">
         <v>120</v>
@@ -3663,19 +3663,19 @@
         <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F78" t="s">
         <v>204</v>
       </c>
       <c r="G78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H78" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3698,94 +3698,94 @@
         <v>204</v>
       </c>
       <c r="G79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H79" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I82" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3802,19 +3802,19 @@
         <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F83" t="s">
         <v>178</v>
       </c>
       <c r="G83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3837,13 +3837,13 @@
         <v>182</v>
       </c>
       <c r="G84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H84" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I84" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3863,13 +3863,13 @@
         <v>146</v>
       </c>
       <c r="F85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H85" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I85" t="s">
         <v>147</v>
@@ -3877,91 +3877,91 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" t="s">
         <v>348</v>
-      </c>
-      <c r="B89" t="s">
-        <v>349</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -3970,27 +3970,27 @@
         <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H89" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I89" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B90" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -3999,27 +3999,27 @@
         <v>25</v>
       </c>
       <c r="E90" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G90" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H90" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I90" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>272</v>
+      </c>
+      <c r="B91" t="s">
         <v>273</v>
-      </c>
-      <c r="B91" t="s">
-        <v>274</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -4028,27 +4028,27 @@
         <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G91" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H91" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I91" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" t="s">
         <v>250</v>
-      </c>
-      <c r="B92" t="s">
-        <v>251</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -4057,27 +4057,27 @@
         <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F92" t="s">
         <v>204</v>
       </c>
       <c r="G92" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H92" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I92" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -4086,27 +4086,27 @@
         <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H93" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I93" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>345</v>
+      </c>
+      <c r="B94" t="s">
         <v>346</v>
-      </c>
-      <c r="B94" t="s">
-        <v>347</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -4115,27 +4115,27 @@
         <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F94" t="s">
         <v>204</v>
       </c>
       <c r="G94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H94" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I94" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -4144,108 +4144,108 @@
         <v>25</v>
       </c>
       <c r="E95" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F95" t="s">
         <v>204</v>
       </c>
       <c r="G95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H95" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I95" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" t="s">
         <v>224</v>
-      </c>
-      <c r="B99" t="s">
-        <v>225</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -4257,16 +4257,16 @@
         <v>127</v>
       </c>
       <c r="F99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H99" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4274,7 +4274,7 @@
         <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -4286,16 +4286,16 @@
         <v>127</v>
       </c>
       <c r="F100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H100" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I100" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4315,16 +4315,16 @@
         <v>127</v>
       </c>
       <c r="F101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H101" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4344,13 +4344,13 @@
         <v>107</v>
       </c>
       <c r="F102" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G102" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H102" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I102" t="s">
         <v>108</v>
@@ -4373,16 +4373,16 @@
         <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G103" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H103" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I103" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4402,16 +4402,16 @@
         <v>127</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H104" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4431,13 +4431,13 @@
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H105" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I105" t="s">
         <v>115</v>
@@ -4445,83 +4445,83 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I106" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4541,16 +4541,16 @@
         <v>127</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H109" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4570,105 +4570,105 @@
         <v>127</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G110" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H110" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I110" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>357</v>
+      </c>
+      <c r="B114" t="s">
         <v>358</v>
-      </c>
-      <c r="B114" t="s">
-        <v>359</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -4677,16 +4677,16 @@
         <v>170</v>
       </c>
       <c r="E114" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F114" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G114" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I114" t="s">
         <v>138</v>
@@ -4694,39 +4694,33 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>359</v>
+      </c>
+      <c r="B115" t="s">
         <v>360</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" t="s">
         <v>361</v>
       </c>
-      <c r="C115" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" t="s">
-        <v>170</v>
-      </c>
-      <c r="E115" t="s">
-        <v>205</v>
-      </c>
-      <c r="F115" t="s">
-        <v>208</v>
-      </c>
       <c r="G115" t="s">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="H115" t="s">
-        <v>332</v>
-      </c>
-      <c r="I115" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -4735,100 +4729,100 @@
         <v>25</v>
       </c>
       <c r="E116" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F116" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G116" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I116" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4845,19 +4839,19 @@
         <v>25</v>
       </c>
       <c r="E120" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F120" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G120" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H120" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I120" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4874,100 +4868,100 @@
         <v>25</v>
       </c>
       <c r="E121" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F121" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H121" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I121" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4987,16 +4981,16 @@
         <v>127</v>
       </c>
       <c r="F125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G125" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I125" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5016,24 +5010,24 @@
         <v>127</v>
       </c>
       <c r="F126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G126" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H126" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I126" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B127" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -5042,21 +5036,21 @@
         <v>25</v>
       </c>
       <c r="E127" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G127" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B128" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -5065,19 +5059,19 @@
         <v>170</v>
       </c>
       <c r="E128" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F128" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G128" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H128" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I128" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -5097,13 +5091,13 @@
         <v>127</v>
       </c>
       <c r="F129" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G129" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H129" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I129" t="s">
         <v>152</v>
@@ -5114,7 +5108,7 @@
         <v>184</v>
       </c>
       <c r="B130" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -5129,13 +5123,13 @@
         <v>204</v>
       </c>
       <c r="G130" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H130" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I130" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5152,19 +5146,19 @@
         <v>25</v>
       </c>
       <c r="E131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F131" t="s">
         <v>204</v>
       </c>
       <c r="G131" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H131" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5187,13 +5181,13 @@
         <v>204</v>
       </c>
       <c r="G132" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H132" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5213,13 +5207,13 @@
         <v>26</v>
       </c>
       <c r="F133" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G133" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H133" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I133" t="s">
         <v>113</v>
@@ -5227,10 +5221,10 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>353</v>
+      </c>
+      <c r="B134" t="s">
         <v>354</v>
-      </c>
-      <c r="B134" t="s">
-        <v>355</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -5239,94 +5233,94 @@
         <v>25</v>
       </c>
       <c r="E134" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G134" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H134" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5346,13 +5340,13 @@
         <v>103</v>
       </c>
       <c r="F138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G138" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H138" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I138" t="s">
         <v>102</v>
@@ -5375,13 +5369,13 @@
         <v>103</v>
       </c>
       <c r="F139" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G139" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H139" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I139" t="s">
         <v>102</v>
@@ -5389,10 +5383,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B140" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -5404,13 +5398,13 @@
         <v>103</v>
       </c>
       <c r="F140" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G140" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H140" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I140" t="s">
         <v>102</v>
@@ -5418,10 +5412,10 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B141" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -5433,13 +5427,13 @@
         <v>103</v>
       </c>
       <c r="F141" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G141" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H141" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I141" t="s">
         <v>102</v>
@@ -5447,10 +5441,10 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B142" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -5462,13 +5456,13 @@
         <v>103</v>
       </c>
       <c r="F142" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G142" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H142" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I142" t="s">
         <v>102</v>
@@ -5476,10 +5470,10 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B143" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -5491,13 +5485,13 @@
         <v>103</v>
       </c>
       <c r="F143" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G143" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H143" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I143" t="s">
         <v>102</v>
@@ -5505,83 +5499,83 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C144" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D144" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E144" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F144" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G144" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H144" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I144" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5598,19 +5592,19 @@
         <v>25</v>
       </c>
       <c r="E147" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F147" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G147" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H147" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I147" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5630,24 +5624,24 @@
         <v>127</v>
       </c>
       <c r="F148" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H148" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I148" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>221</v>
+      </c>
+      <c r="B149" t="s">
         <v>222</v>
-      </c>
-      <c r="B149" t="s">
-        <v>223</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -5659,16 +5653,16 @@
         <v>127</v>
       </c>
       <c r="F149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G149" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H149" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I149" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5688,16 +5682,16 @@
         <v>127</v>
       </c>
       <c r="F150" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G150" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H150" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I150" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5714,27 +5708,27 @@
         <v>25</v>
       </c>
       <c r="E151" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F151" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G151" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H151" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I151" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>350</v>
+      </c>
+      <c r="B152" t="s">
         <v>351</v>
-      </c>
-      <c r="B152" t="s">
-        <v>352</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -5743,212 +5737,212 @@
         <v>25</v>
       </c>
       <c r="F152" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H152" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C153" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D153" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E153" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F153" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G153" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H153" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I153" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B155" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C155" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D155" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E155" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F155" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G155" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H155" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I155" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B156" t="s">
+        <v>299</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
         <v>300</v>
       </c>
-      <c r="C156" t="s">
-        <v>28</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>301</v>
       </c>
-      <c r="E156" t="s">
-        <v>302</v>
-      </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G156" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H156" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I156" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B157" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
       </c>
       <c r="D157" t="s">
+        <v>300</v>
+      </c>
+      <c r="E157" t="s">
         <v>301</v>
       </c>
-      <c r="E157" t="s">
-        <v>302</v>
-      </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G157" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H157" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I157" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B158" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
       </c>
       <c r="D158" t="s">
+        <v>300</v>
+      </c>
+      <c r="E158" t="s">
         <v>301</v>
       </c>
-      <c r="E158" t="s">
-        <v>302</v>
-      </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G158" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H158" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I158" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
       </c>
       <c r="D159" t="s">
+        <v>300</v>
+      </c>
+      <c r="E159" t="s">
         <v>301</v>
       </c>
-      <c r="E159" t="s">
-        <v>302</v>
-      </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G159" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H159" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I159" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B160" t="s">
         <v>125</v>
@@ -5960,19 +5954,19 @@
         <v>170</v>
       </c>
       <c r="E160" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G160" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H160" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I160" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5989,24 +5983,24 @@
         <v>170</v>
       </c>
       <c r="E161" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F161" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G161" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H161" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I161" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B162" t="s">
         <v>125</v>
@@ -6015,27 +6009,27 @@
         <v>28</v>
       </c>
       <c r="D162" t="s">
+        <v>300</v>
+      </c>
+      <c r="E162" t="s">
         <v>301</v>
       </c>
-      <c r="E162" t="s">
-        <v>302</v>
-      </c>
       <c r="F162" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G162" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H162" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I162" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B163" t="s">
         <v>125</v>
@@ -6044,27 +6038,27 @@
         <v>28</v>
       </c>
       <c r="D163" t="s">
+        <v>300</v>
+      </c>
+      <c r="E163" t="s">
+        <v>306</v>
+      </c>
+      <c r="F163" t="s">
         <v>301</v>
       </c>
-      <c r="E163" t="s">
-        <v>307</v>
-      </c>
-      <c r="F163" t="s">
-        <v>302</v>
-      </c>
       <c r="G163" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H163" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I163" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B164" t="s">
         <v>125</v>
@@ -6076,10 +6070,10 @@
         <v>26</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F164" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G164" t="s">
         <v>26</v>
@@ -6088,12 +6082,12 @@
         <v>26</v>
       </c>
       <c r="I164" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B165" t="s">
         <v>125</v>
@@ -6102,27 +6096,27 @@
         <v>28</v>
       </c>
       <c r="D165" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E165" t="s">
         <v>126</v>
       </c>
       <c r="F165" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G165" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H165" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I165" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B166" t="s">
         <v>125</v>
@@ -6131,27 +6125,27 @@
         <v>28</v>
       </c>
       <c r="D166" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E166" t="s">
         <v>126</v>
       </c>
       <c r="F166" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G166" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H166" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I166" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B167" t="s">
         <v>125</v>
@@ -6160,27 +6154,27 @@
         <v>28</v>
       </c>
       <c r="D167" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E167" t="s">
         <v>126</v>
       </c>
       <c r="F167" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G167" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H167" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I167" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B168" t="s">
         <v>125</v>
@@ -6189,27 +6183,27 @@
         <v>28</v>
       </c>
       <c r="D168" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E168" t="s">
         <v>126</v>
       </c>
       <c r="F168" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G168" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H168" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I168" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B169" t="s">
         <v>125</v>
@@ -6218,85 +6212,85 @@
         <v>28</v>
       </c>
       <c r="D169" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E169" t="s">
         <v>126</v>
       </c>
       <c r="F169" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G169" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H169" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I169" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C171" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D171" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G171" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H171" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I171" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>274</v>
+      </c>
+      <c r="B173" t="s">
         <v>275</v>
-      </c>
-      <c r="B173" t="s">
-        <v>276</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -6311,21 +6305,21 @@
         <v>204</v>
       </c>
       <c r="G173" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H173" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I173" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>257</v>
+      </c>
+      <c r="B174" t="s">
         <v>258</v>
-      </c>
-      <c r="B174" t="s">
-        <v>259</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -6340,13 +6334,13 @@
         <v>204</v>
       </c>
       <c r="G174" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H174" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I174" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6369,21 +6363,21 @@
         <v>204</v>
       </c>
       <c r="G175" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H175" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I175" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>259</v>
+      </c>
+      <c r="B176" t="s">
         <v>260</v>
-      </c>
-      <c r="B176" t="s">
-        <v>261</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -6398,13 +6392,13 @@
         <v>204</v>
       </c>
       <c r="G176" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H176" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I176" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -6424,16 +6418,16 @@
         <v>163</v>
       </c>
       <c r="F177" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G177" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H177" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I177" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -6465,17 +6459,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Support/configDescriptions.xlsx
+++ b/Support/configDescriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\RemotelyBackedUp\Git\StepTextConversion\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D8C67B-ECFF-4990-9F6F-2DB1EADDEB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31191DBE-0A24-45CA-A385-036F7B37066F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{128561E6-B5C2-46ED-B2EC-132D38FABE72}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PatternBasedElements" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$175</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="358">
   <si>
     <t>stepDbgAddDebugAttributesToNodes</t>
   </si>
@@ -86,9 +86,6 @@
     <t>dbgSelectBooks</t>
   </si>
   <si>
-    <t>stepStartProcessFromOsis</t>
-  </si>
-  <si>
     <t>stepCheckInputsAgainstPreviousModule</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>stepAbout</t>
   </si>
   <si>
-    <t>stepAcknowledgmentOfDerivedWork</t>
-  </si>
-  <si>
     <t>stepAddedValueLinesForSwordConfigComments</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>stepAdminLine</t>
   </si>
   <si>
-    <t>stepChangesMadeByUsInDerivedWork</t>
-  </si>
-  <si>
     <t>stepConversionInfo</t>
   </si>
   <si>
@@ -485,9 +476,6 @@
     <t>Used only in the OSIS header (and I'm not sure it’s useful there).  You can specify it, but the default (of today's date) is probably good enough.</t>
   </si>
   <si>
-    <t>Used where we have non-OSIS inputs available, but nonetheless want to start from the current OSIS.</t>
-  </si>
-  <si>
     <t>Where alternative inputs are available, you will be warned if you opt to use OSIS and the other inputs are more up to date.</t>
   </si>
   <si>
@@ -641,9 +629,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>??? An intermediate calculated value, which returns a formatted version stepChangesMadeByUsInDerivedWork if the latter is defined, and otherwise an empty string.</t>
-  </si>
-  <si>
     <t>Arbitrary string.</t>
   </si>
   <si>
@@ -854,12 +839,6 @@
     <t>A string of the form 'mapping | mapping | …' where each mapping looks like 'para:li4 -&gt; para:li1' or  note -&gt; specialNote to change a given _USX_ tag or tag and style attribute.  You can also specify eg tag:attr -&gt; tag, to remove the attribute altogether.</t>
   </si>
   <si>
-    <t>stepStandardWordingForDerivedWorkWeHaveChangedVersification</t>
-  </si>
-  <si>
-    <t>Standard wording explaining we may have changed the versification structure.</t>
-  </si>
-  <si>
     <t>stepRootFolder</t>
   </si>
   <si>
@@ -1116,6 +1095,15 @@
   </si>
   <si>
     <t>Integer.</t>
+  </si>
+  <si>
+    <t>stepUseExistingOsis</t>
+  </si>
+  <si>
+    <t>Says to start the process from OSIS rather than any other input.</t>
+  </si>
+  <si>
+    <t>AsInput / AsOutput</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1713,7 @@
     <row r="1" spans="1:14" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1745,7 +1733,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1775,7 +1763,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1791,7 +1779,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1821,7 +1809,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1837,7 +1825,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1853,7 +1841,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1888,13 +1876,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,336 +1897,342 @@
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>334</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>335</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>342</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
         <v>92</v>
@@ -2246,271 +2240,271 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>273</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>333</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2518,3926 +2512,3848 @@
         <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>293</v>
-      </c>
-      <c r="B40" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>300</v>
+      </c>
+      <c r="B44" t="s">
+        <v>317</v>
+      </c>
+      <c r="C44" t="s">
+        <v>317</v>
+      </c>
+      <c r="D44" t="s">
+        <v>317</v>
+      </c>
+      <c r="E44" t="s">
+        <v>317</v>
+      </c>
+      <c r="F44" t="s">
+        <v>317</v>
+      </c>
+      <c r="G44" t="s">
+        <v>317</v>
+      </c>
+      <c r="H44" t="s">
+        <v>317</v>
+      </c>
+      <c r="I44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>199</v>
+      </c>
+      <c r="G45" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45" t="s">
+        <v>320</v>
+      </c>
+      <c r="I45" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>307</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F46" t="s">
-        <v>324</v>
+        <v>229</v>
       </c>
       <c r="G46" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H46" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I46" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>317</v>
       </c>
       <c r="F47" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G47" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H47" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I47" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="G48" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H48" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="I48" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E49" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F49" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G49" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H49" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I49" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="F50" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G50" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H50" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I50" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>80</v>
-      </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>317</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D51" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="E51" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F51" t="s">
-        <v>234</v>
+        <v>317</v>
       </c>
       <c r="G51" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H51" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="I51" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>238</v>
-      </c>
       <c r="B52" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="E52" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F52" t="s">
-        <v>234</v>
+        <v>317</v>
       </c>
       <c r="G52" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H52" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="I52" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>301</v>
+      </c>
       <c r="B53" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C53" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D53" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E53" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F53" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G53" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H53" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I53" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
       <c r="B54" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="C54" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="E54" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F54" t="s">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="G54" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H54" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I54" t="s">
-        <v>324</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>308</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>324</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="E55" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F55" t="s">
-        <v>324</v>
+        <v>203</v>
       </c>
       <c r="G55" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H55" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I55" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F56" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G56" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H56" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I56" t="s">
-        <v>124</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
-      </c>
-      <c r="E57" t="s">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="F57" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G57" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H57" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I57" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F58" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G58" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H58" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="I58" t="s">
-        <v>324</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
+        <v>317</v>
       </c>
       <c r="F59" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G59" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H59" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="I59" t="s">
-        <v>324</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="E60" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G60" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H60" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I60" t="s">
-        <v>96</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F61" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G61" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H61" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F62" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G62" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H62" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="I62" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>68</v>
-      </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E63" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F63" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="G63" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H63" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I63" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>168</v>
-      </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E64" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F64" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="G64" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H64" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I64" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>302</v>
+      </c>
       <c r="B65" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C65" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D65" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E65" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F65" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G65" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H65" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I65" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
       <c r="B66" t="s">
-        <v>324</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="E66" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F66" t="s">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="G66" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H66" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I66" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>324</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="G67" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H67" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I67" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E68" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F68" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G68" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H68" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I68" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G69" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H69" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I69" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>303</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F70" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="G70" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="H70" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="I70" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>317</v>
       </c>
       <c r="F71" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G71" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H71" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I71" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>310</v>
-      </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>317</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="D72" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="E72" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F72" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G72" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="H72" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I72" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>88</v>
-      </c>
       <c r="B73" t="s">
+        <v>317</v>
+      </c>
+      <c r="C73" t="s">
+        <v>317</v>
+      </c>
+      <c r="D73" t="s">
+        <v>317</v>
+      </c>
+      <c r="E73" t="s">
+        <v>317</v>
+      </c>
+      <c r="F73" t="s">
+        <v>317</v>
+      </c>
+      <c r="G73" t="s">
+        <v>317</v>
+      </c>
+      <c r="H73" t="s">
+        <v>317</v>
+      </c>
+      <c r="I73" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>304</v>
+      </c>
+      <c r="B74" t="s">
+        <v>317</v>
+      </c>
+      <c r="C74" t="s">
+        <v>317</v>
+      </c>
+      <c r="D74" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" t="s">
+        <v>317</v>
+      </c>
+      <c r="F74" t="s">
+        <v>317</v>
+      </c>
+      <c r="G74" t="s">
+        <v>317</v>
+      </c>
+      <c r="H74" t="s">
+        <v>317</v>
+      </c>
+      <c r="I74" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
         <v>116</v>
       </c>
-      <c r="C73" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" t="s">
-        <v>195</v>
-      </c>
-      <c r="E73" t="s">
-        <v>324</v>
-      </c>
-      <c r="F73" t="s">
-        <v>214</v>
-      </c>
-      <c r="G73" t="s">
-        <v>230</v>
-      </c>
-      <c r="H73" t="s">
-        <v>326</v>
-      </c>
-      <c r="I73" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>324</v>
-      </c>
-      <c r="C74" t="s">
-        <v>324</v>
-      </c>
-      <c r="D74" t="s">
-        <v>324</v>
-      </c>
-      <c r="E74" t="s">
-        <v>324</v>
-      </c>
-      <c r="F74" t="s">
-        <v>324</v>
-      </c>
-      <c r="G74" t="s">
-        <v>324</v>
-      </c>
-      <c r="H74" t="s">
-        <v>324</v>
-      </c>
-      <c r="I74" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>324</v>
-      </c>
       <c r="C75" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F75" t="s">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="G75" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H75" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I75" t="s">
-        <v>324</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>311</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>324</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F76" t="s">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="G76" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H76" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I76" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="F77" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G77" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H77" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I77" t="s">
-        <v>120</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>7</v>
-      </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E78" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F78" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="G78" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H78" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I78" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>45</v>
-      </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E79" t="s">
-        <v>172</v>
+        <v>317</v>
       </c>
       <c r="F79" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="G79" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H79" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I79" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>305</v>
+      </c>
       <c r="B80" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C80" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D80" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E80" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F80" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G80" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H80" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I80" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>68</v>
+      </c>
       <c r="B81" t="s">
-        <v>324</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F81" t="s">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="G81" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H81" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I81" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>312</v>
+        <v>69</v>
       </c>
       <c r="B82" t="s">
-        <v>324</v>
+        <v>175</v>
       </c>
       <c r="C82" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="F82" t="s">
-        <v>324</v>
+        <v>178</v>
       </c>
       <c r="G82" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H82" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I82" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>324</v>
+        <v>143</v>
       </c>
       <c r="F83" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="G83" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H83" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I83" t="s">
-        <v>324</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>72</v>
-      </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E84" t="s">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="F84" t="s">
-        <v>182</v>
+        <v>317</v>
       </c>
       <c r="G84" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H84" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I84" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>75</v>
-      </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>317</v>
       </c>
       <c r="C85" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E85" t="s">
-        <v>146</v>
+        <v>317</v>
       </c>
       <c r="F85" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="G85" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H85" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I85" t="s">
-        <v>147</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>306</v>
+      </c>
       <c r="B86" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C86" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D86" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E86" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F86" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G86" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H86" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I86" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>340</v>
+      </c>
       <c r="B87" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="C87" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F87" t="s">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="G87" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H87" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I87" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="B88" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="C88" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F88" t="s">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="G88" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H88" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I88" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="B89" t="s">
-        <v>348</v>
+        <v>268</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E89" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F89" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G89" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H89" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I89" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
       <c r="B90" t="s">
-        <v>349</v>
+        <v>245</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F90" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="G90" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H90" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I90" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="B91" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F91" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G91" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H91" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I91" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F92" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G92" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H92" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I92" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E93" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F93" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="G93" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H93" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I93" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>345</v>
-      </c>
       <c r="B94" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E94" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F94" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="G94" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H94" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I94" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>344</v>
-      </c>
       <c r="B95" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E95" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F95" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="G95" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H95" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I95" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>308</v>
+      </c>
       <c r="B96" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C96" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D96" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E96" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F96" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G96" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H96" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I96" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>218</v>
+      </c>
       <c r="B97" t="s">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="C97" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E97" t="s">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="F97" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="G97" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H97" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I97" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>315</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="C98" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="F98" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="G98" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H98" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I98" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F99" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G99" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="H99" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I99" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="D100" t="s">
         <v>25</v>
       </c>
       <c r="E100" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F100" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="G100" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H100" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I100" t="s">
-        <v>324</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="E101" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G101" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H101" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="I101" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="C102" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="E102" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F102" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="G102" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H102" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I102" t="s">
-        <v>108</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="E103" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="F103" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G103" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H103" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>86</v>
-      </c>
       <c r="B104" t="s">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D104" t="s">
-        <v>170</v>
+        <v>317</v>
       </c>
       <c r="E104" t="s">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="F104" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="G104" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H104" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I104" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>87</v>
-      </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>317</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D105" t="s">
-        <v>170</v>
+        <v>317</v>
       </c>
       <c r="E105" t="s">
-        <v>104</v>
+        <v>317</v>
       </c>
       <c r="F105" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="G105" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H105" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I105" t="s">
-        <v>115</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>309</v>
+      </c>
       <c r="B106" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C106" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D106" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E106" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F106" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G106" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H106" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I106" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
       <c r="B107" t="s">
-        <v>324</v>
+        <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E107" t="s">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="F107" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="G107" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H107" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I107" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>316</v>
+        <v>38</v>
       </c>
       <c r="B108" t="s">
-        <v>324</v>
+        <v>129</v>
       </c>
       <c r="C108" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E108" t="s">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="F108" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="G108" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H108" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="I108" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>39</v>
-      </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>317</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E109" t="s">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="F109" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="G109" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H109" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I109" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>40</v>
-      </c>
       <c r="B110" t="s">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E110" t="s">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="F110" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="G110" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H110" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="I110" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>310</v>
+      </c>
       <c r="B111" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C111" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D111" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E111" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F111" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G111" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H111" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I111" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>350</v>
+      </c>
       <c r="B112" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="C112" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="E112" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F112" t="s">
-        <v>324</v>
+        <v>202</v>
       </c>
       <c r="G112" t="s">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="H112" t="s">
         <v>324</v>
       </c>
       <c r="I112" t="s">
-        <v>324</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="B113" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="C113" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="D113" t="s">
-        <v>324</v>
-      </c>
-      <c r="E113" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="F113" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="G113" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>324</v>
-      </c>
-      <c r="I113" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B114" t="s">
-        <v>358</v>
+        <v>224</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F114" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G114" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H114" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I114" t="s">
-        <v>138</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>359</v>
-      </c>
       <c r="B115" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="C115" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>317</v>
+      </c>
+      <c r="E115" t="s">
+        <v>317</v>
       </c>
       <c r="F115" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="G115" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="H115" t="s">
-        <v>26</v>
+        <v>317</v>
+      </c>
+      <c r="I115" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>352</v>
-      </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E116" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F116" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="G116" t="s">
-        <v>228</v>
+        <v>317</v>
       </c>
       <c r="H116" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="I116" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>311</v>
+      </c>
       <c r="B117" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C117" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D117" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E117" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F117" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G117" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H117" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I117" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
       <c r="B118" t="s">
-        <v>324</v>
+        <v>154</v>
       </c>
       <c r="C118" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D118" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E118" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F118" t="s">
-        <v>324</v>
+        <v>204</v>
       </c>
       <c r="G118" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H118" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I118" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>318</v>
+        <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>324</v>
+        <v>153</v>
       </c>
       <c r="C119" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F119" t="s">
-        <v>324</v>
+        <v>205</v>
       </c>
       <c r="G119" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H119" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I119" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>3</v>
-      </c>
       <c r="B120" t="s">
-        <v>158</v>
+        <v>317</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E120" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F120" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="G120" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H120" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="I120" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>2</v>
-      </c>
       <c r="B121" t="s">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D121" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E121" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F121" t="s">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="G121" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H121" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="I121" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>312</v>
+      </c>
       <c r="B122" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C122" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D122" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E122" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F122" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G122" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H122" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I122" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
       <c r="B123" t="s">
-        <v>324</v>
+        <v>161</v>
       </c>
       <c r="C123" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E123" t="s">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="F123" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="G123" t="s">
-        <v>324</v>
+        <v>215</v>
       </c>
       <c r="H123" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I123" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>324</v>
+        <v>193</v>
       </c>
       <c r="C124" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D124" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E124" t="s">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="F124" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="G124" t="s">
-        <v>324</v>
+        <v>215</v>
       </c>
       <c r="H124" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I124" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="B125" t="s">
-        <v>165</v>
+        <v>347</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>127</v>
-      </c>
-      <c r="F125" t="s">
-        <v>205</v>
+        <v>349</v>
       </c>
       <c r="G125" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H125" t="s">
-        <v>328</v>
-      </c>
-      <c r="I125" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="B126" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="E126" t="s">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="F126" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G126" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H126" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I126" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>355</v>
-      </c>
-      <c r="B127" t="s">
-        <v>354</v>
-      </c>
-      <c r="C127" t="s">
-        <v>28</v>
-      </c>
-      <c r="D127" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127" t="s">
-        <v>356</v>
-      </c>
-      <c r="G127" t="s">
-        <v>220</v>
-      </c>
-      <c r="H127" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c r="B128" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="E128" t="s">
-        <v>324</v>
+        <v>160</v>
       </c>
       <c r="F128" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G128" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H128" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="I128" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B129" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="F129" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G129" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H129" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="I129" t="s">
-        <v>152</v>
+        <v>317</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="B130" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="E130" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="F130" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G130" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H130" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I130" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="E131" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="F131" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G131" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H131" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I131" t="s">
-        <v>324</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="B132" t="s">
-        <v>192</v>
+        <v>356</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" t="s">
-        <v>170</v>
-      </c>
-      <c r="E132" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="F132" t="s">
-        <v>204</v>
+        <v>357</v>
       </c>
       <c r="G132" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="H132" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="I132" t="s">
-        <v>324</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="B133" t="s">
-        <v>112</v>
+        <v>347</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>26</v>
-      </c>
-      <c r="F133" t="s">
-        <v>217</v>
+        <v>349</v>
       </c>
       <c r="G133" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H133" t="s">
-        <v>328</v>
-      </c>
-      <c r="I133" t="s">
-        <v>113</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>353</v>
-      </c>
       <c r="B134" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E134" t="s">
-        <v>356</v>
+        <v>317</v>
+      </c>
+      <c r="F134" t="s">
+        <v>317</v>
       </c>
       <c r="G134" t="s">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="H134" t="s">
-        <v>328</v>
+        <v>317</v>
+      </c>
+      <c r="I134" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C135" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D135" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E135" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F135" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G135" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H135" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I135" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>313</v>
+      </c>
       <c r="B136" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C136" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D136" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E136" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F136" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G136" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H136" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I136" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>320</v>
+        <v>94</v>
       </c>
       <c r="B137" t="s">
-        <v>324</v>
+        <v>95</v>
       </c>
       <c r="C137" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D137" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E137" t="s">
-        <v>324</v>
+        <v>100</v>
       </c>
       <c r="F137" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="G137" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H137" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="I137" t="s">
-        <v>324</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E138" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F138" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G138" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H138" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I138" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="B139" t="s">
-        <v>93</v>
+        <v>263</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E139" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F139" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G139" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H139" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I139" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>260</v>
+      </c>
+      <c r="B140" t="s">
         <v>264</v>
       </c>
-      <c r="B140" t="s">
-        <v>268</v>
-      </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E140" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F140" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G140" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H140" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I140" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>261</v>
+      </c>
+      <c r="B141" t="s">
         <v>265</v>
       </c>
-      <c r="B141" t="s">
-        <v>269</v>
-      </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E141" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F141" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G141" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H141" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I141" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>262</v>
+      </c>
+      <c r="B142" t="s">
         <v>266</v>
       </c>
-      <c r="B142" t="s">
-        <v>270</v>
-      </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F142" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G142" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H142" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I142" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>267</v>
-      </c>
       <c r="B143" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D143" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="E143" t="s">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="F143" t="s">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="G143" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="H143" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="I143" t="s">
-        <v>102</v>
+        <v>317</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C144" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D144" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E144" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F144" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G144" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H144" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I144" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>314</v>
+      </c>
       <c r="B145" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C145" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D145" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E145" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F145" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G145" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H145" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I145" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>321</v>
+        <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>324</v>
+        <v>34</v>
       </c>
       <c r="C146" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D146" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="E146" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F146" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="G146" t="s">
-        <v>324</v>
+        <v>215</v>
       </c>
       <c r="H146" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I146" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E147" t="s">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="F147" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="G147" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H147" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I147" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="B148" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E148" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F148" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G148" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H148" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I148" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E149" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F149" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G149" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H149" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I149" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="B150" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="F150" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G150" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H150" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I150" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="B151" t="s">
-        <v>136</v>
+        <v>344</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D151" t="s">
-        <v>25</v>
-      </c>
-      <c r="E151" t="s">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="F151" t="s">
-        <v>215</v>
-      </c>
-      <c r="G151" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="H151" t="s">
-        <v>330</v>
-      </c>
-      <c r="I151" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>350</v>
-      </c>
       <c r="B152" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D152" t="s">
-        <v>25</v>
+        <v>317</v>
+      </c>
+      <c r="E152" t="s">
+        <v>317</v>
       </c>
       <c r="F152" t="s">
-        <v>207</v>
+        <v>317</v>
+      </c>
+      <c r="G152" t="s">
+        <v>317</v>
       </c>
       <c r="H152" t="s">
-        <v>334</v>
+        <v>317</v>
+      </c>
+      <c r="I152" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C153" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D153" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E153" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F153" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G153" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H153" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I153" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>315</v>
+      </c>
       <c r="B154" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C154" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D154" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E154" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F154" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G154" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H154" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I154" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="B155" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="C155" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D155" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="E155" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="G155" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H155" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I155" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B156" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G156" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H156" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I156" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B157" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D157" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G157" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H157" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I157" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B158" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D158" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F158" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G158" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H158" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I158" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B159" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" t="s">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F159" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G159" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H159" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I159" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="B160" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F160" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G160" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H160" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I160" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="B161" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" t="s">
-        <v>170</v>
+        <v>293</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F161" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G161" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H161" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I161" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B162" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D162" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E162" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F162" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G162" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H162" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I162" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B163" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D163" t="s">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="E163" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="G163" t="s">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="H163" t="s">
-        <v>333</v>
+        <v>25</v>
       </c>
       <c r="I163" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>287</v>
+      </c>
+      <c r="B164" t="s">
+        <v>122</v>
+      </c>
+      <c r="C164" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" t="s">
         <v>293</v>
       </c>
-      <c r="B164" t="s">
-        <v>125</v>
-      </c>
-      <c r="C164" t="s">
-        <v>26</v>
-      </c>
-      <c r="D164" t="s">
-        <v>26</v>
-      </c>
       <c r="E164" t="s">
-        <v>324</v>
+        <v>123</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="G164" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="H164" t="s">
-        <v>26</v>
+        <v>326</v>
       </c>
       <c r="I164" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165" t="s">
+        <v>122</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" t="s">
+        <v>293</v>
+      </c>
+      <c r="E165" t="s">
+        <v>123</v>
+      </c>
+      <c r="F165" t="s">
         <v>294</v>
       </c>
-      <c r="B165" t="s">
-        <v>125</v>
-      </c>
-      <c r="C165" t="s">
-        <v>28</v>
-      </c>
-      <c r="D165" t="s">
-        <v>300</v>
-      </c>
-      <c r="E165" t="s">
-        <v>126</v>
-      </c>
-      <c r="F165" t="s">
-        <v>301</v>
-      </c>
       <c r="G165" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H165" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I165" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B166" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D166" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E166" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F166" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G166" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H166" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I166" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B167" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E167" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F167" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G167" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H167" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I167" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B168" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E168" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F168" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G168" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H168" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I168" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>298</v>
-      </c>
-      <c r="B169" t="s">
-        <v>125</v>
-      </c>
-      <c r="C169" t="s">
-        <v>28</v>
-      </c>
-      <c r="D169" t="s">
-        <v>300</v>
-      </c>
-      <c r="E169" t="s">
-        <v>126</v>
-      </c>
-      <c r="F169" t="s">
-        <v>301</v>
-      </c>
-      <c r="G169" t="s">
-        <v>230</v>
-      </c>
-      <c r="H169" t="s">
-        <v>333</v>
-      </c>
-      <c r="I169" t="s">
-        <v>324</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>317</v>
+      </c>
+      <c r="C170" t="s">
+        <v>317</v>
+      </c>
+      <c r="D170" t="s">
+        <v>317</v>
+      </c>
+      <c r="E170" t="s">
+        <v>317</v>
+      </c>
+      <c r="F170" t="s">
+        <v>317</v>
+      </c>
+      <c r="G170" t="s">
+        <v>317</v>
+      </c>
+      <c r="H170" t="s">
+        <v>317</v>
+      </c>
+      <c r="I170" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>316</v>
+      </c>
       <c r="B171" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C171" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D171" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E171" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G171" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H171" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I171" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>323</v>
+        <v>252</v>
       </c>
       <c r="B172" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="C172" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="D172" t="s">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="E172" t="s">
-        <v>324</v>
+        <v>115</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="G172" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H172" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I172" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="B173" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D173" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E173" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F173" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G173" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H173" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I173" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B174" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D174" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E174" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F174" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G174" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H174" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I174" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B175" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D175" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E175" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="F175" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G175" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H175" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I175" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>259</v>
-      </c>
-      <c r="B176" t="s">
-        <v>260</v>
-      </c>
-      <c r="C176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D176" t="s">
-        <v>170</v>
-      </c>
-      <c r="E176" t="s">
-        <v>118</v>
-      </c>
-      <c r="F176" t="s">
-        <v>204</v>
-      </c>
-      <c r="G176" t="s">
-        <v>230</v>
-      </c>
-      <c r="H176" t="s">
-        <v>334</v>
-      </c>
-      <c r="I176" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>84</v>
-      </c>
-      <c r="B177" t="s">
-        <v>162</v>
-      </c>
-      <c r="C177" t="s">
-        <v>28</v>
-      </c>
-      <c r="D177" t="s">
-        <v>170</v>
-      </c>
-      <c r="E177" t="s">
-        <v>163</v>
-      </c>
-      <c r="F177" t="s">
-        <v>213</v>
-      </c>
-      <c r="G177" t="s">
-        <v>230</v>
-      </c>
-      <c r="H177" t="s">
-        <v>334</v>
-      </c>
-      <c r="I177" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I177" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I132">
-      <sortCondition ref="D2:D132"/>
+  <autoFilter ref="A2:I175" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I130">
+      <sortCondition ref="D2:D130"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I132">
-    <sortCondition ref="A3:A132"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I130">
+    <sortCondition ref="A3:A130"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6459,17 +6375,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Support/configDescriptions.xlsx
+++ b/Support/configDescriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\RemotelyBackedUp\Git\StepTextConversion\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31191DBE-0A24-45CA-A385-036F7B37066F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7CAF23-A6BC-40D5-A733-AB2B8D978801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{128561E6-B5C2-46ED-B2EC-132D38FABE72}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="358">
   <si>
     <t>stepDbgAddDebugAttributesToNodes</t>
   </si>
@@ -779,9 +779,6 @@
     <t>String with particular format.</t>
   </si>
   <si>
-    <t>An XSLT stylesheet used to pre-process theinput data where where we are starting from OSIS.</t>
-  </si>
-  <si>
     <t>step_TMP_garbage</t>
   </si>
   <si>
@@ -1040,27 +1037,6 @@
     <t>Version number for converter JAR.</t>
   </si>
   <si>
-    <t>stepRegexForGeneralInputPreprocessing</t>
-  </si>
-  <si>
-    <t>stepXsltStylesheetForGeneralInputPreprocessing</t>
-  </si>
-  <si>
-    <t>stepXsltStylesheetForForcedOsisPreprocessing</t>
-  </si>
-  <si>
-    <t>An XSLT stylesheet used to pre-process the OSIS file where we are forcibly starting from OSIS.</t>
-  </si>
-  <si>
-    <t>stepRegexForForcedOsisPreprocessing</t>
-  </si>
-  <si>
-    <t>May occur multiple times.  Lines should be of the form 'stepRegexForForcedOsisPreprocessing=regex=&gt;replacement'.  Each statement defines a modification to be applied to the OSIS before processing.</t>
-  </si>
-  <si>
-    <t>May occur multiple times.  Lines should be of the form 'stepRegexForGeneralInputPreprocessing=regex=&gt;replacement'.  Each statement defines a modification to be applied to the input data before processing.</t>
-  </si>
-  <si>
     <t>stepTemporaryInvestigationsFolderPath</t>
   </si>
   <si>
@@ -1104,6 +1080,30 @@
   </si>
   <si>
     <t>AsInput / AsOutput</t>
+  </si>
+  <si>
+    <t>stepPreprocessingXsltStylesheeWhenStartingFromOsis</t>
+  </si>
+  <si>
+    <t>An XSLT stylesheet used to pre-process the OSIS file where we are starting from OSIS.</t>
+  </si>
+  <si>
+    <t>stepPreprocessingXsltStylesheeWhenNotStartingFromOsis</t>
+  </si>
+  <si>
+    <t>An XSLT stylesheet used to pre-process theinput data where where we are not starting from OSIS.</t>
+  </si>
+  <si>
+    <t>stepPreprocessingRegexWhenStartingFromOsis</t>
+  </si>
+  <si>
+    <t>stepPreprocessingRegexWhenNotStartingFromOsis</t>
+  </si>
+  <si>
+    <t>May occur multiple times.  Lines should be of the form 'stepPreprocessingRegexWhenStartingFromOsis=regex=&gt;replacement'.  Each statement defines a modification to be applied to the input data before processing.</t>
+  </si>
+  <si>
+    <t>May occur multiple times.  Lines should be of the form 'stepPreprocessingRegexWhenNotStartingFromOsis=regex=&gt;replacement'.  Each statement defines a modification to be applied to the input data before processing.</t>
   </si>
 </sst>
 </file>
@@ -1879,10 +1879,10 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B126" sqref="B126"/>
+      <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,7 +1897,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>96</v>
@@ -1923,7 +1923,7 @@
         <v>214</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>33</v>
@@ -1931,10 +1931,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
         <v>250</v>
-      </c>
-      <c r="B3" t="s">
-        <v>251</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" t="s">
         <v>334</v>
-      </c>
-      <c r="B14" t="s">
-        <v>335</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" t="s">
         <v>272</v>
-      </c>
-      <c r="B19" t="s">
-        <v>273</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -2426,7 +2426,7 @@
         <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" t="s">
         <v>270</v>
-      </c>
-      <c r="B28" t="s">
-        <v>271</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s">
         <v>122</v>
@@ -2692,31 +2692,31 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2742,10 +2742,10 @@
         <v>225</v>
       </c>
       <c r="H45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2762,7 +2762,7 @@
         <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F46" t="s">
         <v>229</v>
@@ -2771,10 +2771,10 @@
         <v>225</v>
       </c>
       <c r="H46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2791,7 +2791,7 @@
         <v>232</v>
       </c>
       <c r="E47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F47" t="s">
         <v>229</v>
@@ -2800,10 +2800,10 @@
         <v>225</v>
       </c>
       <c r="H47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2829,10 +2829,10 @@
         <v>225</v>
       </c>
       <c r="H48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2849,7 +2849,7 @@
         <v>232</v>
       </c>
       <c r="E49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -2858,10 +2858,10 @@
         <v>225</v>
       </c>
       <c r="H49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2878,7 +2878,7 @@
         <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F50" t="s">
         <v>229</v>
@@ -2887,91 +2887,91 @@
         <v>225</v>
       </c>
       <c r="H50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -2988,7 +2988,7 @@
         <v>166</v>
       </c>
       <c r="E54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F54" t="s">
         <v>199</v>
@@ -2997,7 +2997,7 @@
         <v>225</v>
       </c>
       <c r="H54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I54" t="s">
         <v>121</v>
@@ -3017,7 +3017,7 @@
         <v>166</v>
       </c>
       <c r="E55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F55" t="s">
         <v>203</v>
@@ -3026,10 +3026,10 @@
         <v>225</v>
       </c>
       <c r="H55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3046,7 +3046,7 @@
         <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F56" t="s">
         <v>199</v>
@@ -3055,10 +3055,10 @@
         <v>225</v>
       </c>
       <c r="H56" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3081,10 +3081,10 @@
         <v>225</v>
       </c>
       <c r="H57" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F58" t="s">
         <v>206</v>
@@ -3110,7 +3110,7 @@
         <v>225</v>
       </c>
       <c r="H58" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I58" t="s">
         <v>93</v>
@@ -3130,7 +3130,7 @@
         <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F59" t="s">
         <v>199</v>
@@ -3139,7 +3139,7 @@
         <v>225</v>
       </c>
       <c r="H59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I59" t="s">
         <v>93</v>
@@ -3159,7 +3159,7 @@
         <v>166</v>
       </c>
       <c r="E60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F60" t="s">
         <v>199</v>
@@ -3168,10 +3168,10 @@
         <v>225</v>
       </c>
       <c r="H60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F61" t="s">
         <v>199</v>
@@ -3197,10 +3197,10 @@
         <v>225</v>
       </c>
       <c r="H61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3217,7 +3217,7 @@
         <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F62" t="s">
         <v>199</v>
@@ -3226,91 +3226,91 @@
         <v>225</v>
       </c>
       <c r="H62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>166</v>
       </c>
       <c r="E66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F66" t="s">
         <v>199</v>
@@ -3336,10 +3336,10 @@
         <v>225</v>
       </c>
       <c r="H66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3365,10 +3365,10 @@
         <v>225</v>
       </c>
       <c r="H67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3385,7 +3385,7 @@
         <v>166</v>
       </c>
       <c r="E68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F68" t="s">
         <v>199</v>
@@ -3394,10 +3394,10 @@
         <v>225</v>
       </c>
       <c r="H68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3423,15 +3423,15 @@
         <v>225</v>
       </c>
       <c r="H69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I69" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B70" t="s">
         <v>139</v>
@@ -3440,22 +3440,22 @@
         <v>142</v>
       </c>
       <c r="D70" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70" t="s">
+        <v>316</v>
+      </c>
+      <c r="F70" t="s">
+        <v>316</v>
+      </c>
+      <c r="G70" t="s">
         <v>274</v>
       </c>
-      <c r="E70" t="s">
-        <v>317</v>
-      </c>
-      <c r="F70" t="s">
-        <v>317</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
+        <v>318</v>
+      </c>
+      <c r="I70" t="s">
         <v>275</v>
-      </c>
-      <c r="H70" t="s">
-        <v>319</v>
-      </c>
-      <c r="I70" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3472,7 +3472,7 @@
         <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F71" t="s">
         <v>209</v>
@@ -3481,7 +3481,7 @@
         <v>225</v>
       </c>
       <c r="H71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I71" t="s">
         <v>228</v>
@@ -3489,83 +3489,83 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3582,7 +3582,7 @@
         <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F75" t="s">
         <v>199</v>
@@ -3591,7 +3591,7 @@
         <v>225</v>
       </c>
       <c r="H75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I75" t="s">
         <v>117</v>
@@ -3611,7 +3611,7 @@
         <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F76" t="s">
         <v>199</v>
@@ -3620,10 +3620,10 @@
         <v>225</v>
       </c>
       <c r="H76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3649,91 +3649,91 @@
         <v>225</v>
       </c>
       <c r="H77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3750,7 +3750,7 @@
         <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F81" t="s">
         <v>174</v>
@@ -3759,10 +3759,10 @@
         <v>225</v>
       </c>
       <c r="H81" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I81" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3788,10 +3788,10 @@
         <v>225</v>
       </c>
       <c r="H82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3817,7 +3817,7 @@
         <v>225</v>
       </c>
       <c r="H83" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I83" t="s">
         <v>144</v>
@@ -3825,91 +3825,91 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B87" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -3918,7 +3918,7 @@
         <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F87" t="s">
         <v>248</v>
@@ -3927,18 +3927,18 @@
         <v>225</v>
       </c>
       <c r="H87" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I87" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="B88" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -3947,7 +3947,7 @@
         <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F88" t="s">
         <v>248</v>
@@ -3956,18 +3956,18 @@
         <v>225</v>
       </c>
       <c r="H88" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I88" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>266</v>
+      </c>
+      <c r="B89" t="s">
         <v>267</v>
-      </c>
-      <c r="B89" t="s">
-        <v>268</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -3976,7 +3976,7 @@
         <v>24</v>
       </c>
       <c r="E89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F89" t="s">
         <v>248</v>
@@ -3985,10 +3985,10 @@
         <v>225</v>
       </c>
       <c r="H89" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4005,7 +4005,7 @@
         <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F90" t="s">
         <v>199</v>
@@ -4014,15 +4014,15 @@
         <v>225</v>
       </c>
       <c r="H90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B91" t="s">
         <v>246</v>
@@ -4034,7 +4034,7 @@
         <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F91" t="s">
         <v>247</v>
@@ -4043,18 +4043,18 @@
         <v>225</v>
       </c>
       <c r="H91" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I91" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B92" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -4063,7 +4063,7 @@
         <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F92" t="s">
         <v>199</v>
@@ -4072,18 +4072,18 @@
         <v>225</v>
       </c>
       <c r="H92" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I92" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B93" t="s">
-        <v>249</v>
+        <v>353</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -4092,7 +4092,7 @@
         <v>24</v>
       </c>
       <c r="E93" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F93" t="s">
         <v>199</v>
@@ -4101,91 +4101,91 @@
         <v>225</v>
       </c>
       <c r="H93" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I93" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D94" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E94" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F94" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G94" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H94" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I94" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4211,10 +4211,10 @@
         <v>225</v>
       </c>
       <c r="H97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I97" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4240,10 +4240,10 @@
         <v>225</v>
       </c>
       <c r="H98" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I98" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4269,10 +4269,10 @@
         <v>215</v>
       </c>
       <c r="H99" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I99" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4292,13 +4292,13 @@
         <v>104</v>
       </c>
       <c r="F100" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G100" t="s">
         <v>225</v>
       </c>
       <c r="H100" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I100" t="s">
         <v>105</v>
@@ -4327,7 +4327,7 @@
         <v>225</v>
       </c>
       <c r="H101" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I101" t="s">
         <v>227</v>
@@ -4356,10 +4356,10 @@
         <v>225</v>
       </c>
       <c r="H102" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I102" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4385,7 +4385,7 @@
         <v>225</v>
       </c>
       <c r="H103" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I103" t="s">
         <v>112</v>
@@ -4393,83 +4393,83 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4495,10 +4495,10 @@
         <v>225</v>
       </c>
       <c r="H107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I107" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4524,99 +4524,99 @@
         <v>225</v>
       </c>
       <c r="H108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I108" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B112" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -4625,7 +4625,7 @@
         <v>166</v>
       </c>
       <c r="E112" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F112" t="s">
         <v>202</v>
@@ -4634,7 +4634,7 @@
         <v>223</v>
       </c>
       <c r="H112" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I112" t="s">
         <v>135</v>
@@ -4642,10 +4642,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B113" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C113" t="s">
         <v>25</v>
@@ -4654,7 +4654,7 @@
         <v>25</v>
       </c>
       <c r="F113" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G113" t="s">
         <v>25</v>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B114" t="s">
         <v>224</v>
@@ -4677,7 +4677,7 @@
         <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F114" t="s">
         <v>202</v>
@@ -4686,91 +4686,91 @@
         <v>223</v>
       </c>
       <c r="H114" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I114" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4787,7 +4787,7 @@
         <v>24</v>
       </c>
       <c r="E118" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F118" t="s">
         <v>204</v>
@@ -4796,10 +4796,10 @@
         <v>225</v>
       </c>
       <c r="H118" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I118" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4816,7 +4816,7 @@
         <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F119" t="s">
         <v>205</v>
@@ -4825,91 +4825,91 @@
         <v>225</v>
       </c>
       <c r="H119" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I119" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C121" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D121" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E121" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F121" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G121" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H121" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I121" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4935,10 +4935,10 @@
         <v>215</v>
       </c>
       <c r="H123" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I123" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4964,18 +4964,18 @@
         <v>215</v>
       </c>
       <c r="H124" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I124" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B125" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -4984,18 +4984,18 @@
         <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G125" t="s">
         <v>215</v>
       </c>
       <c r="H125" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B126" t="s">
         <v>220</v>
@@ -5007,7 +5007,7 @@
         <v>166</v>
       </c>
       <c r="E126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F126" t="s">
         <v>202</v>
@@ -5016,10 +5016,10 @@
         <v>215</v>
       </c>
       <c r="H126" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5045,10 +5045,10 @@
         <v>215</v>
       </c>
       <c r="H128" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I128" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -5065,7 +5065,7 @@
         <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F129" t="s">
         <v>199</v>
@@ -5074,10 +5074,10 @@
         <v>215</v>
       </c>
       <c r="H129" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I129" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5103,10 +5103,10 @@
         <v>225</v>
       </c>
       <c r="H130" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I130" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5132,7 +5132,7 @@
         <v>215</v>
       </c>
       <c r="H131" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I131" t="s">
         <v>110</v>
@@ -5140,10 +5140,10 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B132" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
@@ -5152,13 +5152,13 @@
         <v>24</v>
       </c>
       <c r="F132" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G132" t="s">
         <v>215</v>
       </c>
       <c r="H132" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I132" t="s">
         <v>148</v>
@@ -5166,10 +5166,10 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B133" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -5178,94 +5178,94 @@
         <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G133" t="s">
         <v>215</v>
       </c>
       <c r="H133" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C134" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D134" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E134" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F134" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G134" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H134" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I134" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C135" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D135" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E135" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F135" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G135" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H135" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I135" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5291,7 +5291,7 @@
         <v>225</v>
       </c>
       <c r="H137" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I137" t="s">
         <v>99</v>
@@ -5320,7 +5320,7 @@
         <v>225</v>
       </c>
       <c r="H138" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I138" t="s">
         <v>99</v>
@@ -5328,10 +5328,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B139" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -5349,7 +5349,7 @@
         <v>225</v>
       </c>
       <c r="H139" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I139" t="s">
         <v>99</v>
@@ -5357,10 +5357,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B140" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -5378,7 +5378,7 @@
         <v>225</v>
       </c>
       <c r="H140" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I140" t="s">
         <v>99</v>
@@ -5386,10 +5386,10 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -5407,7 +5407,7 @@
         <v>225</v>
       </c>
       <c r="H141" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I141" t="s">
         <v>99</v>
@@ -5415,10 +5415,10 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B142" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -5436,7 +5436,7 @@
         <v>225</v>
       </c>
       <c r="H142" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I142" t="s">
         <v>99</v>
@@ -5444,83 +5444,83 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C143" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D143" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E143" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F143" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G143" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H143" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I143" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C144" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D144" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E144" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F144" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G144" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H144" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I144" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B145" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C145" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D145" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E145" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F145" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G145" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H145" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I145" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5537,7 +5537,7 @@
         <v>24</v>
       </c>
       <c r="E146" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F146" t="s">
         <v>226</v>
@@ -5546,10 +5546,10 @@
         <v>215</v>
       </c>
       <c r="H146" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I146" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5575,10 +5575,10 @@
         <v>215</v>
       </c>
       <c r="H147" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I147" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5604,10 +5604,10 @@
         <v>215</v>
       </c>
       <c r="H148" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I148" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5633,10 +5633,10 @@
         <v>215</v>
       </c>
       <c r="H149" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I149" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5653,7 +5653,7 @@
         <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F150" t="s">
         <v>210</v>
@@ -5662,18 +5662,18 @@
         <v>225</v>
       </c>
       <c r="H150" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I150" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B151" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
@@ -5685,209 +5685,209 @@
         <v>202</v>
       </c>
       <c r="H151" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C153" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D153" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E153" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F153" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G153" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H153" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I153" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B154" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C154" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D154" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E154" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F154" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G154" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H154" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I154" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B155" t="s">
+        <v>291</v>
+      </c>
+      <c r="C155" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" t="s">
         <v>292</v>
       </c>
-      <c r="C155" t="s">
-        <v>27</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>293</v>
       </c>
-      <c r="E155" t="s">
-        <v>294</v>
-      </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G155" t="s">
         <v>225</v>
       </c>
       <c r="H155" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I155" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B156" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
       </c>
       <c r="D156" t="s">
+        <v>292</v>
+      </c>
+      <c r="E156" t="s">
         <v>293</v>
       </c>
-      <c r="E156" t="s">
-        <v>294</v>
-      </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G156" t="s">
         <v>225</v>
       </c>
       <c r="H156" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I156" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B157" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
       </c>
       <c r="D157" t="s">
+        <v>292</v>
+      </c>
+      <c r="E157" t="s">
         <v>293</v>
       </c>
-      <c r="E157" t="s">
-        <v>294</v>
-      </c>
       <c r="F157" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G157" t="s">
         <v>225</v>
       </c>
       <c r="H157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I157" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B158" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
       </c>
       <c r="D158" t="s">
+        <v>292</v>
+      </c>
+      <c r="E158" t="s">
         <v>293</v>
       </c>
-      <c r="E158" t="s">
-        <v>294</v>
-      </c>
       <c r="F158" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G158" t="s">
         <v>225</v>
       </c>
       <c r="H158" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I158" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B159" t="s">
         <v>122</v>
@@ -5899,19 +5899,19 @@
         <v>166</v>
       </c>
       <c r="E159" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F159" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G159" t="s">
         <v>225</v>
       </c>
       <c r="H159" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5928,24 +5928,24 @@
         <v>166</v>
       </c>
       <c r="E160" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F160" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G160" t="s">
         <v>225</v>
       </c>
       <c r="H160" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I160" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B161" t="s">
         <v>122</v>
@@ -5954,27 +5954,27 @@
         <v>27</v>
       </c>
       <c r="D161" t="s">
+        <v>292</v>
+      </c>
+      <c r="E161" t="s">
         <v>293</v>
       </c>
-      <c r="E161" t="s">
-        <v>294</v>
-      </c>
       <c r="F161" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G161" t="s">
         <v>225</v>
       </c>
       <c r="H161" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I161" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B162" t="s">
         <v>122</v>
@@ -5983,27 +5983,27 @@
         <v>27</v>
       </c>
       <c r="D162" t="s">
+        <v>292</v>
+      </c>
+      <c r="E162" t="s">
+        <v>298</v>
+      </c>
+      <c r="F162" t="s">
         <v>293</v>
       </c>
-      <c r="E162" t="s">
-        <v>299</v>
-      </c>
-      <c r="F162" t="s">
-        <v>294</v>
-      </c>
       <c r="G162" t="s">
         <v>225</v>
       </c>
       <c r="H162" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I162" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B163" t="s">
         <v>122</v>
@@ -6015,10 +6015,10 @@
         <v>25</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G163" t="s">
         <v>25</v>
@@ -6027,12 +6027,12 @@
         <v>25</v>
       </c>
       <c r="I163" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B164" t="s">
         <v>122</v>
@@ -6041,27 +6041,27 @@
         <v>27</v>
       </c>
       <c r="D164" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E164" t="s">
         <v>123</v>
       </c>
       <c r="F164" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G164" t="s">
         <v>225</v>
       </c>
       <c r="H164" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I164" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B165" t="s">
         <v>122</v>
@@ -6070,27 +6070,27 @@
         <v>27</v>
       </c>
       <c r="D165" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E165" t="s">
         <v>123</v>
       </c>
       <c r="F165" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G165" t="s">
         <v>225</v>
       </c>
       <c r="H165" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I165" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B166" t="s">
         <v>122</v>
@@ -6099,27 +6099,27 @@
         <v>27</v>
       </c>
       <c r="D166" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E166" t="s">
         <v>123</v>
       </c>
       <c r="F166" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G166" t="s">
         <v>225</v>
       </c>
       <c r="H166" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I166" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B167" t="s">
         <v>122</v>
@@ -6128,27 +6128,27 @@
         <v>27</v>
       </c>
       <c r="D167" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E167" t="s">
         <v>123</v>
       </c>
       <c r="F167" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G167" t="s">
         <v>225</v>
       </c>
       <c r="H167" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I167" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B168" t="s">
         <v>122</v>
@@ -6157,85 +6157,85 @@
         <v>27</v>
       </c>
       <c r="D168" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E168" t="s">
         <v>123</v>
       </c>
       <c r="F168" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G168" t="s">
         <v>225</v>
       </c>
       <c r="H168" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I168" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I171" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>251</v>
+      </c>
+      <c r="B172" t="s">
         <v>252</v>
-      </c>
-      <c r="B172" t="s">
-        <v>253</v>
       </c>
       <c r="C172" t="s">
         <v>27</v>
@@ -6253,10 +6253,10 @@
         <v>225</v>
       </c>
       <c r="H172" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I172" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -6282,18 +6282,18 @@
         <v>225</v>
       </c>
       <c r="H173" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I173" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>253</v>
+      </c>
+      <c r="B174" t="s">
         <v>254</v>
-      </c>
-      <c r="B174" t="s">
-        <v>255</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
@@ -6311,10 +6311,10 @@
         <v>225</v>
       </c>
       <c r="H174" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I174" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6340,10 +6340,10 @@
         <v>225</v>
       </c>
       <c r="H175" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I175" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -6375,17 +6375,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Support/configDescriptions.xlsx
+++ b/Support/configDescriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\RemotelyBackedUp\Git\StepTextConversion\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7CAF23-A6BC-40D5-A733-AB2B8D978801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D393189-D540-4452-AD32-D3EC17CA3CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{128561E6-B5C2-46ED-B2EC-132D38FABE72}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PatternBasedElements" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$176</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="361">
   <si>
     <t>stepDbgAddDebugAttributesToNodes</t>
   </si>
@@ -1104,6 +1104,15 @@
   </si>
   <si>
     <t>May occur multiple times.  Lines should be of the form 'stepPreprocessingRegexWhenNotStartingFromOsis=regex=&gt;replacement'.  Each statement defines a modification to be applied to the input data before processing.</t>
+  </si>
+  <si>
+    <t>stepPermitParallelRunning</t>
+  </si>
+  <si>
+    <t>Says whether to permit parallel running where the processing can use it.  May, for instance, be useful to turn it off when debugging.</t>
+  </si>
+  <si>
+    <t>Anywhere</t>
   </si>
 </sst>
 </file>
@@ -1876,13 +1885,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
+      <selection pane="bottomRight" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4306,51 +4315,48 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>63</v>
+        <v>358</v>
       </c>
       <c r="B101" t="s">
-        <v>190</v>
+        <v>359</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="E101" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="F101" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G101" t="s">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="H101" t="s">
-        <v>318</v>
-      </c>
-      <c r="I101" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="E102" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G102" t="s">
         <v>225</v>
@@ -4359,15 +4365,15 @@
         <v>318</v>
       </c>
       <c r="I102" t="s">
-        <v>316</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -4376,7 +4382,7 @@
         <v>166</v>
       </c>
       <c r="E103" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F103" t="s">
         <v>200</v>
@@ -4388,33 +4394,36 @@
         <v>318</v>
       </c>
       <c r="I103" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>166</v>
+      </c>
+      <c r="E104" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" t="s">
+        <v>200</v>
+      </c>
+      <c r="G104" t="s">
+        <v>225</v>
+      </c>
+      <c r="H104" t="s">
+        <v>318</v>
+      </c>
+      <c r="I104" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>316</v>
-      </c>
-      <c r="C104" t="s">
-        <v>316</v>
-      </c>
-      <c r="D104" t="s">
-        <v>316</v>
-      </c>
-      <c r="E104" t="s">
-        <v>316</v>
-      </c>
-      <c r="F104" t="s">
-        <v>316</v>
-      </c>
-      <c r="G104" t="s">
-        <v>316</v>
-      </c>
-      <c r="H104" t="s">
-        <v>316</v>
-      </c>
-      <c r="I104" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4444,9 +4453,6 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>308</v>
-      </c>
       <c r="B106" t="s">
         <v>316</v>
       </c>
@@ -4474,28 +4480,28 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="B107" t="s">
-        <v>128</v>
+        <v>316</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="E107" t="s">
-        <v>124</v>
+        <v>316</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="G107" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="H107" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I107" t="s">
         <v>316</v>
@@ -4503,10 +4509,10 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -4524,33 +4530,36 @@
         <v>225</v>
       </c>
       <c r="H108" t="s">
+        <v>318</v>
+      </c>
+      <c r="I108" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" t="s">
+        <v>200</v>
+      </c>
+      <c r="G109" t="s">
+        <v>225</v>
+      </c>
+      <c r="H109" t="s">
         <v>330</v>
-      </c>
-      <c r="I108" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>316</v>
-      </c>
-      <c r="C109" t="s">
-        <v>316</v>
-      </c>
-      <c r="D109" t="s">
-        <v>316</v>
-      </c>
-      <c r="E109" t="s">
-        <v>316</v>
-      </c>
-      <c r="F109" t="s">
-        <v>316</v>
-      </c>
-      <c r="G109" t="s">
-        <v>316</v>
-      </c>
-      <c r="H109" t="s">
-        <v>316</v>
       </c>
       <c r="I109" t="s">
         <v>316</v>
@@ -4583,9 +4592,6 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>309</v>
-      </c>
       <c r="B111" t="s">
         <v>316</v>
       </c>
@@ -4613,106 +4619,109 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B112" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="D112" t="s">
-        <v>166</v>
+        <v>316</v>
       </c>
       <c r="E112" t="s">
         <v>316</v>
       </c>
       <c r="F112" t="s">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="G112" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="H112" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I112" t="s">
-        <v>135</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B113" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>166</v>
+      </c>
+      <c r="E113" t="s">
+        <v>316</v>
       </c>
       <c r="F113" t="s">
-        <v>346</v>
+        <v>202</v>
       </c>
       <c r="G113" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="H113" t="s">
-        <v>25</v>
+        <v>323</v>
+      </c>
+      <c r="I113" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>344</v>
+      </c>
+      <c r="B114" t="s">
+        <v>345</v>
+      </c>
+      <c r="C114" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G114" t="s">
+        <v>25</v>
+      </c>
+      <c r="H114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>337</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>224</v>
       </c>
-      <c r="C114" t="s">
-        <v>27</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="C115" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" t="s">
         <v>24</v>
       </c>
-      <c r="E114" t="s">
-        <v>316</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="E115" t="s">
+        <v>316</v>
+      </c>
+      <c r="F115" t="s">
         <v>202</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G115" t="s">
         <v>223</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H115" t="s">
         <v>327</v>
-      </c>
-      <c r="I114" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>316</v>
-      </c>
-      <c r="C115" t="s">
-        <v>316</v>
-      </c>
-      <c r="D115" t="s">
-        <v>316</v>
-      </c>
-      <c r="E115" t="s">
-        <v>316</v>
-      </c>
-      <c r="F115" t="s">
-        <v>316</v>
-      </c>
-      <c r="G115" t="s">
-        <v>316</v>
-      </c>
-      <c r="H115" t="s">
-        <v>316</v>
       </c>
       <c r="I115" t="s">
         <v>316</v>
@@ -4745,9 +4754,6 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>310</v>
-      </c>
       <c r="B117" t="s">
         <v>316</v>
       </c>
@@ -4775,28 +4781,28 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>3</v>
+        <v>310</v>
       </c>
       <c r="B118" t="s">
-        <v>154</v>
+        <v>316</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="E118" t="s">
         <v>316</v>
       </c>
       <c r="F118" t="s">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="G118" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="H118" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I118" t="s">
         <v>316</v>
@@ -4804,10 +4810,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -4819,7 +4825,7 @@
         <v>316</v>
       </c>
       <c r="F119" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G119" t="s">
         <v>225</v>
@@ -4832,26 +4838,29 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>2</v>
+      </c>
       <c r="B120" t="s">
-        <v>316</v>
+        <v>153</v>
       </c>
       <c r="C120" t="s">
-        <v>316</v>
+        <v>27</v>
       </c>
       <c r="D120" t="s">
-        <v>316</v>
+        <v>24</v>
       </c>
       <c r="E120" t="s">
         <v>316</v>
       </c>
       <c r="F120" t="s">
-        <v>316</v>
+        <v>205</v>
       </c>
       <c r="G120" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="H120" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="I120" t="s">
         <v>316</v>
@@ -4884,9 +4893,6 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>311</v>
-      </c>
       <c r="B122" t="s">
         <v>316</v>
       </c>
@@ -4914,28 +4920,28 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>311</v>
       </c>
       <c r="B123" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="D123" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="E123" t="s">
-        <v>124</v>
+        <v>316</v>
       </c>
       <c r="F123" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="G123" t="s">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="H123" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I123" t="s">
         <v>316</v>
@@ -4943,10 +4949,10 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B124" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -4972,10 +4978,10 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>339</v>
+        <v>193</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -4984,7 +4990,10 @@
         <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>341</v>
+        <v>124</v>
+      </c>
+      <c r="F125" t="s">
+        <v>200</v>
       </c>
       <c r="G125" t="s">
         <v>215</v>
@@ -4992,71 +5001,68 @@
       <c r="H125" t="s">
         <v>320</v>
       </c>
+      <c r="I125" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="E126" t="s">
-        <v>316</v>
-      </c>
-      <c r="F126" t="s">
-        <v>202</v>
+        <v>341</v>
       </c>
       <c r="G126" t="s">
         <v>215</v>
       </c>
       <c r="H126" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>268</v>
+      </c>
+      <c r="B127" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" t="s">
+        <v>166</v>
+      </c>
+      <c r="E127" t="s">
+        <v>316</v>
+      </c>
+      <c r="F127" t="s">
+        <v>202</v>
+      </c>
+      <c r="G127" t="s">
+        <v>215</v>
+      </c>
+      <c r="H127" t="s">
         <v>329</v>
       </c>
-      <c r="I126" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>180</v>
-      </c>
-      <c r="B128" t="s">
-        <v>207</v>
-      </c>
-      <c r="C128" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" t="s">
-        <v>24</v>
-      </c>
-      <c r="E128" t="s">
-        <v>160</v>
-      </c>
-      <c r="F128" t="s">
-        <v>199</v>
-      </c>
-      <c r="G128" t="s">
-        <v>215</v>
-      </c>
-      <c r="H128" t="s">
-        <v>320</v>
-      </c>
-      <c r="I128" t="s">
+      <c r="I127" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="B129" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -5065,7 +5071,7 @@
         <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>316</v>
+        <v>160</v>
       </c>
       <c r="F129" t="s">
         <v>199</v>
@@ -5082,28 +5088,28 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B130" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
       </c>
       <c r="D130" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="E130" t="s">
-        <v>189</v>
+        <v>316</v>
       </c>
       <c r="F130" t="s">
         <v>199</v>
       </c>
       <c r="G130" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H130" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I130" t="s">
         <v>316</v>
@@ -5111,48 +5117,51 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B131" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
       </c>
       <c r="D131" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="E131" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="F131" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G131" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H131" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I131" t="s">
-        <v>110</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>348</v>
+        <v>109</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>191</v>
+      </c>
+      <c r="E132" t="s">
+        <v>25</v>
       </c>
       <c r="F132" t="s">
-        <v>349</v>
+        <v>212</v>
       </c>
       <c r="G132" t="s">
         <v>215</v>
@@ -5161,15 +5170,15 @@
         <v>320</v>
       </c>
       <c r="I132" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B133" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -5177,8 +5186,8 @@
       <c r="D133" t="s">
         <v>24</v>
       </c>
-      <c r="E133" t="s">
-        <v>341</v>
+      <c r="F133" t="s">
+        <v>349</v>
       </c>
       <c r="G133" t="s">
         <v>215</v>
@@ -5186,31 +5195,31 @@
       <c r="H133" t="s">
         <v>320</v>
       </c>
+      <c r="I133" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>338</v>
+      </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="C134" t="s">
-        <v>316</v>
+        <v>27</v>
       </c>
       <c r="D134" t="s">
-        <v>316</v>
+        <v>24</v>
       </c>
       <c r="E134" t="s">
-        <v>316</v>
-      </c>
-      <c r="F134" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="G134" t="s">
-        <v>316</v>
+        <v>215</v>
       </c>
       <c r="H134" t="s">
-        <v>316</v>
-      </c>
-      <c r="I134" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5240,9 +5249,6 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>312</v>
-      </c>
       <c r="B136" t="s">
         <v>316</v>
       </c>
@@ -5270,39 +5276,39 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="B137" t="s">
-        <v>95</v>
+        <v>316</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="D137" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="E137" t="s">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="F137" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="G137" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="H137" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="I137" t="s">
-        <v>99</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B138" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -5328,10 +5334,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -5357,10 +5363,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B140" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -5386,10 +5392,10 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -5415,10 +5421,10 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B142" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -5443,29 +5449,32 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>261</v>
+      </c>
       <c r="B143" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="C143" t="s">
-        <v>316</v>
+        <v>27</v>
       </c>
       <c r="D143" t="s">
-        <v>316</v>
+        <v>24</v>
       </c>
       <c r="E143" t="s">
-        <v>316</v>
+        <v>100</v>
       </c>
       <c r="F143" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="G143" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="H143" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="I143" t="s">
-        <v>316</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5495,9 +5504,6 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>313</v>
-      </c>
       <c r="B145" t="s">
         <v>316</v>
       </c>
@@ -5525,28 +5531,28 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="E146" t="s">
         <v>316</v>
       </c>
       <c r="F146" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="G146" t="s">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="H146" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I146" t="s">
         <v>316</v>
@@ -5554,10 +5560,10 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
@@ -5566,10 +5572,10 @@
         <v>24</v>
       </c>
       <c r="E147" t="s">
-        <v>124</v>
+        <v>316</v>
       </c>
       <c r="F147" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="G147" t="s">
         <v>215</v>
@@ -5583,10 +5589,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -5612,10 +5618,10 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="B149" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
@@ -5641,10 +5647,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
@@ -5653,13 +5659,13 @@
         <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>316</v>
+        <v>124</v>
       </c>
       <c r="F150" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G150" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H150" t="s">
         <v>322</v>
@@ -5670,10 +5676,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>335</v>
+        <v>131</v>
       </c>
       <c r="B151" t="s">
-        <v>336</v>
+        <v>133</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
@@ -5681,37 +5687,40 @@
       <c r="D151" t="s">
         <v>24</v>
       </c>
+      <c r="E151" t="s">
+        <v>316</v>
+      </c>
       <c r="F151" t="s">
+        <v>210</v>
+      </c>
+      <c r="G151" t="s">
+        <v>225</v>
+      </c>
+      <c r="H151" t="s">
+        <v>322</v>
+      </c>
+      <c r="I151" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>335</v>
+      </c>
+      <c r="B152" t="s">
+        <v>336</v>
+      </c>
+      <c r="C152" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" t="s">
+        <v>24</v>
+      </c>
+      <c r="F152" t="s">
         <v>202</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H152" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>316</v>
-      </c>
-      <c r="C152" t="s">
-        <v>316</v>
-      </c>
-      <c r="D152" t="s">
-        <v>316</v>
-      </c>
-      <c r="E152" t="s">
-        <v>316</v>
-      </c>
-      <c r="F152" t="s">
-        <v>316</v>
-      </c>
-      <c r="G152" t="s">
-        <v>316</v>
-      </c>
-      <c r="H152" t="s">
-        <v>316</v>
-      </c>
-      <c r="I152" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5741,9 +5750,6 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>314</v>
-      </c>
       <c r="B154" t="s">
         <v>316</v>
       </c>
@@ -5771,28 +5777,28 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="B155" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="D155" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="F155" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="G155" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="H155" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I155" t="s">
         <v>316</v>
@@ -5800,10 +5806,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B156" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
@@ -5829,10 +5835,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B157" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -5858,10 +5864,10 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -5887,16 +5893,16 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B159" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
       </c>
       <c r="D159" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="E159" t="s">
         <v>293</v>
@@ -5916,7 +5922,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="B160" t="s">
         <v>122</v>
@@ -5928,7 +5934,7 @@
         <v>166</v>
       </c>
       <c r="E160" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F160" t="s">
         <v>293</v>
@@ -5945,7 +5951,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>283</v>
+        <v>46</v>
       </c>
       <c r="B161" t="s">
         <v>122</v>
@@ -5954,10 +5960,10 @@
         <v>27</v>
       </c>
       <c r="D161" t="s">
-        <v>292</v>
+        <v>166</v>
       </c>
       <c r="E161" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F161" t="s">
         <v>293</v>
@@ -5974,7 +5980,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B162" t="s">
         <v>122</v>
@@ -5986,7 +5992,7 @@
         <v>292</v>
       </c>
       <c r="E162" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F162" t="s">
         <v>293</v>
@@ -6003,28 +6009,28 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B163" t="s">
         <v>122</v>
       </c>
       <c r="C163" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D163" t="s">
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="E163" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="G163" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="H163" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="I163" t="s">
         <v>316</v>
@@ -6032,28 +6038,28 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B164" t="s">
         <v>122</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D164" t="s">
-        <v>292</v>
+        <v>25</v>
       </c>
       <c r="E164" t="s">
-        <v>123</v>
+        <v>316</v>
       </c>
       <c r="F164" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="G164" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="H164" t="s">
-        <v>325</v>
+        <v>25</v>
       </c>
       <c r="I164" t="s">
         <v>316</v>
@@ -6061,7 +6067,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B165" t="s">
         <v>122</v>
@@ -6090,7 +6096,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B166" t="s">
         <v>122</v>
@@ -6119,7 +6125,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B167" t="s">
         <v>122</v>
@@ -6148,7 +6154,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B168" t="s">
         <v>122</v>
@@ -6175,36 +6181,36 @@
         <v>316</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>316</v>
-      </c>
-      <c r="C170" t="s">
-        <v>316</v>
-      </c>
-      <c r="D170" t="s">
-        <v>316</v>
-      </c>
-      <c r="E170" t="s">
-        <v>316</v>
-      </c>
-      <c r="F170" t="s">
-        <v>316</v>
-      </c>
-      <c r="G170" t="s">
-        <v>316</v>
-      </c>
-      <c r="H170" t="s">
-        <v>316</v>
-      </c>
-      <c r="I170" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>290</v>
+      </c>
+      <c r="B169" t="s">
+        <v>122</v>
+      </c>
+      <c r="C169" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" t="s">
+        <v>292</v>
+      </c>
+      <c r="E169" t="s">
+        <v>123</v>
+      </c>
+      <c r="F169" t="s">
+        <v>293</v>
+      </c>
+      <c r="G169" t="s">
+        <v>225</v>
+      </c>
+      <c r="H169" t="s">
+        <v>325</v>
+      </c>
+      <c r="I169" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>315</v>
-      </c>
       <c r="B171" t="s">
         <v>316</v>
       </c>
@@ -6232,28 +6238,28 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="B172" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="D172" t="s">
-        <v>166</v>
+        <v>316</v>
       </c>
       <c r="E172" t="s">
-        <v>115</v>
+        <v>316</v>
       </c>
       <c r="F172" t="s">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="G172" t="s">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="H172" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="I172" t="s">
         <v>316</v>
@@ -6261,10 +6267,10 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="B173" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
@@ -6290,10 +6296,10 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="B174" t="s">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
@@ -6319,10 +6325,10 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="B175" t="s">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
@@ -6331,10 +6337,10 @@
         <v>166</v>
       </c>
       <c r="E175" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="F175" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G175" t="s">
         <v>225</v>
@@ -6346,14 +6352,43 @@
         <v>316</v>
       </c>
     </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>81</v>
+      </c>
+      <c r="B176" t="s">
+        <v>158</v>
+      </c>
+      <c r="C176" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" t="s">
+        <v>166</v>
+      </c>
+      <c r="E176" t="s">
+        <v>159</v>
+      </c>
+      <c r="F176" t="s">
+        <v>208</v>
+      </c>
+      <c r="G176" t="s">
+        <v>225</v>
+      </c>
+      <c r="H176" t="s">
+        <v>326</v>
+      </c>
+      <c r="I176" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I175" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I130">
-      <sortCondition ref="D2:D130"/>
+  <autoFilter ref="A2:I176" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I131">
+      <sortCondition ref="D2:D131"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I130">
-    <sortCondition ref="A3:A130"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I131">
+    <sortCondition ref="A3:A131"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Support/configDescriptions.xlsx
+++ b/Support/configDescriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\RemotelyBackedUp\Git\StepTextConversion\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D393189-D540-4452-AD32-D3EC17CA3CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F6B18E-3313-4AF9-8ED1-BB813969B982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{128561E6-B5C2-46ED-B2EC-132D38FABE72}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="360">
   <si>
     <t>stepDbgAddDebugAttributesToNodes</t>
   </si>
@@ -215,9 +215,6 @@
     <t>stepOsis2ModVersion</t>
   </si>
   <si>
-    <t>stepOsis2modType</t>
-  </si>
-  <si>
     <t>stepReleaseType</t>
   </si>
   <si>
@@ -410,12 +407,6 @@
     <t>By default, if the reason for generating a new module is the same as that used last time, the module is not up-issued.  Give this as 'yes' if you want to force the issue.</t>
   </si>
   <si>
-    <t>Determines whether we use the STEP version of osis2mod or the Crosswire version.</t>
-  </si>
-  <si>
-    <t>Deduced from the type of module being generated.</t>
-  </si>
-  <si>
     <t>Set this to yes if STEP has added morphology.  Used to include this fact on the copyright page.</t>
   </si>
   <si>
@@ -1079,9 +1070,6 @@
     <t>Says to start the process from OSIS rather than any other input.</t>
   </si>
   <si>
-    <t>AsInput / AsOutput</t>
-  </si>
-  <si>
     <t>stepPreprocessingXsltStylesheeWhenStartingFromOsis</t>
   </si>
   <si>
@@ -1113,6 +1101,15 @@
   </si>
   <si>
     <t>Anywhere</t>
+  </si>
+  <si>
+    <t>WithChanges / WithoutChanges</t>
+  </si>
+  <si>
+    <t>stepAboutAdditionalInfo</t>
+  </si>
+  <si>
+    <t>The bulk of the stepAbout information is either supplied by the translators or calculated.  This lets you add some more information.  It comes out right at the end.</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1719,7 @@
     <row r="1" spans="1:14" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1742,7 +1739,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1772,7 +1769,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1788,7 +1785,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1818,7 +1815,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1834,7 +1831,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1850,7 +1847,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1888,10 +1885,10 @@
   <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G108" sqref="G108"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,7 +1903,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1920,19 +1917,19 @@
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>33</v>
@@ -1940,10 +1937,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -1963,7 +1960,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1980,30 +1977,30 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>359</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -2020,10 +2017,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -2040,10 +2037,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -2060,10 +2057,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -2080,10 +2077,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -2100,10 +2097,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -2120,10 +2117,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -2140,10 +2137,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -2160,10 +2157,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -2180,10 +2177,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>330</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>331</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -2196,40 +2193,37 @@
       </c>
       <c r="H15" t="s">
         <v>25</v>
-      </c>
-      <c r="I15" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
         <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -2244,15 +2238,15 @@
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -2265,14 +2259,17 @@
       </c>
       <c r="H18" t="s">
         <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -2289,10 +2286,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -2309,10 +2306,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -2329,10 +2326,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -2349,10 +2346,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -2369,10 +2366,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -2389,10 +2386,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -2405,9 +2402,6 @@
       </c>
       <c r="H25" t="s">
         <v>25</v>
-      </c>
-      <c r="I25" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2415,7 +2409,7 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -2432,10 +2426,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
@@ -2452,10 +2446,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
@@ -2472,36 +2466,36 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
         <v>106</v>
       </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
         <v>107</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -2518,10 +2512,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
@@ -2538,10 +2532,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
@@ -2556,15 +2550,15 @@
         <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -2581,10 +2575,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
@@ -2601,10 +2595,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
@@ -2621,10 +2615,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
@@ -2644,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
@@ -2661,10 +2655,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -2681,10 +2675,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
@@ -2701,39 +2695,39 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B44" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C44" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D44" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E44" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F44" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G44" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H44" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I44" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
@@ -2745,16 +2739,16 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H45" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I45" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2762,65 +2756,65 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F46" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G46" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H46" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I46" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B47" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F47" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H47" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I47" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -2829,158 +2823,158 @@
         <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G48" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H48" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I48" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E49" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F49" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G49" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H49" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I49" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E50" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G50" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H50" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I50" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C51" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D51" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E51" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F51" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G51" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H51" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I51" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2988,28 +2982,28 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E54" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F54" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G54" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3017,28 +3011,28 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F55" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G55" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H55" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3046,7 +3040,7 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -3055,19 +3049,19 @@
         <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F56" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G56" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H56" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I56" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3081,19 +3075,19 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F57" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G57" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H57" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I57" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3101,7 +3095,7 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -3110,19 +3104,19 @@
         <v>24</v>
       </c>
       <c r="E58" t="s">
+        <v>313</v>
+      </c>
+      <c r="F58" t="s">
+        <v>203</v>
+      </c>
+      <c r="G58" t="s">
+        <v>222</v>
+      </c>
+      <c r="H58" t="s">
         <v>316</v>
       </c>
-      <c r="F58" t="s">
-        <v>206</v>
-      </c>
-      <c r="G58" t="s">
-        <v>225</v>
-      </c>
-      <c r="H58" t="s">
-        <v>319</v>
-      </c>
       <c r="I58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3130,7 +3124,7 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -3139,19 +3133,19 @@
         <v>24</v>
       </c>
       <c r="E59" t="s">
+        <v>313</v>
+      </c>
+      <c r="F59" t="s">
+        <v>196</v>
+      </c>
+      <c r="G59" t="s">
+        <v>222</v>
+      </c>
+      <c r="H59" t="s">
         <v>316</v>
       </c>
-      <c r="F59" t="s">
-        <v>199</v>
-      </c>
-      <c r="G59" t="s">
-        <v>225</v>
-      </c>
-      <c r="H59" t="s">
-        <v>319</v>
-      </c>
       <c r="I59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3159,36 +3153,36 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E60" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F60" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G60" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H60" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I60" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -3197,27 +3191,27 @@
         <v>24</v>
       </c>
       <c r="E61" t="s">
+        <v>313</v>
+      </c>
+      <c r="F61" t="s">
+        <v>196</v>
+      </c>
+      <c r="G61" t="s">
+        <v>222</v>
+      </c>
+      <c r="H61" t="s">
         <v>316</v>
       </c>
-      <c r="F61" t="s">
-        <v>199</v>
-      </c>
-      <c r="G61" t="s">
-        <v>225</v>
-      </c>
-      <c r="H61" t="s">
-        <v>319</v>
-      </c>
       <c r="I61" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
@@ -3226,100 +3220,100 @@
         <v>24</v>
       </c>
       <c r="E62" t="s">
+        <v>313</v>
+      </c>
+      <c r="F62" t="s">
+        <v>196</v>
+      </c>
+      <c r="G62" t="s">
+        <v>222</v>
+      </c>
+      <c r="H62" t="s">
         <v>316</v>
       </c>
-      <c r="F62" t="s">
-        <v>199</v>
-      </c>
-      <c r="G62" t="s">
-        <v>225</v>
-      </c>
-      <c r="H62" t="s">
-        <v>319</v>
-      </c>
       <c r="I62" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C63" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D63" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E63" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F63" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G63" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H63" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I63" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C64" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D64" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E64" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F64" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G64" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H64" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I64" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B65" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C65" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D65" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E65" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F65" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G65" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H65" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I65" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3333,22 +3327,22 @@
         <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E66" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G66" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H66" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I66" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3368,16 +3362,16 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G67" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H67" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I67" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3385,28 +3379,28 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E68" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F68" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G68" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H68" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I68" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3414,7 +3408,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -3426,155 +3420,155 @@
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G69" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H69" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I69" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
         <v>139</v>
       </c>
-      <c r="C70" t="s">
-        <v>142</v>
-      </c>
       <c r="D70" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E70" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F70" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G70" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H70" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I70" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E71" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F71" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G71" t="s">
+        <v>222</v>
+      </c>
+      <c r="H71" t="s">
+        <v>315</v>
+      </c>
+      <c r="I71" t="s">
         <v>225</v>
-      </c>
-      <c r="H71" t="s">
-        <v>318</v>
-      </c>
-      <c r="I71" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C72" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D72" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E72" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F72" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G72" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H72" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I72" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C73" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D73" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E73" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F73" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G73" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H73" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I73" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3582,7 +3576,7 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -3591,19 +3585,19 @@
         <v>24</v>
       </c>
       <c r="E75" t="s">
+        <v>313</v>
+      </c>
+      <c r="F75" t="s">
+        <v>196</v>
+      </c>
+      <c r="G75" t="s">
+        <v>222</v>
+      </c>
+      <c r="H75" t="s">
         <v>316</v>
       </c>
-      <c r="F75" t="s">
-        <v>199</v>
-      </c>
-      <c r="G75" t="s">
-        <v>225</v>
-      </c>
-      <c r="H75" t="s">
-        <v>319</v>
-      </c>
       <c r="I75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3611,7 +3605,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -3620,19 +3614,19 @@
         <v>24</v>
       </c>
       <c r="E76" t="s">
+        <v>313</v>
+      </c>
+      <c r="F76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G76" t="s">
+        <v>222</v>
+      </c>
+      <c r="H76" t="s">
         <v>316</v>
       </c>
-      <c r="F76" t="s">
-        <v>199</v>
-      </c>
-      <c r="G76" t="s">
-        <v>225</v>
-      </c>
-      <c r="H76" t="s">
-        <v>319</v>
-      </c>
       <c r="I76" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3640,117 +3634,117 @@
         <v>42</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F77" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G77" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H77" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I77" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C78" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D78" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E78" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F78" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G78" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H78" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I78" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C79" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D79" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E79" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F79" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G79" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H79" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I79" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I80" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -3759,27 +3753,27 @@
         <v>24</v>
       </c>
       <c r="E81" t="s">
+        <v>313</v>
+      </c>
+      <c r="F81" t="s">
+        <v>171</v>
+      </c>
+      <c r="G81" t="s">
+        <v>222</v>
+      </c>
+      <c r="H81" t="s">
         <v>316</v>
       </c>
-      <c r="F81" t="s">
-        <v>174</v>
-      </c>
-      <c r="G81" t="s">
-        <v>225</v>
-      </c>
-      <c r="H81" t="s">
-        <v>319</v>
-      </c>
       <c r="I81" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -3788,137 +3782,137 @@
         <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F82" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G82" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H82" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I82" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D83" t="s">
         <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F83" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G83" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H83" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I83" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C84" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D84" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E84" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G84" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H84" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I84" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C85" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D85" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E85" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F85" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G85" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H85" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I85" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B86" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C86" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D86" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E86" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F86" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G86" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H86" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I86" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B87" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -3927,27 +3921,27 @@
         <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F87" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G87" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H87" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I87" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B88" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -3956,27 +3950,27 @@
         <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F88" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G88" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H88" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I88" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -3985,27 +3979,27 @@
         <v>24</v>
       </c>
       <c r="E89" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F89" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G89" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H89" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I89" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -4014,27 +4008,27 @@
         <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F90" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G90" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H90" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I90" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B91" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -4043,27 +4037,27 @@
         <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F91" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G91" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H91" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I91" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B92" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -4072,27 +4066,27 @@
         <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F92" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G92" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H92" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I92" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B93" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -4101,108 +4095,108 @@
         <v>24</v>
       </c>
       <c r="E93" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F93" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G93" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H93" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I93" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C94" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D94" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E94" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F94" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G94" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H94" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I94" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D95" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E95" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F95" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G95" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H95" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I95" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B96" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C96" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D96" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E96" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F96" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G96" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H96" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I96" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -4211,19 +4205,19 @@
         <v>24</v>
       </c>
       <c r="E97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F97" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G97" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H97" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I97" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4231,7 +4225,7 @@
         <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -4240,19 +4234,19 @@
         <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F98" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G98" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H98" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I98" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4260,7 +4254,7 @@
         <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -4269,19 +4263,19 @@
         <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F99" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G99" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H99" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I99" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4289,36 +4283,36 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
         <v>103</v>
       </c>
-      <c r="C100" t="s">
-        <v>142</v>
-      </c>
-      <c r="D100" t="s">
-        <v>25</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
+        <v>313</v>
+      </c>
+      <c r="G100" t="s">
+        <v>222</v>
+      </c>
+      <c r="H100" t="s">
+        <v>315</v>
+      </c>
+      <c r="I100" t="s">
         <v>104</v>
-      </c>
-      <c r="F100" t="s">
-        <v>316</v>
-      </c>
-      <c r="G100" t="s">
-        <v>225</v>
-      </c>
-      <c r="H100" t="s">
-        <v>318</v>
-      </c>
-      <c r="I100" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B101" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -4327,184 +4321,184 @@
         <v>24</v>
       </c>
       <c r="E101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H101" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E102" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F102" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G102" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H102" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I102" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H103" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I103" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>163</v>
+      </c>
+      <c r="E104" t="s">
+        <v>100</v>
+      </c>
+      <c r="F104" t="s">
+        <v>197</v>
+      </c>
+      <c r="G104" t="s">
+        <v>222</v>
+      </c>
+      <c r="H104" t="s">
+        <v>315</v>
+      </c>
+      <c r="I104" t="s">
         <v>111</v>
-      </c>
-      <c r="C104" t="s">
-        <v>27</v>
-      </c>
-      <c r="D104" t="s">
-        <v>166</v>
-      </c>
-      <c r="E104" t="s">
-        <v>101</v>
-      </c>
-      <c r="F104" t="s">
-        <v>200</v>
-      </c>
-      <c r="G104" t="s">
-        <v>225</v>
-      </c>
-      <c r="H104" t="s">
-        <v>318</v>
-      </c>
-      <c r="I104" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C105" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D105" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E105" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F105" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G105" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H105" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I105" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C106" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D106" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E106" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F106" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H106" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I106" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B107" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C107" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D107" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E107" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F107" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G107" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H107" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I107" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4512,7 +4506,7 @@
         <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -4521,19 +4515,19 @@
         <v>24</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F108" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G108" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H108" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I108" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4541,7 +4535,7 @@
         <v>38</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -4550,137 +4544,137 @@
         <v>24</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F109" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G109" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H109" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I109" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C110" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D110" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E110" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F110" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G110" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H110" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I110" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C111" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D111" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E111" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F111" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G111" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H111" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I111" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B112" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C112" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D112" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E112" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F112" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G112" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H112" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I112" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B113" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E113" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F113" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H113" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I113" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B114" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C114" t="s">
         <v>25</v>
@@ -4689,7 +4683,7 @@
         <v>25</v>
       </c>
       <c r="F114" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G114" t="s">
         <v>25</v>
@@ -4700,10 +4694,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -4712,100 +4706,100 @@
         <v>24</v>
       </c>
       <c r="E115" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F115" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H115" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I115" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C116" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D116" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E116" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F116" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G116" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H116" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I116" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C117" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D117" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E117" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F117" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G117" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H117" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I117" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B118" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C118" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D118" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E118" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F118" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G118" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H118" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I118" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4813,7 +4807,7 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -4822,19 +4816,19 @@
         <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F119" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G119" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H119" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I119" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4842,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -4851,100 +4845,100 @@
         <v>24</v>
       </c>
       <c r="E120" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F120" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G120" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H120" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I120" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C121" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D121" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E121" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F121" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G121" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H121" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I121" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C122" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D122" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E122" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F122" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G122" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H122" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I122" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B123" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C123" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D123" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E123" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F123" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G123" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H123" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I123" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4952,7 +4946,7 @@
         <v>18</v>
       </c>
       <c r="B124" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -4961,19 +4955,19 @@
         <v>24</v>
       </c>
       <c r="E124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F124" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G124" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H124" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I124" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4981,7 +4975,7 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -4990,27 +4984,27 @@
         <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F125" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G125" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H125" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I125" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B126" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -5019,50 +5013,50 @@
         <v>24</v>
       </c>
       <c r="E126" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G126" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H126" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B127" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
       </c>
       <c r="D127" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E127" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F127" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G127" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H127" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I127" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -5071,27 +5065,27 @@
         <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F129" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G129" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H129" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I129" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B130" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
@@ -5100,48 +5094,48 @@
         <v>24</v>
       </c>
       <c r="E130" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F130" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G130" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H130" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I130" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B131" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
       </c>
       <c r="D131" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E131" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F131" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G131" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H131" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I131" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5149,36 +5143,36 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
+        <v>108</v>
+      </c>
+      <c r="C132" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" t="s">
+        <v>188</v>
+      </c>
+      <c r="E132" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" t="s">
+        <v>209</v>
+      </c>
+      <c r="G132" t="s">
+        <v>212</v>
+      </c>
+      <c r="H132" t="s">
+        <v>317</v>
+      </c>
+      <c r="I132" t="s">
         <v>109</v>
-      </c>
-      <c r="C132" t="s">
-        <v>27</v>
-      </c>
-      <c r="D132" t="s">
-        <v>191</v>
-      </c>
-      <c r="E132" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132" t="s">
-        <v>212</v>
-      </c>
-      <c r="G132" t="s">
-        <v>215</v>
-      </c>
-      <c r="H132" t="s">
-        <v>320</v>
-      </c>
-      <c r="I132" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B133" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -5187,24 +5181,24 @@
         <v>24</v>
       </c>
       <c r="F133" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G133" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H133" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I133" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B134" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
@@ -5213,102 +5207,102 @@
         <v>24</v>
       </c>
       <c r="E134" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G134" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H134" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C135" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D135" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E135" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F135" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G135" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H135" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I135" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C136" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D136" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E136" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F136" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G136" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H136" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I136" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B137" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C137" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D137" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E137" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F137" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G137" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H137" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I137" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>93</v>
+      </c>
+      <c r="B138" t="s">
         <v>94</v>
-      </c>
-      <c r="B138" t="s">
-        <v>95</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -5317,19 +5311,19 @@
         <v>24</v>
       </c>
       <c r="E138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F138" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G138" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H138" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -5337,7 +5331,7 @@
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -5346,27 +5340,27 @@
         <v>24</v>
       </c>
       <c r="E139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F139" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G139" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H139" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I139" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B140" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -5375,27 +5369,27 @@
         <v>24</v>
       </c>
       <c r="E140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F140" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G140" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H140" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B141" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -5404,27 +5398,27 @@
         <v>24</v>
       </c>
       <c r="E141" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F141" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G141" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H141" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I141" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B142" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -5433,27 +5427,27 @@
         <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F142" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G142" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H142" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B143" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -5462,100 +5456,100 @@
         <v>24</v>
       </c>
       <c r="E143" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F143" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G143" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H143" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I143" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C144" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D144" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E144" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F144" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G144" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H144" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I144" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C145" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D145" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E145" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F145" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G145" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H145" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I145" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B146" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C146" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D146" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E146" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F146" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G146" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H146" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I146" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5572,19 +5566,19 @@
         <v>24</v>
       </c>
       <c r="E147" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F147" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G147" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H147" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I147" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5592,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -5601,27 +5595,27 @@
         <v>24</v>
       </c>
       <c r="E148" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F148" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G148" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H148" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I148" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B149" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
@@ -5630,19 +5624,19 @@
         <v>24</v>
       </c>
       <c r="E149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F149" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G149" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H149" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I149" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5650,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
@@ -5659,27 +5653,27 @@
         <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F150" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G150" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H150" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I150" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B151" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
@@ -5688,27 +5682,27 @@
         <v>24</v>
       </c>
       <c r="E151" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F151" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G151" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H151" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I151" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B152" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -5717,236 +5711,236 @@
         <v>24</v>
       </c>
       <c r="F152" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H152" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C153" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D153" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E153" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F153" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G153" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H153" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I153" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C154" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D154" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E154" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F154" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G154" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H154" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I154" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B155" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C155" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D155" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E155" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F155" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G155" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H155" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I155" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B156" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
       </c>
       <c r="D156" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F156" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G156" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H156" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I156" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B157" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
       </c>
       <c r="D157" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E157" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F157" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G157" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H157" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I157" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B158" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
       </c>
       <c r="D158" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E158" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F158" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G158" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H158" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I158" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B159" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
       </c>
       <c r="D159" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E159" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F159" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G159" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H159" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I159" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B160" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
       </c>
       <c r="D160" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F160" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G160" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H160" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5954,94 +5948,94 @@
         <v>46</v>
       </c>
       <c r="B161" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
       </c>
       <c r="D161" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E161" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F161" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G161" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H161" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B162" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
       </c>
       <c r="D162" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E162" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F162" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G162" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H162" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I162" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B163" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
       </c>
       <c r="D163" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E163" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F163" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G163" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H163" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I163" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B164" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C164" t="s">
         <v>25</v>
@@ -6050,10 +6044,10 @@
         <v>25</v>
       </c>
       <c r="E164" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G164" t="s">
         <v>25</v>
@@ -6062,323 +6056,323 @@
         <v>25</v>
       </c>
       <c r="I164" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B165" t="s">
+        <v>121</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" t="s">
+        <v>289</v>
+      </c>
+      <c r="E165" t="s">
         <v>122</v>
       </c>
-      <c r="C165" t="s">
-        <v>27</v>
-      </c>
-      <c r="D165" t="s">
-        <v>292</v>
-      </c>
-      <c r="E165" t="s">
-        <v>123</v>
-      </c>
       <c r="F165" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G165" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H165" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I165" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B166" t="s">
+        <v>121</v>
+      </c>
+      <c r="C166" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" t="s">
+        <v>289</v>
+      </c>
+      <c r="E166" t="s">
         <v>122</v>
       </c>
-      <c r="C166" t="s">
-        <v>27</v>
-      </c>
-      <c r="D166" t="s">
-        <v>292</v>
-      </c>
-      <c r="E166" t="s">
-        <v>123</v>
-      </c>
       <c r="F166" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G166" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H166" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I166" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B167" t="s">
+        <v>121</v>
+      </c>
+      <c r="C167" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" t="s">
+        <v>289</v>
+      </c>
+      <c r="E167" t="s">
         <v>122</v>
       </c>
-      <c r="C167" t="s">
-        <v>27</v>
-      </c>
-      <c r="D167" t="s">
-        <v>292</v>
-      </c>
-      <c r="E167" t="s">
-        <v>123</v>
-      </c>
       <c r="F167" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G167" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H167" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I167" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>286</v>
+      </c>
+      <c r="B168" t="s">
+        <v>121</v>
+      </c>
+      <c r="C168" t="s">
+        <v>27</v>
+      </c>
+      <c r="D168" t="s">
         <v>289</v>
       </c>
-      <c r="B168" t="s">
+      <c r="E168" t="s">
         <v>122</v>
       </c>
-      <c r="C168" t="s">
-        <v>27</v>
-      </c>
-      <c r="D168" t="s">
-        <v>292</v>
-      </c>
-      <c r="E168" t="s">
-        <v>123</v>
-      </c>
       <c r="F168" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G168" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I168" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>287</v>
+      </c>
+      <c r="B169" t="s">
+        <v>121</v>
+      </c>
+      <c r="C169" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" t="s">
+        <v>289</v>
+      </c>
+      <c r="E169" t="s">
+        <v>122</v>
+      </c>
+      <c r="F169" t="s">
         <v>290</v>
       </c>
-      <c r="B169" t="s">
-        <v>122</v>
-      </c>
-      <c r="C169" t="s">
-        <v>27</v>
-      </c>
-      <c r="D169" t="s">
-        <v>292</v>
-      </c>
-      <c r="E169" t="s">
-        <v>123</v>
-      </c>
-      <c r="F169" t="s">
-        <v>293</v>
-      </c>
       <c r="G169" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H169" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I169" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C171" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D171" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E171" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F171" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G171" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H171" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I171" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B172" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C172" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D172" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E172" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F172" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G172" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H172" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I172" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B173" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
       </c>
       <c r="D173" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E173" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F173" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G173" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H173" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I173" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B174" t="s">
+        <v>113</v>
+      </c>
+      <c r="C174" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" t="s">
+        <v>163</v>
+      </c>
+      <c r="E174" t="s">
         <v>114</v>
       </c>
-      <c r="C174" t="s">
-        <v>27</v>
-      </c>
-      <c r="D174" t="s">
-        <v>166</v>
-      </c>
-      <c r="E174" t="s">
-        <v>115</v>
-      </c>
       <c r="F174" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G174" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H174" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I174" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B175" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
       </c>
       <c r="D175" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E175" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F175" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G175" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H175" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I175" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B176" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
       </c>
       <c r="D176" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E176" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F176" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G176" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H176" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I176" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -6410,17 +6404,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Support/configDescriptions.xlsx
+++ b/Support/configDescriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\RemotelyBackedUp\Git\StepTextConversion\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F6B18E-3313-4AF9-8ED1-BB813969B982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F6BBD3-3546-4275-B79A-3CF9BDAE48B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{128561E6-B5C2-46ED-B2EC-132D38FABE72}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PatternBasedElements" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="364">
   <si>
     <t>stepDbgAddDebugAttributesToNodes</t>
   </si>
@@ -149,9 +149,6 @@
     <t>stepAddedValueStrongs</t>
   </si>
   <si>
-    <t>stepAdminLine</t>
-  </si>
-  <si>
     <t>stepConversionInfo</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>stepSupplierUpdateReason</t>
   </si>
   <si>
-    <t>stepSwordSoftwareDefaultVersion</t>
-  </si>
-  <si>
     <t>stepTextDirection</t>
   </si>
   <si>
@@ -389,9 +383,6 @@
     <t>Used as part of the information on the copyright page, via the About parameter in the Sword config file.  Calculated from various other elements.</t>
   </si>
   <si>
-    <t>Used to hold the line of admin data which is stored as a comment near the top of Sword config files.</t>
-  </si>
-  <si>
     <t>With DBL texts, may be derived from metadata.xml.</t>
   </si>
   <si>
@@ -587,12 +578,6 @@
     <t>This module cannot be used in offline STEP.</t>
   </si>
   <si>
-    <t>The default version of Sword software needed to render the module.  There is a default value for this, so you shouldn't normally need to set it.</t>
-  </si>
-  <si>
-    <t>1.7.2</t>
-  </si>
-  <si>
     <t>Indicates the type of footnotes to be generated on verses affected by reversification.</t>
   </si>
   <si>
@@ -995,9 +980,6 @@
     <t>IfComputingEnvironmentChanges</t>
   </si>
   <si>
-    <t>IfCrosswireInternalsChange</t>
-  </si>
-  <si>
     <t>IfOutsideWorldChanges</t>
   </si>
   <si>
@@ -1110,6 +1092,36 @@
   </si>
   <si>
     <t>The bulk of the stepAbout information is either supplied by the translators or calculated.  This lets you add some more information.  It comes out right at the end.</t>
+  </si>
+  <si>
+    <t>stepBibleNameEnglishAsSupplied</t>
+  </si>
+  <si>
+    <t>English form of full Bible name.  A copy which is retained in case we override stepBibleNameEnglish.</t>
+  </si>
+  <si>
+    <t>stepBibleNameVernacularAsSupplied</t>
+  </si>
+  <si>
+    <t>Vernacular form of full Bible name.  A copy which is retained in case we override stepBibleNameVernacular.</t>
+  </si>
+  <si>
+    <t>stepAbbreviationEnglishAsSupplied</t>
+  </si>
+  <si>
+    <t>English form of abbreviated Bible name.  A copy which is retained in case we override stepAbbreviationEnglish.</t>
+  </si>
+  <si>
+    <t>stepAbbreviationVernacularAsSupplied</t>
+  </si>
+  <si>
+    <t>Vernacular form of abbreviated Bible name.  A copy which is retained in case we override stepAbbreviationVernacualr.</t>
+  </si>
+  <si>
+    <t>stepRawBibleNames</t>
+  </si>
+  <si>
+    <t>Probably to be used only with open access texts, where we need to include the original English and vernacular names in the copyright information, even if we have overridden them.</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1731,7 @@
     <row r="1" spans="1:14" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1739,7 +1751,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1769,7 +1781,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1785,7 +1797,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1815,7 +1827,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1831,7 +1843,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1847,7 +1859,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1882,13 +1894,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,7 +1915,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1917,19 +1929,19 @@
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>33</v>
@@ -1937,10 +1949,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -1960,7 +1972,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1977,10 +1989,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1989,10 +2001,10 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2000,7 +2012,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -2017,10 +2029,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -2037,10 +2049,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -2057,10 +2069,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -2080,7 +2092,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -2097,10 +2109,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -2120,7 +2132,7 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -2137,10 +2149,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -2157,10 +2169,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>325</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -2177,10 +2189,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -2193,6 +2205,9 @@
       </c>
       <c r="H15" t="s">
         <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2200,22 +2215,22 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
         <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2223,7 +2238,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -2238,15 +2253,15 @@
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -2259,17 +2274,14 @@
       </c>
       <c r="H18" t="s">
         <v>25</v>
-      </c>
-      <c r="I18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -2286,10 +2298,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -2309,7 +2321,7 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -2329,7 +2341,7 @@
         <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -2346,10 +2358,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -2366,10 +2378,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -2389,7 +2401,7 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -2409,7 +2421,7 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -2426,10 +2438,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
@@ -2446,10 +2458,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>266</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
@@ -2457,19 +2469,25 @@
       <c r="D28" t="s">
         <v>25</v>
       </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
       <c r="G28" t="s">
         <v>25</v>
       </c>
       <c r="H28" t="s">
         <v>25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
@@ -2477,17 +2495,11 @@
       <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E29" t="s">
-        <v>106</v>
-      </c>
       <c r="G29" t="s">
         <v>25</v>
       </c>
       <c r="H29" t="s">
         <v>25</v>
-      </c>
-      <c r="I29" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2495,7 +2507,7 @@
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -2512,10 +2524,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
@@ -2528,14 +2540,17 @@
       </c>
       <c r="H31" t="s">
         <v>25</v>
+      </c>
+      <c r="I31" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
@@ -2548,17 +2563,14 @@
       </c>
       <c r="H32" t="s">
         <v>25</v>
-      </c>
-      <c r="I32" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -2575,10 +2587,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
@@ -2595,10 +2607,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
@@ -2615,10 +2627,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
@@ -2635,10 +2647,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
@@ -2655,10 +2667,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -2673,421 +2685,430 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" t="s">
-        <v>25</v>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>291</v>
+      </c>
+      <c r="B43" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" t="s">
+        <v>308</v>
+      </c>
+      <c r="E43" t="s">
+        <v>308</v>
+      </c>
+      <c r="F43" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" t="s">
+        <v>308</v>
+      </c>
+      <c r="H43" t="s">
+        <v>308</v>
+      </c>
+      <c r="I43" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>296</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>313</v>
+        <v>176</v>
       </c>
       <c r="C44" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="G44" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H44" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I44" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>308</v>
       </c>
       <c r="F45" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G45" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H45" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I45" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E46" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F46" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G46" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H46" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I46" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>313</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="G47" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H47" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="I47" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="F48" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G48" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H48" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I48" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F49" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G49" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H49" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>230</v>
-      </c>
       <c r="B50" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="E50" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F50" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="G50" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H50" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="I50" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C51" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D51" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E51" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F51" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G51" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H51" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I51" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>292</v>
+      </c>
       <c r="B52" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C52" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D52" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E52" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F52" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G52" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H52" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I52" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>297</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="C53" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>313</v>
+        <v>160</v>
       </c>
       <c r="E53" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F53" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="G53" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H53" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="I53" t="s">
-        <v>313</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G54" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H54" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I54" t="s">
-        <v>120</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F55" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G55" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H55" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I55" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" t="s">
-        <v>313</v>
+        <v>160</v>
       </c>
       <c r="F56" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G56" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H56" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I56" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>308</v>
       </c>
       <c r="F57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G57" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H57" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="I57" t="s">
-        <v>313</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3095,7 +3116,7 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>232</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -3104,85 +3125,85 @@
         <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F58" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G58" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H58" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="E59" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F59" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G59" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H59" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I59" t="s">
-        <v>92</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="E60" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F60" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G60" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H60" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="I60" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -3191,158 +3212,158 @@
         <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F61" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G61" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H61" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I61" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>161</v>
-      </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>308</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E62" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F62" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="G62" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H62" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I62" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C63" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D63" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E63" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F63" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G63" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H63" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I63" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>293</v>
+      </c>
       <c r="B64" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C64" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D64" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E64" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F64" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G64" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H64" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I64" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>313</v>
+        <v>160</v>
       </c>
       <c r="E65" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F65" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="G65" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H65" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="I65" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>359</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F66" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G66" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H66" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I66" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3362,673 +3383,664 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G67" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H67" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I67" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>360</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>361</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F68" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G68" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H68" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I68" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>308</v>
       </c>
       <c r="F69" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="G69" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="H69" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I69" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>299</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="E70" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F70" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="G70" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="H70" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="I70" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>354</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>355</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F71" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="G71" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H71" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="I71" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
       <c r="B72" t="s">
-        <v>313</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="G72" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H72" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I72" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>356</v>
+      </c>
       <c r="B73" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="C73" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>313</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="G73" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H73" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I73" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="B74" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="C74" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>313</v>
-      </c>
-      <c r="E74" t="s">
-        <v>313</v>
-      </c>
-      <c r="F74" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="G74" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>313</v>
-      </c>
-      <c r="I74" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" t="s">
+        <v>308</v>
+      </c>
+      <c r="F75" t="s">
+        <v>201</v>
+      </c>
+      <c r="G75" t="s">
+        <v>217</v>
+      </c>
+      <c r="H75" t="s">
+        <v>310</v>
+      </c>
+      <c r="I75" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>308</v>
+      </c>
+      <c r="C76" t="s">
+        <v>308</v>
+      </c>
+      <c r="D76" t="s">
+        <v>308</v>
+      </c>
+      <c r="E76" t="s">
+        <v>308</v>
+      </c>
+      <c r="F76" t="s">
+        <v>308</v>
+      </c>
+      <c r="G76" t="s">
+        <v>308</v>
+      </c>
+      <c r="H76" t="s">
+        <v>308</v>
+      </c>
+      <c r="I76" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>308</v>
+      </c>
+      <c r="C77" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" t="s">
+        <v>308</v>
+      </c>
+      <c r="E77" t="s">
+        <v>308</v>
+      </c>
+      <c r="F77" t="s">
+        <v>308</v>
+      </c>
+      <c r="G77" t="s">
+        <v>308</v>
+      </c>
+      <c r="H77" t="s">
+        <v>308</v>
+      </c>
+      <c r="I77" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>295</v>
+      </c>
+      <c r="B78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C78" t="s">
+        <v>308</v>
+      </c>
+      <c r="D78" t="s">
+        <v>308</v>
+      </c>
+      <c r="E78" t="s">
+        <v>308</v>
+      </c>
+      <c r="F78" t="s">
+        <v>308</v>
+      </c>
+      <c r="G78" t="s">
+        <v>308</v>
+      </c>
+      <c r="H78" t="s">
+        <v>308</v>
+      </c>
+      <c r="I78" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>6</v>
       </c>
-      <c r="B75" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="B79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" t="s">
         <v>24</v>
       </c>
-      <c r="E75" t="s">
-        <v>313</v>
-      </c>
-      <c r="F75" t="s">
-        <v>196</v>
-      </c>
-      <c r="G75" t="s">
-        <v>222</v>
-      </c>
-      <c r="H75" t="s">
-        <v>316</v>
-      </c>
-      <c r="I75" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>178</v>
-      </c>
-      <c r="C76" t="s">
-        <v>27</v>
-      </c>
-      <c r="D76" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" t="s">
-        <v>313</v>
-      </c>
-      <c r="F76" t="s">
-        <v>196</v>
-      </c>
-      <c r="G76" t="s">
-        <v>222</v>
-      </c>
-      <c r="H76" t="s">
-        <v>316</v>
-      </c>
-      <c r="I76" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" t="s">
-        <v>139</v>
-      </c>
-      <c r="D77" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" t="s">
-        <v>165</v>
-      </c>
-      <c r="F77" t="s">
-        <v>196</v>
-      </c>
-      <c r="G77" t="s">
-        <v>222</v>
-      </c>
-      <c r="H77" t="s">
-        <v>316</v>
-      </c>
-      <c r="I77" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>313</v>
-      </c>
-      <c r="C78" t="s">
-        <v>313</v>
-      </c>
-      <c r="D78" t="s">
-        <v>313</v>
-      </c>
-      <c r="E78" t="s">
-        <v>313</v>
-      </c>
-      <c r="F78" t="s">
-        <v>313</v>
-      </c>
-      <c r="G78" t="s">
-        <v>313</v>
-      </c>
-      <c r="H78" t="s">
-        <v>313</v>
-      </c>
-      <c r="I78" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>313</v>
-      </c>
-      <c r="C79" t="s">
-        <v>313</v>
-      </c>
-      <c r="D79" t="s">
-        <v>313</v>
-      </c>
       <c r="E79" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F79" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="G79" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H79" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I79" t="s">
-        <v>313</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>301</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>313</v>
+        <v>175</v>
       </c>
       <c r="C80" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F80" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="G80" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H80" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I80" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
       <c r="F81" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G81" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H81" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I81" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>68</v>
-      </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D82" t="s">
+        <v>308</v>
+      </c>
+      <c r="E82" t="s">
+        <v>308</v>
+      </c>
+      <c r="F82" t="s">
+        <v>308</v>
+      </c>
+      <c r="G82" t="s">
+        <v>308</v>
+      </c>
+      <c r="H82" t="s">
+        <v>308</v>
+      </c>
+      <c r="I82" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>308</v>
+      </c>
+      <c r="C83" t="s">
+        <v>308</v>
+      </c>
+      <c r="D83" t="s">
+        <v>308</v>
+      </c>
+      <c r="E83" t="s">
+        <v>308</v>
+      </c>
+      <c r="F83" t="s">
+        <v>308</v>
+      </c>
+      <c r="G83" t="s">
+        <v>308</v>
+      </c>
+      <c r="H83" t="s">
+        <v>308</v>
+      </c>
+      <c r="I83" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>296</v>
+      </c>
+      <c r="B84" t="s">
+        <v>308</v>
+      </c>
+      <c r="C84" t="s">
+        <v>308</v>
+      </c>
+      <c r="D84" t="s">
+        <v>308</v>
+      </c>
+      <c r="E84" t="s">
+        <v>308</v>
+      </c>
+      <c r="F84" t="s">
+        <v>308</v>
+      </c>
+      <c r="G84" t="s">
+        <v>308</v>
+      </c>
+      <c r="H84" t="s">
+        <v>308</v>
+      </c>
+      <c r="I84" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" t="s">
         <v>24</v>
       </c>
-      <c r="E82" t="s">
-        <v>174</v>
-      </c>
-      <c r="F82" t="s">
-        <v>175</v>
-      </c>
-      <c r="G82" t="s">
-        <v>222</v>
-      </c>
-      <c r="H82" t="s">
-        <v>316</v>
-      </c>
-      <c r="I82" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" t="s">
-        <v>138</v>
-      </c>
-      <c r="C83" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" t="s">
-        <v>140</v>
-      </c>
-      <c r="F83" t="s">
-        <v>210</v>
-      </c>
-      <c r="G83" t="s">
-        <v>222</v>
-      </c>
-      <c r="H83" t="s">
-        <v>315</v>
-      </c>
-      <c r="I83" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>313</v>
-      </c>
-      <c r="C84" t="s">
-        <v>313</v>
-      </c>
-      <c r="D84" t="s">
-        <v>313</v>
-      </c>
-      <c r="E84" t="s">
-        <v>313</v>
-      </c>
-      <c r="F84" t="s">
-        <v>313</v>
-      </c>
-      <c r="G84" t="s">
-        <v>313</v>
-      </c>
-      <c r="H84" t="s">
-        <v>313</v>
-      </c>
-      <c r="I84" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>313</v>
-      </c>
-      <c r="C85" t="s">
-        <v>313</v>
-      </c>
-      <c r="D85" t="s">
-        <v>313</v>
-      </c>
       <c r="E85" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F85" t="s">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="G85" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H85" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I85" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>302</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>313</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>313</v>
+        <v>171</v>
       </c>
       <c r="F86" t="s">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c r="G86" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H86" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I86" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>350</v>
+        <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>352</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>313</v>
+        <v>137</v>
       </c>
       <c r="F87" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="G87" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H87" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I87" t="s">
-        <v>313</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>351</v>
-      </c>
       <c r="B88" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E88" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F88" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="G88" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H88" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I88" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>263</v>
-      </c>
       <c r="B89" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E89" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F89" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="G89" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H89" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I89" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E90" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F90" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="G90" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H90" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I90" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -4037,24 +4049,24 @@
         <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F91" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G91" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H91" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I91" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B92" t="s">
         <v>347</v>
@@ -4066,27 +4078,27 @@
         <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F92" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="G92" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H92" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I92" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="B93" t="s">
-        <v>349</v>
+        <v>259</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -4095,108 +4107,114 @@
         <v>24</v>
       </c>
       <c r="E93" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F93" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="G93" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H93" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I93" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>236</v>
+      </c>
       <c r="B94" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C94" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E94" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F94" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="G94" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H94" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I94" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>298</v>
+      </c>
       <c r="B95" t="s">
-        <v>313</v>
+        <v>238</v>
       </c>
       <c r="C95" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F95" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="G95" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H95" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I95" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="B96" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="C96" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F96" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="G96" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H96" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I96" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>215</v>
+        <v>342</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>343</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -4205,114 +4223,108 @@
         <v>24</v>
       </c>
       <c r="E97" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="F97" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G97" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H97" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I97" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>54</v>
-      </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E98" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="F98" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="G98" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H98" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I98" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>47</v>
-      </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>308</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E99" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="F99" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="G99" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="H99" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I99" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>308</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="E100" t="s">
-        <v>103</v>
+        <v>308</v>
       </c>
       <c r="F100" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G100" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H100" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I100" t="s">
-        <v>104</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>354</v>
+        <v>210</v>
       </c>
       <c r="B101" t="s">
-        <v>355</v>
+        <v>211</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -4321,493 +4333,499 @@
         <v>24</v>
       </c>
       <c r="E101" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F101" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G101" t="s">
-        <v>356</v>
+        <v>217</v>
       </c>
       <c r="H101" t="s">
-        <v>319</v>
+        <v>310</v>
+      </c>
+      <c r="I101" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="F102" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G102" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H102" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I102" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B103" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="E103" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F103" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G103" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H103" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I103" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="D104" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="E104" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F104" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="G104" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H104" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I104" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>348</v>
+      </c>
       <c r="B105" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="C105" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E105" t="s">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="F105" t="s">
-        <v>313</v>
+        <v>192</v>
       </c>
       <c r="G105" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="H105" t="s">
-        <v>313</v>
-      </c>
-      <c r="I105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>61</v>
+      </c>
       <c r="B106" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="C106" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="E106" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="F106" t="s">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="G106" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H106" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I106" t="s">
-        <v>313</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
+        <v>145</v>
       </c>
       <c r="C107" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>313</v>
+        <v>160</v>
       </c>
       <c r="E107" t="s">
-        <v>313</v>
+        <v>120</v>
       </c>
       <c r="F107" t="s">
-        <v>313</v>
+        <v>192</v>
       </c>
       <c r="G107" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H107" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I107" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="E108" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F108" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G108" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H108" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I108" t="s">
-        <v>313</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>38</v>
-      </c>
       <c r="B109" t="s">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E109" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="F109" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="G109" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H109" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="I109" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C110" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D110" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E110" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F110" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G110" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H110" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I110" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>300</v>
+      </c>
       <c r="B111" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C111" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D111" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E111" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F111" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G111" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H111" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I111" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>306</v>
+        <v>37</v>
       </c>
       <c r="B112" t="s">
-        <v>313</v>
+        <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E112" t="s">
-        <v>313</v>
+        <v>120</v>
       </c>
       <c r="F112" t="s">
-        <v>313</v>
+        <v>192</v>
       </c>
       <c r="G112" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H112" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I112" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>339</v>
+        <v>38</v>
       </c>
       <c r="B113" t="s">
-        <v>340</v>
+        <v>123</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="E113" t="s">
-        <v>313</v>
+        <v>120</v>
       </c>
       <c r="F113" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H113" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I113" t="s">
-        <v>132</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>341</v>
-      </c>
       <c r="B114" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="C114" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>308</v>
+      </c>
+      <c r="E114" t="s">
+        <v>308</v>
       </c>
       <c r="F114" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="G114" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="H114" t="s">
-        <v>25</v>
+        <v>308</v>
+      </c>
+      <c r="I114" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
+        <v>308</v>
+      </c>
+      <c r="C115" t="s">
+        <v>308</v>
+      </c>
+      <c r="D115" t="s">
+        <v>308</v>
+      </c>
+      <c r="E115" t="s">
+        <v>308</v>
+      </c>
+      <c r="F115" t="s">
+        <v>308</v>
+      </c>
+      <c r="G115" t="s">
+        <v>308</v>
+      </c>
+      <c r="H115" t="s">
+        <v>308</v>
+      </c>
+      <c r="I115" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>301</v>
+      </c>
+      <c r="B116" t="s">
+        <v>308</v>
+      </c>
+      <c r="C116" t="s">
+        <v>308</v>
+      </c>
+      <c r="D116" t="s">
+        <v>308</v>
+      </c>
+      <c r="E116" t="s">
+        <v>308</v>
+      </c>
+      <c r="F116" t="s">
+        <v>308</v>
+      </c>
+      <c r="G116" t="s">
+        <v>308</v>
+      </c>
+      <c r="H116" t="s">
+        <v>308</v>
+      </c>
+      <c r="I116" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>333</v>
+      </c>
+      <c r="B117" t="s">
         <v>334</v>
       </c>
-      <c r="B115" t="s">
-        <v>221</v>
-      </c>
-      <c r="C115" t="s">
-        <v>27</v>
-      </c>
-      <c r="D115" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115" t="s">
-        <v>313</v>
-      </c>
-      <c r="F115" t="s">
-        <v>199</v>
-      </c>
-      <c r="G115" t="s">
-        <v>220</v>
-      </c>
-      <c r="H115" t="s">
-        <v>324</v>
-      </c>
-      <c r="I115" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>313</v>
-      </c>
-      <c r="C116" t="s">
-        <v>313</v>
-      </c>
-      <c r="D116" t="s">
-        <v>313</v>
-      </c>
-      <c r="E116" t="s">
-        <v>313</v>
-      </c>
-      <c r="F116" t="s">
-        <v>313</v>
-      </c>
-      <c r="G116" t="s">
-        <v>313</v>
-      </c>
-      <c r="H116" t="s">
-        <v>313</v>
-      </c>
-      <c r="I116" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>313</v>
-      </c>
       <c r="C117" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D117" t="s">
-        <v>313</v>
+        <v>160</v>
       </c>
       <c r="E117" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F117" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="G117" t="s">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="H117" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I117" t="s">
-        <v>313</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="B118" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="C118" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="D118" t="s">
-        <v>313</v>
-      </c>
-      <c r="E118" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="F118" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="G118" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="H118" t="s">
-        <v>313</v>
-      </c>
-      <c r="I118" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>328</v>
       </c>
       <c r="B119" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -4816,137 +4834,137 @@
         <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F119" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G119" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="H119" t="s">
         <v>318</v>
       </c>
       <c r="I119" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>2</v>
-      </c>
       <c r="B120" t="s">
-        <v>150</v>
+        <v>308</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D120" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E120" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F120" t="s">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="G120" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H120" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I120" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C121" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D121" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E121" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F121" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G121" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H121" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I121" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>302</v>
+      </c>
       <c r="B122" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C122" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D122" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E122" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F122" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G122" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H122" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I122" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>308</v>
+        <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="C123" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E123" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F123" t="s">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="G123" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H123" t="s">
         <v>313</v>
       </c>
       <c r="I123" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -4955,108 +4973,137 @@
         <v>24</v>
       </c>
       <c r="E124" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="F124" t="s">
         <v>197</v>
       </c>
       <c r="G124" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H124" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I124" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>19</v>
-      </c>
       <c r="B125" t="s">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E125" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="F125" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="G125" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="H125" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I125" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>337</v>
-      </c>
       <c r="B126" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E126" t="s">
-        <v>338</v>
+        <v>308</v>
+      </c>
+      <c r="F126" t="s">
+        <v>308</v>
       </c>
       <c r="G126" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="H126" t="s">
-        <v>317</v>
+        <v>308</v>
+      </c>
+      <c r="I126" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D127" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="E127" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F127" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="G127" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="H127" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="I127" t="s">
-        <v>313</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C128" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" t="s">
+        <v>120</v>
+      </c>
+      <c r="F128" t="s">
+        <v>192</v>
+      </c>
+      <c r="G128" t="s">
+        <v>207</v>
+      </c>
+      <c r="H128" t="s">
+        <v>312</v>
+      </c>
+      <c r="I128" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -5065,27 +5112,27 @@
         <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="F129" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G129" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H129" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I129" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>69</v>
+        <v>331</v>
       </c>
       <c r="B130" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
@@ -5094,85 +5141,50 @@
         <v>24</v>
       </c>
       <c r="E130" t="s">
-        <v>313</v>
-      </c>
-      <c r="F130" t="s">
-        <v>196</v>
+        <v>332</v>
       </c>
       <c r="G130" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H130" t="s">
-        <v>317</v>
-      </c>
-      <c r="I130" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="B131" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
       </c>
       <c r="D131" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E131" t="s">
-        <v>186</v>
+        <v>308</v>
       </c>
       <c r="F131" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G131" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H131" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I131" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>20</v>
-      </c>
-      <c r="B132" t="s">
-        <v>108</v>
-      </c>
-      <c r="C132" t="s">
-        <v>27</v>
-      </c>
-      <c r="D132" t="s">
-        <v>188</v>
-      </c>
-      <c r="E132" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132" t="s">
-        <v>209</v>
-      </c>
-      <c r="G132" t="s">
-        <v>212</v>
-      </c>
-      <c r="H132" t="s">
-        <v>317</v>
-      </c>
-      <c r="I132" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>344</v>
+        <v>174</v>
       </c>
       <c r="B133" t="s">
-        <v>345</v>
+        <v>199</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -5180,25 +5192,28 @@
       <c r="D133" t="s">
         <v>24</v>
       </c>
+      <c r="E133" t="s">
+        <v>154</v>
+      </c>
       <c r="F133" t="s">
-        <v>357</v>
+        <v>191</v>
       </c>
       <c r="G133" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H133" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I133" t="s">
-        <v>145</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>335</v>
+        <v>68</v>
       </c>
       <c r="B134" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
@@ -5207,189 +5222,186 @@
         <v>24</v>
       </c>
       <c r="E134" t="s">
+        <v>308</v>
+      </c>
+      <c r="F134" t="s">
+        <v>191</v>
+      </c>
+      <c r="G134" t="s">
+        <v>207</v>
+      </c>
+      <c r="H134" t="s">
+        <v>312</v>
+      </c>
+      <c r="I134" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" t="s">
+        <v>183</v>
+      </c>
+      <c r="E135" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" t="s">
+        <v>204</v>
+      </c>
+      <c r="G135" t="s">
+        <v>207</v>
+      </c>
+      <c r="H135" t="s">
+        <v>312</v>
+      </c>
+      <c r="I135" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>338</v>
       </c>
-      <c r="G134" t="s">
-        <v>212</v>
-      </c>
-      <c r="H134" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>313</v>
-      </c>
-      <c r="C135" t="s">
-        <v>313</v>
-      </c>
-      <c r="D135" t="s">
-        <v>313</v>
-      </c>
-      <c r="E135" t="s">
-        <v>313</v>
-      </c>
-      <c r="F135" t="s">
-        <v>313</v>
-      </c>
-      <c r="G135" t="s">
-        <v>313</v>
-      </c>
-      <c r="H135" t="s">
-        <v>313</v>
-      </c>
-      <c r="I135" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="C136" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D136" t="s">
-        <v>313</v>
-      </c>
-      <c r="E136" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="F136" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="G136" t="s">
-        <v>313</v>
+        <v>207</v>
       </c>
       <c r="H136" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I136" t="s">
-        <v>313</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="B137" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C137" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D137" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E137" t="s">
-        <v>313</v>
-      </c>
-      <c r="F137" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="G137" t="s">
-        <v>313</v>
+        <v>207</v>
       </c>
       <c r="H137" t="s">
-        <v>313</v>
-      </c>
-      <c r="I137" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>93</v>
-      </c>
       <c r="B138" t="s">
-        <v>94</v>
+        <v>308</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D138" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E138" t="s">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="F138" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="G138" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H138" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="I138" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>21</v>
-      </c>
       <c r="B139" t="s">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E139" t="s">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="F139" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="G139" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H139" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="I139" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="B140" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D140" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E140" t="s">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="F140" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="G140" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H140" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="I140" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>256</v>
+        <v>91</v>
       </c>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -5398,27 +5410,27 @@
         <v>24</v>
       </c>
       <c r="E141" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F141" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G141" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H141" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I141" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -5427,27 +5439,27 @@
         <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F142" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G142" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H142" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I142" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B143" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -5456,195 +5468,195 @@
         <v>24</v>
       </c>
       <c r="E143" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F143" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G143" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H143" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I143" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>251</v>
+      </c>
       <c r="B144" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="C144" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D144" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E144" t="s">
-        <v>313</v>
+        <v>97</v>
       </c>
       <c r="F144" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="G144" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H144" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="I144" t="s">
-        <v>313</v>
+        <v>96</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>252</v>
+      </c>
       <c r="B145" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="C145" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D145" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E145" t="s">
-        <v>313</v>
+        <v>97</v>
       </c>
       <c r="F145" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="G145" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H145" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="I145" t="s">
-        <v>313</v>
+        <v>96</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="B146" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="C146" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D146" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E146" t="s">
-        <v>313</v>
+        <v>97</v>
       </c>
       <c r="F146" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="G146" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H146" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="I146" t="s">
-        <v>313</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>17</v>
-      </c>
       <c r="B147" t="s">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E147" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F147" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="G147" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="H147" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="I147" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>0</v>
-      </c>
       <c r="B148" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D148" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E148" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="F148" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="G148" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="H148" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="I148" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D149" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="E149" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="F149" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="G149" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="H149" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="I149" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
@@ -5653,27 +5665,27 @@
         <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="F150" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G150" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H150" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I150" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
@@ -5682,27 +5694,27 @@
         <v>24</v>
       </c>
       <c r="E151" t="s">
-        <v>313</v>
+        <v>120</v>
       </c>
       <c r="F151" t="s">
+        <v>192</v>
+      </c>
+      <c r="G151" t="s">
         <v>207</v>
       </c>
-      <c r="G151" t="s">
-        <v>222</v>
-      </c>
       <c r="H151" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I151" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>332</v>
+        <v>208</v>
       </c>
       <c r="B152" t="s">
-        <v>333</v>
+        <v>209</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -5710,679 +5722,762 @@
       <c r="D152" t="s">
         <v>24</v>
       </c>
+      <c r="E152" t="s">
+        <v>120</v>
+      </c>
       <c r="F152" t="s">
-        <v>199</v>
+        <v>192</v>
+      </c>
+      <c r="G152" t="s">
+        <v>207</v>
       </c>
       <c r="H152" t="s">
-        <v>323</v>
+        <v>314</v>
+      </c>
+      <c r="I152" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
       <c r="B153" t="s">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="C153" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D153" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E153" t="s">
-        <v>313</v>
+        <v>120</v>
       </c>
       <c r="F153" t="s">
-        <v>313</v>
+        <v>192</v>
       </c>
       <c r="G153" t="s">
-        <v>313</v>
+        <v>207</v>
       </c>
       <c r="H153" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I153" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>125</v>
+      </c>
       <c r="B154" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
       <c r="C154" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D154" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="E154" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F154" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
       <c r="G154" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H154" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I154" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B155" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C155" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D155" t="s">
-        <v>313</v>
-      </c>
-      <c r="E155" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="F155" t="s">
-        <v>313</v>
-      </c>
-      <c r="G155" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="H155" t="s">
-        <v>313</v>
-      </c>
-      <c r="I155" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>275</v>
-      </c>
       <c r="B156" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D156" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="E156" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="F156" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G156" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H156" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="I156" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>276</v>
-      </c>
       <c r="B157" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D157" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="E157" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="F157" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G157" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H157" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="I157" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="B158" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D158" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="E158" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G158" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H158" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="I158" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B159" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
       </c>
       <c r="D159" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E159" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F159" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G159" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H159" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I159" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B160" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
       </c>
       <c r="D160" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="E160" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F160" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G160" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H160" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I160" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>46</v>
+        <v>272</v>
       </c>
       <c r="B161" t="s">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
       </c>
       <c r="D161" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="E161" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F161" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G161" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H161" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I161" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B162" t="s">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
       </c>
       <c r="D162" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E162" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F162" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G162" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H162" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I162" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B163" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
       </c>
       <c r="D163" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="E163" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F163" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G163" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H163" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I163" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="B164" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="F164" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="G164" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="H164" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="I164" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B165" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
       </c>
       <c r="D165" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E165" t="s">
-        <v>122</v>
+        <v>285</v>
       </c>
       <c r="F165" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G165" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H165" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I165" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>276</v>
+      </c>
+      <c r="B166" t="s">
+        <v>118</v>
+      </c>
+      <c r="C166" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" t="s">
         <v>284</v>
       </c>
-      <c r="B166" t="s">
-        <v>121</v>
-      </c>
-      <c r="C166" t="s">
-        <v>27</v>
-      </c>
-      <c r="D166" t="s">
-        <v>289</v>
-      </c>
       <c r="E166" t="s">
-        <v>122</v>
+        <v>290</v>
       </c>
       <c r="F166" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G166" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H166" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I166" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B167" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D167" t="s">
-        <v>289</v>
+        <v>25</v>
       </c>
       <c r="E167" t="s">
-        <v>122</v>
+        <v>308</v>
       </c>
       <c r="F167" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G167" t="s">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="H167" t="s">
-        <v>322</v>
+        <v>25</v>
       </c>
       <c r="I167" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B168" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C168" t="s">
         <v>27</v>
       </c>
       <c r="D168" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E168" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F168" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G168" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H168" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I168" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B169" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C169" t="s">
         <v>27</v>
       </c>
       <c r="D169" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E169" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F169" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G169" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H169" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I169" t="s">
-        <v>313</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>280</v>
+      </c>
+      <c r="B170" t="s">
+        <v>118</v>
+      </c>
+      <c r="C170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" t="s">
+        <v>284</v>
+      </c>
+      <c r="E170" t="s">
+        <v>119</v>
+      </c>
+      <c r="F170" t="s">
+        <v>285</v>
+      </c>
+      <c r="G170" t="s">
+        <v>217</v>
+      </c>
+      <c r="H170" t="s">
+        <v>316</v>
+      </c>
+      <c r="I170" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>281</v>
+      </c>
       <c r="B171" t="s">
-        <v>313</v>
+        <v>118</v>
       </c>
       <c r="C171" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D171" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E171" t="s">
-        <v>313</v>
+        <v>119</v>
       </c>
       <c r="F171" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="G171" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H171" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I171" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="B172" t="s">
-        <v>313</v>
+        <v>118</v>
       </c>
       <c r="C172" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="D172" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E172" t="s">
-        <v>313</v>
+        <v>119</v>
       </c>
       <c r="F172" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="G172" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H172" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I172" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>248</v>
-      </c>
-      <c r="B173" t="s">
-        <v>249</v>
-      </c>
-      <c r="C173" t="s">
-        <v>27</v>
-      </c>
-      <c r="D173" t="s">
-        <v>163</v>
-      </c>
-      <c r="E173" t="s">
-        <v>114</v>
-      </c>
-      <c r="F173" t="s">
-        <v>196</v>
-      </c>
-      <c r="G173" t="s">
-        <v>222</v>
-      </c>
-      <c r="H173" t="s">
-        <v>323</v>
-      </c>
-      <c r="I173" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>79</v>
-      </c>
       <c r="B174" t="s">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D174" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="E174" t="s">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="F174" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="G174" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H174" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="I174" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="B175" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="D175" t="s">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="E175" t="s">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="F175" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="G175" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="H175" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="I175" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="B176" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
       </c>
       <c r="D176" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E176" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="F176" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G176" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H176" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I176" t="s">
-        <v>313</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>77</v>
+      </c>
+      <c r="B177" t="s">
+        <v>111</v>
+      </c>
+      <c r="C177" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177" t="s">
+        <v>160</v>
+      </c>
+      <c r="E177" t="s">
+        <v>112</v>
+      </c>
+      <c r="F177" t="s">
+        <v>191</v>
+      </c>
+      <c r="G177" t="s">
+        <v>217</v>
+      </c>
+      <c r="H177" t="s">
+        <v>317</v>
+      </c>
+      <c r="I177" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>245</v>
+      </c>
+      <c r="B178" t="s">
+        <v>246</v>
+      </c>
+      <c r="C178" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" t="s">
+        <v>160</v>
+      </c>
+      <c r="E178" t="s">
+        <v>112</v>
+      </c>
+      <c r="F178" t="s">
+        <v>191</v>
+      </c>
+      <c r="G178" t="s">
+        <v>217</v>
+      </c>
+      <c r="H178" t="s">
+        <v>317</v>
+      </c>
+      <c r="I178" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>78</v>
+      </c>
+      <c r="B179" t="s">
+        <v>152</v>
+      </c>
+      <c r="C179" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" t="s">
+        <v>24</v>
+      </c>
+      <c r="E179" t="s">
+        <v>153</v>
+      </c>
+      <c r="F179" t="s">
+        <v>200</v>
+      </c>
+      <c r="G179" t="s">
+        <v>217</v>
+      </c>
+      <c r="H179" t="s">
+        <v>317</v>
+      </c>
+      <c r="I179" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I176" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I131">
-      <sortCondition ref="D2:D131"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I131">
-    <sortCondition ref="A3:A131"/>
+  <autoFilter ref="A2:I179" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I134">
+    <sortCondition ref="A3:A134"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6404,17 +6499,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/Support/configDescriptions.xlsx
+++ b/Support/configDescriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\RemotelyBackedUp\Git\StepTextConversion\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F6BBD3-3546-4275-B79A-3CF9BDAE48B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3777992B-412B-4F44-96F3-7459BF8FC8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{128561E6-B5C2-46ED-B2EC-132D38FABE72}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PatternBasedElements" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$187</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="377">
   <si>
     <t>stepDbgAddDebugAttributesToNodes</t>
   </si>
@@ -47,15 +47,6 @@
     <t>xweird</t>
   </si>
   <si>
-    <t>stepTextOwnerOrganisationFullName</t>
-  </si>
-  <si>
-    <t>stepTextIdSuppliedBySourceRepositoryOrOwnerOrganisation</t>
-  </si>
-  <si>
-    <t>stepTextVersionSuppliedBySourceRepositoryOrOwnerOrganisation</t>
-  </si>
-  <si>
     <t>stepBibleNameEnglish</t>
   </si>
   <si>
@@ -68,15 +59,6 @@
     <t>stepAbbreviationVernacular</t>
   </si>
   <si>
-    <t>stepShortCopyright</t>
-  </si>
-  <si>
-    <t>stepAboutAsSupplied</t>
-  </si>
-  <si>
-    <t>stepDistributionLicence</t>
-  </si>
-  <si>
     <t>stepIsCopyrightText</t>
   </si>
   <si>
@@ -140,9 +122,6 @@
     <t>stepAbout</t>
   </si>
   <si>
-    <t>stepAddedValueLinesForSwordConfigComments</t>
-  </si>
-  <si>
     <t>stepAddedValueMorphology</t>
   </si>
   <si>
@@ -155,12 +134,6 @@
     <t>stepDataPath</t>
   </si>
   <si>
-    <t>stepDisambiguatorForId</t>
-  </si>
-  <si>
-    <t>stepDistributionNotes</t>
-  </si>
-  <si>
     <t>stepEncrypted</t>
   </si>
   <si>
@@ -173,9 +146,6 @@
     <t>stepForceUpIssue</t>
   </si>
   <si>
-    <t>stepInputFileDigests</t>
-  </si>
-  <si>
     <t>stepLanguageCode2Char</t>
   </si>
   <si>
@@ -185,12 +155,6 @@
     <t>stepLanguageNameInEnglish</t>
   </si>
   <si>
-    <t>stepLicenceExpiryDate</t>
-  </si>
-  <si>
-    <t>stepLicenceId</t>
-  </si>
-  <si>
     <t>stepManualOsis2mod</t>
   </si>
   <si>
@@ -203,9 +167,6 @@
     <t>stepOnlineUsageOnly</t>
   </si>
   <si>
-    <t>stepOptions</t>
-  </si>
-  <si>
     <t>stepOsis2ModEncryptionKey</t>
   </si>
   <si>
@@ -221,9 +182,6 @@
     <t>stepReversificationType</t>
   </si>
   <si>
-    <t>stepShortPromo</t>
-  </si>
-  <si>
     <t>stepSoftwareVersionRequired</t>
   </si>
   <si>
@@ -242,27 +200,12 @@
     <t>stepTextDirection</t>
   </si>
   <si>
-    <t>stepTextDirectionForSword</t>
-  </si>
-  <si>
     <t>stepTextModifiedDate</t>
   </si>
   <si>
-    <t>stepTextOwnerOrganisationAbbreviatedName</t>
-  </si>
-  <si>
-    <t>stepTextRepositoryOrganisationAbbreviatedName</t>
-  </si>
-  <si>
-    <t>stepTextRepositoryOrganisationFullName</t>
-  </si>
-  <si>
     <t>stepTextRevision</t>
   </si>
   <si>
-    <t>stepTextSource</t>
-  </si>
-  <si>
     <t>stepThanks</t>
   </si>
   <si>
@@ -431,9 +374,6 @@
     <t>Gives the software version number reported by osis2mod.  Used for admin purposes, so we know which osis2mod was used.</t>
   </si>
   <si>
-    <t>The brief description of the Bible which appears on the Bible chooser in STEP.  Typically made up of a number of elements, but you can override that by specifying a value for stepBibleDescriptionAsItAppearsOnBibleListOverride.</t>
-  </si>
-  <si>
     <t>Used to obtain a list of book names and abbreviations from an external metadata source where available.</t>
   </si>
   <si>
@@ -506,9 +446,6 @@
     <t>Holds a relative data path pointing to data within the module zip file.</t>
   </si>
   <si>
-    <t>stepWordingForDerivedWorkStipulatedByTextSupplier</t>
-  </si>
-  <si>
     <t>Some suppliers require us to use particular words to acknowledge the fact that we have made changes in our version.</t>
   </si>
   <si>
@@ -602,9 +539,6 @@
     <t>Used to hold details of any special features which need to appear in the Sword config file.  (At the time of writing, does not appear to be used).</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Arbitrary string.</t>
   </si>
   <si>
@@ -665,9 +599,6 @@
     <t>stepConversionTimeReversification</t>
   </si>
   <si>
-    <t>If Yes, restructures the text to conform to NRSVA structure.</t>
-  </si>
-  <si>
     <t>The root folder holding data for the module.</t>
   </si>
   <si>
@@ -698,18 +629,12 @@
     <t>Arbitrary string or empty.</t>
   </si>
   <si>
-    <t>stepTextOwnerOrganisationWebsiteLinkOrDescription</t>
-  </si>
-  <si>
     <t>Details of text owner and / or link to their website as HTML.</t>
   </si>
   <si>
     <t>MandatoryAlwaysMayBeEmpty</t>
   </si>
   <si>
-    <t>stepTextRepositoryOrganisationWebsiteLinkOrDescription</t>
-  </si>
-  <si>
     <t>Details of repository organisation and / or link to their website as HTML.</t>
   </si>
   <si>
@@ -827,15 +752,6 @@
     <t>Used internally when creating the Sword config file.</t>
   </si>
   <si>
-    <t>OptionalOrCalculated</t>
-  </si>
-  <si>
-    <t>FileOrCalculated</t>
-  </si>
-  <si>
-    <t>Typically you allow this to be calculated, because the format is complicated.  But particularly when updating older modules, you may want to keep the previous value, in which case you can specify that value in a configuration file.</t>
-  </si>
-  <si>
     <t>Basic information which feeds into the Sword About parameter and thence into our copyright page (ie information typically provided by the text supplier to describe the text).</t>
   </si>
   <si>
@@ -905,21 +821,12 @@
     <t>The URL of a portion of the tagging data within the STEP data repository.</t>
   </si>
   <si>
-    <t># Controlling organisations.</t>
-  </si>
-  <si>
     <t># Copyright and licensing.</t>
   </si>
   <si>
     <t># Description of text.</t>
   </si>
   <si>
-    <t>stepBibleDescriptionAsItAppearsOnBiblePicker</t>
-  </si>
-  <si>
-    <t># Text identification and versioning.</t>
-  </si>
-  <si>
     <t># Description of language or script.</t>
   </si>
   <si>
@@ -1122,6 +1029,138 @@
   </si>
   <si>
     <t>Probably to be used only with open access texts, where we need to include the original English and vernacular names in the copyright information, even if we have overridden them.</t>
+  </si>
+  <si>
+    <t>stepDeletedBooks</t>
+  </si>
+  <si>
+    <t>OK -- not exactly added value.  Admits to deleting books not supported by a Crosswire versification scheme.</t>
+  </si>
+  <si>
+    <t>Specifically feeds into the text description in the configuration file.  May differ from any other apparently related item, because sometimes values are set to null to avoid duplication.   Normally calculated, but can be overridden if necessary.</t>
+  </si>
+  <si>
+    <t>After replacing eg 'New Testament' by NT.</t>
+  </si>
+  <si>
+    <t># Parameters for Sword config files.</t>
+  </si>
+  <si>
+    <t>swordBibleChooserTextAbbreviationEnglish</t>
+  </si>
+  <si>
+    <t>swordBibleChooserTextAbbreviationVernacular</t>
+  </si>
+  <si>
+    <t>swordBibleChooserTextAssembly</t>
+  </si>
+  <si>
+    <t>swordBibleChooserTextBibleNameEnglish</t>
+  </si>
+  <si>
+    <t>swordBibleChooserTextBibleNameEnglishCanonicalised</t>
+  </si>
+  <si>
+    <t>swordBibleChooserTextBibleNameVernacular</t>
+  </si>
+  <si>
+    <t>swordBibleChooserTextCountriesWhereLanguageUsed</t>
+  </si>
+  <si>
+    <t>swordBibleChooserTextOfficialYear</t>
+  </si>
+  <si>
+    <t>swordBibleChooserTextPortionOfBibleCovered</t>
+  </si>
+  <si>
+    <t>swordCopyrightTextAdditionalInformationSuppliedByUs</t>
+  </si>
+  <si>
+    <t>swordCopyrightTextAssembly</t>
+  </si>
+  <si>
+    <t>swordCopyrightTextConversionDetails</t>
+  </si>
+  <si>
+    <t>swordTextDirection</t>
+  </si>
+  <si>
+    <t>swordOptions</t>
+  </si>
+  <si>
+    <t>swordInputFileDigests</t>
+  </si>
+  <si>
+    <t>swordShortCopyright</t>
+  </si>
+  <si>
+    <t>swordShortPromo</t>
+  </si>
+  <si>
+    <t>swordTextOwnerOrganisationAbbreviatedName</t>
+  </si>
+  <si>
+    <t>swordTextOwnerOrganisationFullName</t>
+  </si>
+  <si>
+    <t>swordTextOwnerOrganisationWebsiteLinkOrDescription</t>
+  </si>
+  <si>
+    <t>swordTextRepositoryOrganisationAbbreviatedName</t>
+  </si>
+  <si>
+    <t>swordTextRepositoryOrganisationFullName</t>
+  </si>
+  <si>
+    <t>swordTextRepositoryOrganisationWebsiteLinkOrDescription</t>
+  </si>
+  <si>
+    <t># Controlling organisations (used only in Sword config file).</t>
+  </si>
+  <si>
+    <t>swordAboutAsSupplied</t>
+  </si>
+  <si>
+    <t>swordDistributionLicence</t>
+  </si>
+  <si>
+    <t>swordDistributionNotes</t>
+  </si>
+  <si>
+    <t>swordLicenceExpiryDate</t>
+  </si>
+  <si>
+    <t>swordLicenceId</t>
+  </si>
+  <si>
+    <t>swordWordingForDerivedWorkStipulatedByTextSupplier</t>
+  </si>
+  <si>
+    <t>If Yes, restructures the text to conform to KJVA structure.</t>
+  </si>
+  <si>
+    <t>swordTextIdSuppliedBySourceRepositoryOrOwnerOrganisation</t>
+  </si>
+  <si>
+    <t>swordTextVersionSuppliedBySourceRepositoryOrOwnerOrganisation</t>
+  </si>
+  <si>
+    <t>swordDisambiguatorForId</t>
+  </si>
+  <si>
+    <t>stepUseExistingHistory</t>
+  </si>
+  <si>
+    <t>Indicates that the history and version information in step.conf is already ok and should not be updated.</t>
+  </si>
+  <si>
+    <t>swordDerivedWorksLimitations</t>
+  </si>
+  <si>
+    <t>This may be picked up from supplied other metadata, but can also be overridden using this parameter.</t>
+  </si>
+  <si>
+    <t>swordTextSource</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1202,6 +1241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,7 +1358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1336,6 +1381,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1731,7 +1777,7 @@
     <row r="1" spans="1:14" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1751,7 +1797,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1781,7 +1827,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1797,7 +1843,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1827,7 +1873,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1843,7 +1889,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1859,7 +1905,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1894,7 +1940,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -1906,7 +1952,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="24.28515625" customWidth="1"/>
@@ -1915,571 +1961,571 @@
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>261</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2487,3997 +2533,4063 @@
         <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>277</v>
+      </c>
+      <c r="E35" t="s">
+        <v>277</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>139</v>
+      </c>
+      <c r="E36" t="s">
+        <v>277</v>
+      </c>
+      <c r="F36" t="s">
+        <v>169</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>289</v>
+      </c>
+      <c r="I36" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>328</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>277</v>
+      </c>
+      <c r="F37" t="s">
+        <v>169</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>289</v>
+      </c>
+      <c r="I37" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>169</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>280</v>
+      </c>
+      <c r="I38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>277</v>
+      </c>
+      <c r="F39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" t="s">
+        <v>289</v>
+      </c>
+      <c r="I39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" t="s">
+        <v>277</v>
+      </c>
+      <c r="F40" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" t="s">
+        <v>194</v>
+      </c>
+      <c r="H40" t="s">
+        <v>289</v>
+      </c>
+      <c r="I40" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>277</v>
+      </c>
+      <c r="F41" t="s">
+        <v>169</v>
+      </c>
+      <c r="G41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H41" t="s">
+        <v>289</v>
+      </c>
+      <c r="I41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" t="s">
+        <v>194</v>
+      </c>
+      <c r="H42" t="s">
+        <v>280</v>
+      </c>
+      <c r="I42" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C43" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>308</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>308</v>
+        <v>169</v>
       </c>
       <c r="G43" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H43" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>311</v>
-      </c>
-      <c r="I44" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F45" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="G45" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H45" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="I45" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>222</v>
-      </c>
-      <c r="B46" t="s">
-        <v>223</v>
-      </c>
-      <c r="C46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" t="s">
-        <v>224</v>
-      </c>
-      <c r="E46" t="s">
-        <v>308</v>
-      </c>
-      <c r="F46" t="s">
-        <v>221</v>
-      </c>
-      <c r="G46" t="s">
-        <v>217</v>
-      </c>
-      <c r="H46" t="s">
-        <v>320</v>
-      </c>
-      <c r="I46" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" t="s">
-        <v>191</v>
-      </c>
-      <c r="G47" t="s">
-        <v>217</v>
-      </c>
-      <c r="H47" t="s">
-        <v>311</v>
-      </c>
-      <c r="I47" t="s">
-        <v>308</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="E48" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F48" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="G48" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H48" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I48" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>224</v>
-      </c>
-      <c r="E49" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="F49" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="G49" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H49" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="I49" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>362</v>
+      </c>
       <c r="B50" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="C50" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F50" t="s">
-        <v>308</v>
+        <v>169</v>
       </c>
       <c r="G50" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H50" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I50" t="s">
-        <v>308</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>363</v>
+      </c>
       <c r="B51" t="s">
-        <v>308</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F51" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="G51" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H51" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I51" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>292</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s">
-        <v>308</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F52" t="s">
-        <v>308</v>
+        <v>169</v>
       </c>
       <c r="G52" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H52" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I52" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F53" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G53" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H53" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="I53" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F54" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="G54" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H54" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="I54" t="s">
-        <v>308</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F55" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G55" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H55" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="I55" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" t="s">
-        <v>160</v>
-      </c>
-      <c r="F56" t="s">
-        <v>192</v>
-      </c>
-      <c r="G56" t="s">
-        <v>217</v>
-      </c>
-      <c r="H56" t="s">
-        <v>320</v>
-      </c>
-      <c r="I56" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" t="s">
-        <v>227</v>
-      </c>
-      <c r="C57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" t="s">
-        <v>308</v>
-      </c>
-      <c r="F57" t="s">
-        <v>198</v>
-      </c>
-      <c r="G57" t="s">
-        <v>217</v>
-      </c>
-      <c r="H57" t="s">
-        <v>311</v>
-      </c>
-      <c r="I57" t="s">
-        <v>90</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>361</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="E58" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F58" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="G58" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H58" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="I58" t="s">
-        <v>90</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>355</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="F59" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G59" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H59" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="I59" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="E60" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F60" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G60" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H60" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="I60" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>357</v>
+      </c>
+      <c r="B61" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" t="s">
+        <v>277</v>
+      </c>
+      <c r="F61" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" t="s">
+        <v>194</v>
+      </c>
+      <c r="H61" t="s">
+        <v>289</v>
+      </c>
+      <c r="I61" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>358</v>
+      </c>
+      <c r="B62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>359</v>
+      </c>
+      <c r="F62" t="s">
+        <v>169</v>
+      </c>
+      <c r="G62" t="s">
+        <v>194</v>
+      </c>
+      <c r="H62" t="s">
+        <v>280</v>
+      </c>
+      <c r="I62" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>359</v>
+      </c>
+      <c r="B63" t="s">
         <v>158</v>
       </c>
-      <c r="B61" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" t="s">
-        <v>308</v>
-      </c>
-      <c r="F61" t="s">
-        <v>191</v>
-      </c>
-      <c r="G61" t="s">
-        <v>217</v>
-      </c>
-      <c r="H61" t="s">
-        <v>311</v>
-      </c>
-      <c r="I61" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>308</v>
-      </c>
-      <c r="C62" t="s">
-        <v>308</v>
-      </c>
-      <c r="D62" t="s">
-        <v>308</v>
-      </c>
-      <c r="E62" t="s">
-        <v>308</v>
-      </c>
-      <c r="F62" t="s">
-        <v>308</v>
-      </c>
-      <c r="G62" t="s">
-        <v>308</v>
-      </c>
-      <c r="H62" t="s">
-        <v>308</v>
-      </c>
-      <c r="I62" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>308</v>
-      </c>
       <c r="C63" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="E63" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="G63" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H63" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I63" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>293</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="E64" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F64" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="G64" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H64" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I64" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>376</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" t="s">
-        <v>308</v>
-      </c>
-      <c r="F65" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>320</v>
-      </c>
-      <c r="I65" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>358</v>
-      </c>
-      <c r="B66" t="s">
-        <v>359</v>
-      </c>
-      <c r="C66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" t="s">
-        <v>308</v>
-      </c>
-      <c r="F66" t="s">
-        <v>191</v>
-      </c>
-      <c r="G66" t="s">
-        <v>217</v>
-      </c>
-      <c r="H66" t="s">
-        <v>320</v>
-      </c>
-      <c r="I66" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" t="s">
-        <v>191</v>
-      </c>
-      <c r="G67" t="s">
-        <v>217</v>
-      </c>
-      <c r="H67" t="s">
-        <v>311</v>
-      </c>
-      <c r="I67" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>360</v>
-      </c>
-      <c r="B68" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" t="s">
-        <v>308</v>
-      </c>
-      <c r="F68" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="I68" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>294</v>
-      </c>
-      <c r="B69" t="s">
-        <v>133</v>
+        <v>339</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>265</v>
-      </c>
-      <c r="E69" t="s">
-        <v>308</v>
-      </c>
-      <c r="F69" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>266</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="I69" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" t="s">
-        <v>94</v>
+        <v>340</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
-      </c>
-      <c r="E70" t="s">
-        <v>308</v>
-      </c>
-      <c r="F70" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="I70" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" t="s">
-        <v>308</v>
-      </c>
-      <c r="F71" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="I71" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" t="s">
-        <v>95</v>
+        <v>342</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="I72" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>356</v>
-      </c>
-      <c r="B73" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="I73" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>362</v>
-      </c>
-      <c r="B74" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>25</v>
+        <v>289</v>
+      </c>
+      <c r="I74" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" t="s">
-        <v>110</v>
+        <v>345</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>183</v>
-      </c>
-      <c r="E75" t="s">
-        <v>308</v>
-      </c>
-      <c r="F75" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="I75" t="s">
-        <v>220</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>308</v>
+      <c r="A76" t="s">
+        <v>346</v>
       </c>
       <c r="C76" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>308</v>
-      </c>
-      <c r="E76" t="s">
-        <v>308</v>
-      </c>
-      <c r="F76" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I76" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>308</v>
+      <c r="A77" t="s">
+        <v>347</v>
       </c>
       <c r="C77" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>308</v>
-      </c>
-      <c r="E77" t="s">
-        <v>308</v>
-      </c>
-      <c r="F77" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I77" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>295</v>
-      </c>
-      <c r="B78" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="C78" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>308</v>
-      </c>
-      <c r="E78" t="s">
-        <v>308</v>
-      </c>
-      <c r="F78" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I78" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" t="s">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" t="s">
-        <v>308</v>
-      </c>
-      <c r="F79" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="I79" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>374</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G80" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H80" t="s">
-        <v>311</v>
-      </c>
-      <c r="I80" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>371</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F81" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G81" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H81" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="I81" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>352</v>
+      </c>
       <c r="B82" t="s">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>308</v>
-      </c>
-      <c r="E82" t="s">
-        <v>308</v>
-      </c>
-      <c r="F82" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>308</v>
-      </c>
-      <c r="I82" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>351</v>
+      </c>
       <c r="B83" t="s">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>308</v>
-      </c>
-      <c r="E83" t="s">
-        <v>308</v>
-      </c>
-      <c r="F83" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>308</v>
-      </c>
-      <c r="I83" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="B84" t="s">
-        <v>308</v>
+        <v>145</v>
       </c>
       <c r="C84" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="E84" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F84" t="s">
-        <v>308</v>
+        <v>169</v>
       </c>
       <c r="G84" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H84" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I84" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>354</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G85" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H85" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="I85" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>67</v>
+        <v>369</v>
       </c>
       <c r="B86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
+        <v>277</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
       </c>
-      <c r="C86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" t="s">
-        <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
-      </c>
       <c r="G86" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H86" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="I86" t="s">
-        <v>308</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>370</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>137</v>
+        <v>277</v>
       </c>
       <c r="F87" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="G87" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H87" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="I87" t="s">
-        <v>138</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>350</v>
+      </c>
       <c r="B88" t="s">
-        <v>308</v>
+        <v>119</v>
       </c>
       <c r="C88" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>308</v>
-      </c>
-      <c r="E88" t="s">
-        <v>308</v>
-      </c>
-      <c r="F88" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="I88" t="s">
-        <v>308</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>51</v>
+      </c>
       <c r="B89" t="s">
-        <v>308</v>
+        <v>168</v>
       </c>
       <c r="C89" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>308</v>
-      </c>
-      <c r="E89" t="s">
-        <v>308</v>
-      </c>
-      <c r="F89" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>308</v>
-      </c>
-      <c r="I89" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>297</v>
-      </c>
       <c r="B90" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C90" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D90" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E90" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F90" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="G90" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="H90" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="I90" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>344</v>
-      </c>
       <c r="B91" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="E91" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F91" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="G91" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H91" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="I91" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>345</v>
+        <v>265</v>
       </c>
       <c r="B92" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="E92" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F92" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="G92" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H92" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="I92" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>258</v>
+        <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F93" t="s">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="G93" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H93" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="I93" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>308</v>
+        <v>150</v>
       </c>
       <c r="F94" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="G94" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H94" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="I94" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>298</v>
+        <v>55</v>
       </c>
       <c r="B95" t="s">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>308</v>
+        <v>117</v>
       </c>
       <c r="F95" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="G95" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H95" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="I95" t="s">
-        <v>308</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>340</v>
-      </c>
       <c r="B96" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="E96" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F96" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="G96" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H96" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="I96" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>342</v>
-      </c>
       <c r="B97" t="s">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="E97" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F97" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="G97" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H97" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="I97" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>266</v>
+      </c>
       <c r="B98" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C98" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D98" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E98" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F98" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="G98" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="H98" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="I98" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>313</v>
+      </c>
       <c r="B99" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C99" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D99" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E99" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F99" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="G99" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H99" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="I99" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B100" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C100" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F100" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="G100" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H100" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="I100" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="B101" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E101" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G101" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H101" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="I101" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="B102" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E102" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G102" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H102" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="I102" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E103" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="G103" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H103" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="I103" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="C104" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E104" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="F104" t="s">
-        <v>308</v>
+        <v>169</v>
       </c>
       <c r="G104" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H104" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="I104" t="s">
-        <v>102</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="B105" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E105" t="s">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="F105" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G105" t="s">
-        <v>350</v>
+        <v>194</v>
       </c>
       <c r="H105" t="s">
-        <v>314</v>
+        <v>279</v>
+      </c>
+      <c r="I105" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>61</v>
-      </c>
       <c r="B106" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D106" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="E106" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="F106" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="G106" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H106" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="I106" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>80</v>
-      </c>
       <c r="B107" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D107" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="E107" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="F107" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="G107" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H107" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="I107" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D108" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="F108" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="G108" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H108" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="I108" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>188</v>
+      </c>
       <c r="B109" t="s">
-        <v>308</v>
+        <v>368</v>
       </c>
       <c r="C109" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E109" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="F109" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="G109" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H109" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="I109" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>41</v>
+      </c>
       <c r="B110" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="C110" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E110" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="F110" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="G110" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H110" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="I110" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>300</v>
+        <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="C111" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D111" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="F111" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="G111" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="H111" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="I111" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="F112" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="G112" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H112" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="I112" t="s">
-        <v>308</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E113" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="F113" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G113" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="H113" t="s">
-        <v>321</v>
-      </c>
-      <c r="I113" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>48</v>
+      </c>
       <c r="B114" t="s">
-        <v>308</v>
+        <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>308</v>
+        <v>162</v>
       </c>
       <c r="E114" t="s">
-        <v>308</v>
+        <v>163</v>
       </c>
       <c r="F114" t="s">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="G114" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H114" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="I114" t="s">
-        <v>308</v>
+        <v>196</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="18" t="s">
+        <v>372</v>
+      </c>
       <c r="B115" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="C115" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E115" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="F115" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="G115" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="H115" t="s">
-        <v>308</v>
-      </c>
-      <c r="I115" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>301</v>
+        <v>61</v>
       </c>
       <c r="B116" t="s">
-        <v>308</v>
+        <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D116" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="E116" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="F116" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="G116" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H116" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="I116" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>333</v>
+        <v>62</v>
       </c>
       <c r="B117" t="s">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D117" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E117" t="s">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="F117" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="G117" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="H117" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="I117" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>335</v>
-      </c>
       <c r="B118" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>277</v>
+      </c>
+      <c r="E118" t="s">
+        <v>277</v>
       </c>
       <c r="F118" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="G118" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="H118" t="s">
-        <v>25</v>
+        <v>277</v>
+      </c>
+      <c r="I118" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>328</v>
-      </c>
       <c r="B119" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="E119" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F119" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="G119" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="H119" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="I119" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>269</v>
+      </c>
       <c r="B120" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C120" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D120" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E120" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F120" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="G120" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="H120" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="I120" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>30</v>
+      </c>
       <c r="B121" t="s">
-        <v>308</v>
+        <v>103</v>
       </c>
       <c r="C121" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E121" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="F121" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="G121" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H121" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="I121" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>302</v>
+        <v>31</v>
       </c>
       <c r="B122" t="s">
-        <v>308</v>
+        <v>104</v>
       </c>
       <c r="C122" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E122" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="F122" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="G122" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H122" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="I122" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>3</v>
+        <v>333</v>
       </c>
       <c r="B123" t="s">
-        <v>148</v>
+        <v>334</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D123" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E123" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F123" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="G123" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="I123" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>2</v>
-      </c>
       <c r="B124" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D124" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="E124" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F124" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="G124" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H124" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="I124" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>270</v>
+      </c>
       <c r="B125" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C125" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D125" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F125" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="G125" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="H125" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="I125" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>302</v>
+      </c>
       <c r="B126" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C126" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="E126" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F126" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="G126" t="s">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="H126" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="I126" t="s">
-        <v>308</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B127" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C127" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="D127" t="s">
-        <v>308</v>
-      </c>
-      <c r="E127" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="F127" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G127" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>308</v>
-      </c>
-      <c r="I127" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>297</v>
+      </c>
+      <c r="B128" t="s">
+        <v>193</v>
+      </c>
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" t="s">
         <v>18</v>
       </c>
-      <c r="B128" t="s">
-        <v>155</v>
-      </c>
-      <c r="C128" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" t="s">
-        <v>24</v>
-      </c>
       <c r="E128" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="F128" t="s">
+        <v>172</v>
+      </c>
+      <c r="G128" t="s">
         <v>192</v>
       </c>
-      <c r="G128" t="s">
-        <v>207</v>
-      </c>
       <c r="H128" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="I128" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>19</v>
-      </c>
       <c r="B129" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="E129" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="F129" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="G129" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="H129" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="I129" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>331</v>
-      </c>
       <c r="B130" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D130" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="E130" t="s">
-        <v>332</v>
+        <v>277</v>
+      </c>
+      <c r="F130" t="s">
+        <v>277</v>
       </c>
       <c r="G130" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="H130" t="s">
-        <v>312</v>
+        <v>277</v>
+      </c>
+      <c r="I130" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B131" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D131" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="E131" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F131" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="G131" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="H131" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="I131" t="s">
-        <v>308</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" t="s">
+        <v>277</v>
+      </c>
+      <c r="F132" t="s">
+        <v>174</v>
+      </c>
+      <c r="G132" t="s">
+        <v>194</v>
+      </c>
+      <c r="H132" t="s">
+        <v>282</v>
+      </c>
+      <c r="I132" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E133" t="s">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c r="F133" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G133" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H133" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="I133" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>68</v>
-      </c>
       <c r="B134" t="s">
-        <v>173</v>
+        <v>277</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="E134" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F134" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="G134" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="H134" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="I134" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>20</v>
-      </c>
       <c r="B135" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D135" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="E135" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="F135" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="G135" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="H135" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="I135" t="s">
-        <v>107</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="B136" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
+        <v>277</v>
+      </c>
+      <c r="E136" t="s">
+        <v>277</v>
       </c>
       <c r="F136" t="s">
-        <v>351</v>
+        <v>277</v>
       </c>
       <c r="G136" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="H136" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="I136" t="s">
-        <v>142</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>329</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>330</v>
+        <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E137" t="s">
-        <v>332</v>
+        <v>101</v>
+      </c>
+      <c r="F137" t="s">
+        <v>170</v>
       </c>
       <c r="G137" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="H137" t="s">
-        <v>312</v>
+        <v>281</v>
+      </c>
+      <c r="I137" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>13</v>
+      </c>
       <c r="B138" t="s">
-        <v>308</v>
+        <v>164</v>
       </c>
       <c r="C138" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E138" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="F138" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="G138" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="H138" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="I138" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>300</v>
+      </c>
       <c r="B139" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C139" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E139" t="s">
-        <v>308</v>
-      </c>
-      <c r="F139" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G139" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="H139" t="s">
-        <v>308</v>
-      </c>
-      <c r="I139" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="B140" t="s">
-        <v>308</v>
+        <v>189</v>
       </c>
       <c r="C140" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F140" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="G140" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="H140" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I140" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="B141" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D141" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E141" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="F141" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="G141" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H141" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="I141" t="s">
-        <v>96</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B142" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E142" t="s">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="G142" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H142" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="I142" t="s">
-        <v>96</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="E143" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G143" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H143" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="I143" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
-      </c>
-      <c r="E144" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="F144" t="s">
-        <v>193</v>
+        <v>320</v>
       </c>
       <c r="G144" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H144" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="I144" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="B145" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E145" t="s">
-        <v>97</v>
-      </c>
-      <c r="F145" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
       <c r="G145" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H145" t="s">
-        <v>319</v>
-      </c>
-      <c r="I145" t="s">
-        <v>96</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>253</v>
-      </c>
       <c r="B146" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="E146" t="s">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="G146" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H146" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="I146" t="s">
-        <v>96</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C147" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D147" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E147" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="G147" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="H147" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="I147" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>273</v>
+      </c>
       <c r="B148" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C148" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D148" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E148" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="G148" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="H148" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="I148" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="B149" t="s">
-        <v>308</v>
+        <v>73</v>
       </c>
       <c r="C149" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D149" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E149" t="s">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="F149" t="s">
-        <v>308</v>
+        <v>171</v>
       </c>
       <c r="G149" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H149" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="I149" t="s">
-        <v>308</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E150" t="s">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="F150" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="G150" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H150" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="I150" t="s">
-        <v>308</v>
+        <v>77</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="B151" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D151" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E151" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F151" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="G151" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H151" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="I151" t="s">
-        <v>308</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B152" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D152" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E152" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F152" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="G152" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H152" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="I152" t="s">
-        <v>308</v>
+        <v>77</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="B153" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E153" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F153" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="G153" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H153" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="I153" t="s">
-        <v>308</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="B154" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E154" t="s">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="F154" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G154" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H154" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="I154" t="s">
-        <v>308</v>
+        <v>77</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>326</v>
-      </c>
       <c r="B155" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D155" t="s">
-        <v>24</v>
+        <v>277</v>
+      </c>
+      <c r="E155" t="s">
+        <v>277</v>
       </c>
       <c r="F155" t="s">
-        <v>194</v>
+        <v>277</v>
+      </c>
+      <c r="G155" t="s">
+        <v>277</v>
       </c>
       <c r="H155" t="s">
-        <v>317</v>
+        <v>277</v>
+      </c>
+      <c r="I155" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C156" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D156" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E156" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="G156" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="H156" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="I156" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>274</v>
+      </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C157" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D157" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E157" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="G157" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="H157" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="I157" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
       <c r="C158" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="E158" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>195</v>
       </c>
       <c r="G158" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="H158" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="I158" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="B159" t="s">
+        <v>105</v>
+      </c>
+      <c r="C159" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159" t="s">
+        <v>101</v>
+      </c>
+      <c r="F159" t="s">
+        <v>170</v>
+      </c>
+      <c r="G159" t="s">
+        <v>185</v>
+      </c>
+      <c r="H159" t="s">
         <v>283</v>
       </c>
-      <c r="C159" t="s">
-        <v>27</v>
-      </c>
-      <c r="D159" t="s">
-        <v>284</v>
-      </c>
-      <c r="E159" t="s">
-        <v>285</v>
-      </c>
-      <c r="F159" t="s">
-        <v>285</v>
-      </c>
-      <c r="G159" t="s">
-        <v>217</v>
-      </c>
-      <c r="H159" t="s">
-        <v>316</v>
-      </c>
       <c r="I159" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>271</v>
+        <v>186</v>
       </c>
       <c r="B160" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D160" t="s">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="E160" t="s">
-        <v>285</v>
+        <v>101</v>
       </c>
       <c r="F160" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="G160" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H160" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="I160" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>272</v>
+        <v>1</v>
       </c>
       <c r="B161" t="s">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D161" t="s">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="E161" t="s">
-        <v>285</v>
+        <v>101</v>
       </c>
       <c r="F161" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="G161" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H161" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="I161" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>273</v>
+        <v>106</v>
       </c>
       <c r="B162" t="s">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D162" t="s">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="E162" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F162" t="s">
-        <v>285</v>
+        <v>180</v>
       </c>
       <c r="G162" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H162" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="I162" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="B163" t="s">
-        <v>118</v>
+        <v>296</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D163" t="s">
-        <v>160</v>
-      </c>
-      <c r="E163" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="F163" t="s">
-        <v>285</v>
-      </c>
-      <c r="G163" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="H163" t="s">
-        <v>316</v>
-      </c>
-      <c r="I163" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>45</v>
-      </c>
       <c r="B164" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D164" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="E164" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F164" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G164" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H164" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="I164" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>275</v>
-      </c>
       <c r="B165" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D165" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E165" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F165" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G165" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H165" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="I165" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B166" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="D166" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E166" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F166" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G166" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H166" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="I166" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="B167" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D167" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="E167" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="F167" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="G167" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="H167" t="s">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="I167" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="B168" t="s">
-        <v>118</v>
+        <v>258</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="E168" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="F168" t="s">
+        <v>257</v>
+      </c>
+      <c r="G168" t="s">
+        <v>194</v>
+      </c>
+      <c r="H168" t="s">
         <v>285</v>
       </c>
-      <c r="G168" t="s">
-        <v>217</v>
-      </c>
-      <c r="H168" t="s">
-        <v>316</v>
-      </c>
       <c r="I168" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="B169" t="s">
-        <v>118</v>
+        <v>259</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D169" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="E169" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="F169" t="s">
+        <v>257</v>
+      </c>
+      <c r="G169" t="s">
+        <v>194</v>
+      </c>
+      <c r="H169" t="s">
         <v>285</v>
       </c>
-      <c r="G169" t="s">
-        <v>217</v>
-      </c>
-      <c r="H169" t="s">
-        <v>316</v>
-      </c>
       <c r="I169" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="B170" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D170" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="E170" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="F170" t="s">
+        <v>257</v>
+      </c>
+      <c r="G170" t="s">
+        <v>194</v>
+      </c>
+      <c r="H170" t="s">
         <v>285</v>
       </c>
-      <c r="G170" t="s">
-        <v>217</v>
-      </c>
-      <c r="H170" t="s">
-        <v>316</v>
-      </c>
       <c r="I170" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="B171" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c r="E171" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="F171" t="s">
+        <v>257</v>
+      </c>
+      <c r="G171" t="s">
+        <v>194</v>
+      </c>
+      <c r="H171" t="s">
         <v>285</v>
       </c>
-      <c r="G171" t="s">
-        <v>217</v>
-      </c>
-      <c r="H171" t="s">
-        <v>316</v>
-      </c>
       <c r="I171" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="B172" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D172" t="s">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c r="E172" t="s">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c r="F172" t="s">
+        <v>257</v>
+      </c>
+      <c r="G172" t="s">
+        <v>194</v>
+      </c>
+      <c r="H172" t="s">
         <v>285</v>
       </c>
-      <c r="G172" t="s">
-        <v>217</v>
-      </c>
-      <c r="H172" t="s">
-        <v>316</v>
-      </c>
       <c r="I172" t="s">
-        <v>308</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>247</v>
+      </c>
+      <c r="B173" t="s">
+        <v>99</v>
+      </c>
+      <c r="C173" t="s">
+        <v>21</v>
+      </c>
+      <c r="D173" t="s">
+        <v>256</v>
+      </c>
+      <c r="E173" t="s">
+        <v>257</v>
+      </c>
+      <c r="F173" t="s">
+        <v>257</v>
+      </c>
+      <c r="G173" t="s">
+        <v>194</v>
+      </c>
+      <c r="H173" t="s">
+        <v>285</v>
+      </c>
+      <c r="I173" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>248</v>
+      </c>
       <c r="B174" t="s">
-        <v>308</v>
+        <v>99</v>
       </c>
       <c r="C174" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="D174" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="E174" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="F174" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="G174" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H174" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="I174" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>307</v>
+        <v>249</v>
       </c>
       <c r="B175" t="s">
-        <v>308</v>
+        <v>99</v>
       </c>
       <c r="C175" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="D175" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="E175" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F175" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="G175" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="H175" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="I175" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D176" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="E176" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F176" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G176" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H176" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="I176" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="B177" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D177" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="E177" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F177" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G177" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H177" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="I177" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B178" t="s">
-        <v>246</v>
+        <v>99</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D178" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="E178" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F178" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="G178" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H178" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="I178" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="B179" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D179" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="E179" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="F179" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="G179" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H179" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="I179" t="s">
-        <v>308</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>254</v>
+      </c>
+      <c r="B180" t="s">
+        <v>99</v>
+      </c>
+      <c r="C180" t="s">
+        <v>21</v>
+      </c>
+      <c r="D180" t="s">
+        <v>256</v>
+      </c>
+      <c r="E180" t="s">
+        <v>100</v>
+      </c>
+      <c r="F180" t="s">
+        <v>257</v>
+      </c>
+      <c r="G180" t="s">
+        <v>194</v>
+      </c>
+      <c r="H180" t="s">
+        <v>285</v>
+      </c>
+      <c r="I180" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>277</v>
+      </c>
+      <c r="C182" t="s">
+        <v>277</v>
+      </c>
+      <c r="D182" t="s">
+        <v>277</v>
+      </c>
+      <c r="E182" t="s">
+        <v>277</v>
+      </c>
+      <c r="F182" t="s">
+        <v>277</v>
+      </c>
+      <c r="G182" t="s">
+        <v>277</v>
+      </c>
+      <c r="H182" t="s">
+        <v>277</v>
+      </c>
+      <c r="I182" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>276</v>
+      </c>
+      <c r="B183" t="s">
+        <v>277</v>
+      </c>
+      <c r="C183" t="s">
+        <v>277</v>
+      </c>
+      <c r="D183" t="s">
+        <v>277</v>
+      </c>
+      <c r="E183" t="s">
+        <v>277</v>
+      </c>
+      <c r="F183" t="s">
+        <v>277</v>
+      </c>
+      <c r="G183" t="s">
+        <v>277</v>
+      </c>
+      <c r="H183" t="s">
+        <v>277</v>
+      </c>
+      <c r="I183" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>218</v>
+      </c>
+      <c r="B184" t="s">
+        <v>219</v>
+      </c>
+      <c r="C184" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184" t="s">
+        <v>139</v>
+      </c>
+      <c r="E184" t="s">
+        <v>93</v>
+      </c>
+      <c r="F184" t="s">
+        <v>169</v>
+      </c>
+      <c r="G184" t="s">
+        <v>194</v>
+      </c>
+      <c r="H184" t="s">
+        <v>286</v>
+      </c>
+      <c r="I184" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>58</v>
+      </c>
+      <c r="B185" t="s">
+        <v>92</v>
+      </c>
+      <c r="C185" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185" t="s">
+        <v>139</v>
+      </c>
+      <c r="E185" t="s">
+        <v>93</v>
+      </c>
+      <c r="F185" t="s">
+        <v>169</v>
+      </c>
+      <c r="G185" t="s">
+        <v>194</v>
+      </c>
+      <c r="H185" t="s">
+        <v>286</v>
+      </c>
+      <c r="I185" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>220</v>
+      </c>
+      <c r="B186" t="s">
+        <v>221</v>
+      </c>
+      <c r="C186" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" t="s">
+        <v>139</v>
+      </c>
+      <c r="E186" t="s">
+        <v>93</v>
+      </c>
+      <c r="F186" t="s">
+        <v>169</v>
+      </c>
+      <c r="G186" t="s">
+        <v>194</v>
+      </c>
+      <c r="H186" t="s">
+        <v>286</v>
+      </c>
+      <c r="I186" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>59</v>
+      </c>
+      <c r="B187" t="s">
+        <v>132</v>
+      </c>
+      <c r="C187" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" t="s">
+        <v>18</v>
+      </c>
+      <c r="E187" t="s">
+        <v>133</v>
+      </c>
+      <c r="F187" t="s">
+        <v>178</v>
+      </c>
+      <c r="G187" t="s">
+        <v>194</v>
+      </c>
+      <c r="H187" t="s">
+        <v>286</v>
+      </c>
+      <c r="I187" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I179" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I134">
-    <sortCondition ref="A3:A134"/>
+  <autoFilter ref="A2:I187" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I142">
+    <sortCondition ref="A3:A142"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6499,17 +6611,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Support/configDescriptions.xlsx
+++ b/Support/configDescriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\RemotelyBackedUp\Git\StepTextConversion\Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3777992B-412B-4F44-96F3-7459BF8FC8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F49984-E55D-4DB5-A3A5-4C691EB7AD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{128561E6-B5C2-46ED-B2EC-132D38FABE72}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="PatternBasedElements" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IndividualElements!$A$2:$I$184</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="370">
   <si>
     <t>stepDbgAddDebugAttributesToNodes</t>
   </si>
@@ -284,15 +284,9 @@
     <t>You can force the matter by overtly specifying a value.</t>
   </si>
   <si>
-    <t>Indicates whether to apply runtime, conversion-time or no reversification.</t>
-  </si>
-  <si>
     <t>Depends on various parameters.</t>
   </si>
   <si>
-    <t>if conversionTimeReversification is set to yes on the command line, then conversion-time is used.  Otherwise all STEP modules use runtime reversification, and all public modules use none.  Conversion-time has not been exercised currently.</t>
-  </si>
-  <si>
     <t>Determines whether we are building a STEP-internal or a public facing module.</t>
   </si>
   <si>
@@ -398,9 +392,6 @@
     <t>Used only in the OSIS header (and I'm not sure it’s useful there).  You can specify it, but the default (of today's date) is probably good enough.</t>
   </si>
   <si>
-    <t>Where alternative inputs are available, you will be warned if you opt to use OSIS and the other inputs are more up to date.</t>
-  </si>
-  <si>
     <t>Used to hold the encryption key to be used when generating the module.</t>
   </si>
   <si>
@@ -410,9 +401,6 @@
     <t>Used to force the processing to use vernacular formats for any references which it generates.  You will seldom want this to be Yes, because obtaining details of how references are formatted is onerous.</t>
   </si>
   <si>
-    <t>Set to 'y' if the text is being up-issued.  The processing will normally work this out for itself, but you can force the issue using stepForceUpIssue.</t>
-  </si>
-  <si>
     <t>For Biblica texts, give Biblica here.  Other owning organisations may be added in future.  Used to make it possible to pick up definitions related to this organisation, and to apply organisation-specific corrections to texts.</t>
   </si>
   <si>
@@ -452,12 +440,6 @@
     <t>MandatoryAlways</t>
   </si>
   <si>
-    <t>For admin purposes, we use a text-supplier's id for a text where available.  However, there is no guarantee that another text supplier may not use this same id.  stepDisambiguatorForId allows you to specify a string which is prepended to the id which hopefully will make clashes less likely.  If you don't supply something, the processing will determine a value for itself, although the absolute backstop is to use the string 'Unknown'.</t>
-  </si>
-  <si>
-    <t>"Unknown"</t>
-  </si>
-  <si>
     <t>Says, for instance, that the text is covered by a CC licence.</t>
   </si>
   <si>
@@ -596,9 +578,6 @@
     <t>Outputs information which may be of use when trying to debug config data.</t>
   </si>
   <si>
-    <t>stepConversionTimeReversification</t>
-  </si>
-  <si>
     <t>The root folder holding data for the module.</t>
   </si>
   <si>
@@ -992,9 +971,6 @@
     <t>Anywhere</t>
   </si>
   <si>
-    <t>WithChanges / WithoutChanges</t>
-  </si>
-  <si>
     <t>stepAboutAdditionalInfo</t>
   </si>
   <si>
@@ -1136,24 +1112,12 @@
     <t>swordWordingForDerivedWorkStipulatedByTextSupplier</t>
   </si>
   <si>
-    <t>If Yes, restructures the text to conform to KJVA structure.</t>
-  </si>
-  <si>
     <t>swordTextIdSuppliedBySourceRepositoryOrOwnerOrganisation</t>
   </si>
   <si>
     <t>swordTextVersionSuppliedBySourceRepositoryOrOwnerOrganisation</t>
   </si>
   <si>
-    <t>swordDisambiguatorForId</t>
-  </si>
-  <si>
-    <t>stepUseExistingHistory</t>
-  </si>
-  <si>
-    <t>Indicates that the history and version information in step.conf is already ok and should not be updated.</t>
-  </si>
-  <si>
     <t>swordDerivedWorksLimitations</t>
   </si>
   <si>
@@ -1161,6 +1125,21 @@
   </si>
   <si>
     <t>swordTextSource</t>
+  </si>
+  <si>
+    <t>Set to 'y' if the text is being up-issued.</t>
+  </si>
+  <si>
+    <t>Yes / No / AsIs</t>
+  </si>
+  <si>
+    <t>Where alternative inputs are available, you will be warned if you opt to use OSIS and the other inputs are more up to date.  AsIs means to assume the data is ok as-is, and apply only minimal changes to it.</t>
+  </si>
+  <si>
+    <t>Indicates whether to apply runtime reversification or no reversification.</t>
+  </si>
+  <si>
+    <t>All STEP modules use runtime reversification, and all public modules use none.</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1241,12 +1220,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,7 +1331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1381,7 +1354,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1777,7 +1749,7 @@
     <row r="1" spans="1:14" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1797,7 +1769,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1827,7 +1799,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1843,7 +1815,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1873,7 +1845,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1889,7 +1861,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1905,7 +1877,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1940,7 +1912,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}">
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -1961,7 +1933,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1975,19 +1947,19 @@
         <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>27</v>
@@ -1995,10 +1967,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2018,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -2035,10 +2007,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -2047,10 +2019,10 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2058,7 +2030,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -2075,10 +2047,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -2098,7 +2070,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -2118,7 +2090,7 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -2138,7 +2110,7 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -2158,7 +2130,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2175,10 +2147,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -2267,7 +2239,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -2284,10 +2256,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -2307,7 +2279,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -2327,7 +2299,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -2347,7 +2319,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -2367,7 +2339,7 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -2387,7 +2359,7 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -2407,7 +2379,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -2424,10 +2396,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -2447,17 +2419,17 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
         <v>84</v>
       </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
@@ -2465,7 +2437,7 @@
         <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2473,7 +2445,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -2493,7 +2465,7 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
@@ -2513,7 +2485,7 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>365</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
@@ -2533,7 +2505,7 @@
         <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -2553,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
@@ -2570,10 +2542,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
@@ -2593,7 +2565,7 @@
         <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -2610,31 +2582,31 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C35" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E35" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F35" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G35" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H35" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I35" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2648,30 +2620,30 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F36" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G36" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H36" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -2680,19 +2652,19 @@
         <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F37" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G37" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H37" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I37" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2712,24 +2684,24 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G38" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H38" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I38" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C39" t="s">
         <v>21</v>
@@ -2738,19 +2710,19 @@
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G39" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H39" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I39" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2764,30 +2736,30 @@
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H40" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I40" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
@@ -2796,19 +2768,19 @@
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F41" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G41" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H41" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I41" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2828,24 +2800,24 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G42" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H42" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I42" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
@@ -2857,24 +2829,24 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G43" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H43" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I43" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
@@ -2894,57 +2866,57 @@
         <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E45" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F45" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G45" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H45" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I45" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C48" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D48" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E48" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F48" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G48" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H48" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I48" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2958,85 +2930,85 @@
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G49" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H49" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I49" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C50" t="s">
         <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F50" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G50" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H50" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
         <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G51" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H51" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I51" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
         <v>21</v>
@@ -3045,27 +3017,27 @@
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F52" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G52" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H52" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I52" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C53" t="s">
         <v>21</v>
@@ -3074,16 +3046,16 @@
         <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F53" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G53" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H53" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I53" t="s">
         <v>71</v>
@@ -3091,7 +3063,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s">
         <v>80</v>
@@ -3103,16 +3075,16 @@
         <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F54" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G54" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H54" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I54" t="s">
         <v>71</v>
@@ -3120,10 +3092,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
         <v>21</v>
@@ -3132,56 +3104,56 @@
         <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F55" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H55" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I55" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B58" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C58" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D58" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E58" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F58" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G58" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H58" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I58" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
         <v>21</v>
@@ -3190,85 +3162,85 @@
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F59" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G59" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H59" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I59" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
         <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E60" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F60" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G60" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H60" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I60" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C61" t="s">
         <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E61" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F61" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G61" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H61" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I61" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
         <v>21</v>
@@ -3277,85 +3249,85 @@
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F62" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G62" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H62" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I62" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
         <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F63" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G63" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H63" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I63" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E64" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F64" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G64" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H64" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I64" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
@@ -3372,12 +3344,12 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
@@ -3389,15 +3361,15 @@
         <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I68" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
@@ -3409,15 +3381,15 @@
         <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I69" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
@@ -3429,18 +3401,18 @@
         <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I70" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B71" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
@@ -3452,15 +3424,15 @@
         <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I71" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C72" t="s">
         <v>19</v>
@@ -3472,15 +3444,15 @@
         <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I72" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
@@ -3492,15 +3464,15 @@
         <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I73" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
@@ -3512,15 +3484,15 @@
         <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I74" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
@@ -3532,15 +3504,15 @@
         <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I75" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
@@ -3552,15 +3524,15 @@
         <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I76" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C77" t="s">
         <v>19</v>
@@ -3572,15 +3544,15 @@
         <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I77" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C78" t="s">
         <v>19</v>
@@ -3592,15 +3564,15 @@
         <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I78" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
@@ -3612,70 +3584,61 @@
         <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I79" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B80" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G80" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H80" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" t="s">
-        <v>141</v>
-      </c>
-      <c r="F81" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>280</v>
-      </c>
-      <c r="I81" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="C82" t="s">
         <v>19</v>
@@ -3692,59 +3655,68 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>135</v>
+      </c>
+      <c r="E83" t="s">
+        <v>270</v>
+      </c>
+      <c r="F83" t="s">
+        <v>163</v>
       </c>
       <c r="G83" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>282</v>
+      </c>
+      <c r="I83" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C84" t="s">
         <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F84" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G84" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H84" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="I84" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
         <v>21</v>
@@ -3753,27 +3725,27 @@
         <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F85" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G85" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H85" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I85" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C86" t="s">
         <v>21</v>
@@ -3782,56 +3754,50 @@
         <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F86" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G86" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H86" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I86" t="s">
-        <v>95</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" t="s">
-        <v>277</v>
-      </c>
-      <c r="F87" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="I87" t="s">
-        <v>277</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
         <v>19</v>
@@ -3845,117 +3811,123 @@
       <c r="H88" t="s">
         <v>19</v>
       </c>
-      <c r="I88" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>51</v>
-      </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>270</v>
+      </c>
+      <c r="E89" t="s">
+        <v>270</v>
+      </c>
+      <c r="F89" t="s">
+        <v>270</v>
       </c>
       <c r="G89" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
+        <v>270</v>
+      </c>
+      <c r="I89" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C90" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E90" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F90" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G90" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H90" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I90" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>258</v>
+      </c>
       <c r="B91" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C91" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E91" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F91" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G91" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H91" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I91" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>265</v>
+        <v>52</v>
       </c>
       <c r="B92" t="s">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="C92" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F92" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="G92" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H92" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I92" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C93" t="s">
         <v>21</v>
@@ -3964,166 +3936,166 @@
         <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="F93" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G93" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H93" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I93" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F94" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="G94" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H94" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I94" t="s">
-        <v>277</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>55</v>
-      </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="E95" t="s">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="F95" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="G95" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H95" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I95" t="s">
-        <v>118</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C96" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D96" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E96" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F96" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G96" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H96" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I96" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>259</v>
+      </c>
       <c r="B97" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C97" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D97" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E97" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F97" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G97" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H97" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I97" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="B98" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="C98" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F98" t="s">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="G98" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H98" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I98" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B99" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C99" t="s">
         <v>21</v>
@@ -4132,27 +4104,27 @@
         <v>18</v>
       </c>
       <c r="E99" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F99" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G99" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H99" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I99" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>316</v>
+        <v>227</v>
       </c>
       <c r="C100" t="s">
         <v>21</v>
@@ -4161,27 +4133,27 @@
         <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F100" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G100" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H100" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I100" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="B101" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="C101" t="s">
         <v>21</v>
@@ -4190,27 +4162,27 @@
         <v>18</v>
       </c>
       <c r="E101" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F101" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="G101" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H101" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I101" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="B102" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C102" t="s">
         <v>21</v>
@@ -4219,27 +4191,27 @@
         <v>18</v>
       </c>
       <c r="E102" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F102" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="G102" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H102" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I102" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="C103" t="s">
         <v>21</v>
@@ -4248,27 +4220,27 @@
         <v>18</v>
       </c>
       <c r="E103" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F103" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="G103" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H103" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I103" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B104" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C104" t="s">
         <v>21</v>
@@ -4277,137 +4249,137 @@
         <v>18</v>
       </c>
       <c r="E104" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F104" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G104" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H104" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I104" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>311</v>
-      </c>
       <c r="B105" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="E105" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F105" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c r="G105" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H105" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I105" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C106" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D106" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E106" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F106" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G106" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H106" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I106" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>261</v>
+      </c>
       <c r="B107" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C107" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D107" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E107" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F107" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G107" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H107" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I107" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="C108" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E108" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="F108" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="G108" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H108" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I108" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>368</v>
+        <v>100</v>
       </c>
       <c r="C109" t="s">
         <v>21</v>
@@ -4416,56 +4388,56 @@
         <v>18</v>
       </c>
       <c r="E109" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F109" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G109" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="H109" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I109" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F110" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="G110" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H110" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I110" t="s">
-        <v>277</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>311</v>
       </c>
       <c r="C111" t="s">
         <v>21</v>
@@ -4474,748 +4446,745 @@
         <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F111" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G111" t="s">
-        <v>185</v>
+        <v>312</v>
       </c>
       <c r="H111" t="s">
-        <v>281</v>
-      </c>
-      <c r="I111" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B112" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="C112" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="E112" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="F112" t="s">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="G112" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H112" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I112" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="B113" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="C113" t="s">
         <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="E113" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F113" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G113" t="s">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="H113" t="s">
-        <v>283</v>
+        <v>272</v>
+      </c>
+      <c r="I113" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B114" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="C114" t="s">
         <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E114" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="F114" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G114" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H114" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I114" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
-        <v>372</v>
-      </c>
       <c r="B115" t="s">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="E115" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="F115" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="G115" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="H115" t="s">
-        <v>279</v>
+        <v>270</v>
+      </c>
+      <c r="I115" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>61</v>
-      </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D116" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="E116" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="F116" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="G116" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H116" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I116" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>62</v>
+        <v>262</v>
       </c>
       <c r="B117" t="s">
-        <v>89</v>
+        <v>270</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D117" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="E117" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="F117" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="G117" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H117" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I117" t="s">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>30</v>
+      </c>
       <c r="B118" t="s">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="C118" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E118" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="F118" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="G118" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H118" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I118" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>31</v>
+      </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="C119" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E119" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="F119" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="G119" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H119" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="I119" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="B120" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="C120" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E120" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F120" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G120" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="I120" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>30</v>
-      </c>
       <c r="B121" t="s">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="E121" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="F121" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="G121" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H121" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I121" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
+        <v>270</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="E122" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="F122" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="G122" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H122" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="I122" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="B123" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="E123" t="s">
+        <v>270</v>
+      </c>
+      <c r="F123" t="s">
+        <v>166</v>
+      </c>
+      <c r="G123" t="s">
+        <v>185</v>
+      </c>
+      <c r="H123" t="s">
         <v>277</v>
       </c>
-      <c r="F123" t="s">
-        <v>277</v>
-      </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
-      <c r="H123" t="s">
-        <v>19</v>
-      </c>
       <c r="I123" t="s">
-        <v>277</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>297</v>
+      </c>
       <c r="B124" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C124" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="D124" t="s">
-        <v>277</v>
-      </c>
-      <c r="E124" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="G124" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="H124" t="s">
-        <v>277</v>
-      </c>
-      <c r="I124" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B125" t="s">
-        <v>277</v>
+        <v>186</v>
       </c>
       <c r="C125" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E125" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F125" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="G125" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="H125" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I125" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>302</v>
-      </c>
       <c r="B126" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D126" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="E126" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F126" t="s">
-        <v>172</v>
+        <v>270</v>
       </c>
       <c r="G126" t="s">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="H126" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="I126" t="s">
-        <v>110</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>304</v>
-      </c>
       <c r="B127" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>270</v>
+      </c>
+      <c r="E127" t="s">
+        <v>270</v>
       </c>
       <c r="F127" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="G127" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="H127" t="s">
-        <v>19</v>
+        <v>270</v>
+      </c>
+      <c r="I127" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="B128" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D128" t="s">
+        <v>270</v>
+      </c>
+      <c r="E128" t="s">
+        <v>270</v>
+      </c>
+      <c r="F128" t="s">
+        <v>270</v>
+      </c>
+      <c r="G128" t="s">
+        <v>270</v>
+      </c>
+      <c r="H128" t="s">
+        <v>270</v>
+      </c>
+      <c r="I128" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>124</v>
+      </c>
+      <c r="C129" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" t="s">
         <v>18</v>
       </c>
-      <c r="E128" t="s">
-        <v>277</v>
-      </c>
-      <c r="F128" t="s">
-        <v>172</v>
-      </c>
-      <c r="G128" t="s">
-        <v>192</v>
-      </c>
-      <c r="H128" t="s">
-        <v>287</v>
-      </c>
-      <c r="I128" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>277</v>
-      </c>
-      <c r="C129" t="s">
-        <v>277</v>
-      </c>
-      <c r="D129" t="s">
-        <v>277</v>
-      </c>
       <c r="E129" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F129" t="s">
-        <v>277</v>
+        <v>168</v>
       </c>
       <c r="G129" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H129" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I129" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
       <c r="B130" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="C130" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E130" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F130" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="G130" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H130" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I130" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>271</v>
-      </c>
       <c r="B131" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C131" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D131" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E131" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F131" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G131" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H131" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I131" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>3</v>
-      </c>
       <c r="B132" t="s">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="E132" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F132" t="s">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="G132" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H132" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I132" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>2</v>
+        <v>265</v>
       </c>
       <c r="B133" t="s">
-        <v>127</v>
+        <v>270</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D133" t="s">
+        <v>270</v>
+      </c>
+      <c r="E133" t="s">
+        <v>270</v>
+      </c>
+      <c r="F133" t="s">
+        <v>270</v>
+      </c>
+      <c r="G133" t="s">
+        <v>270</v>
+      </c>
+      <c r="H133" t="s">
+        <v>270</v>
+      </c>
+      <c r="I133" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" t="s">
         <v>18</v>
       </c>
-      <c r="E133" t="s">
-        <v>277</v>
-      </c>
-      <c r="F133" t="s">
-        <v>175</v>
-      </c>
-      <c r="G133" t="s">
-        <v>194</v>
-      </c>
-      <c r="H133" t="s">
-        <v>282</v>
-      </c>
-      <c r="I133" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>277</v>
-      </c>
-      <c r="C134" t="s">
-        <v>277</v>
-      </c>
-      <c r="D134" t="s">
-        <v>277</v>
-      </c>
       <c r="E134" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="F134" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="G134" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="H134" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I134" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
       <c r="B135" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="C135" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E135" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="F135" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="G135" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="H135" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I135" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="B136" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C136" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E136" t="s">
-        <v>277</v>
-      </c>
-      <c r="F136" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="G136" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="H136" t="s">
-        <v>277</v>
-      </c>
-      <c r="I136" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="B137" t="s">
+        <v>182</v>
+      </c>
+      <c r="C137" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" t="s">
         <v>135</v>
       </c>
-      <c r="C137" t="s">
-        <v>21</v>
-      </c>
-      <c r="D137" t="s">
-        <v>18</v>
-      </c>
       <c r="E137" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="F137" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G137" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H137" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I137" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="B138" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C138" t="s">
         <v>21</v>
@@ -5224,27 +5193,27 @@
         <v>18</v>
       </c>
       <c r="E138" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="F138" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G138" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H138" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="I138" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>300</v>
+        <v>54</v>
       </c>
       <c r="B139" t="s">
-        <v>299</v>
+        <v>146</v>
       </c>
       <c r="C139" t="s">
         <v>21</v>
@@ -5253,50 +5222,56 @@
         <v>18</v>
       </c>
       <c r="E139" t="s">
-        <v>301</v>
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
+        <v>163</v>
       </c>
       <c r="G139" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H139" t="s">
-        <v>281</v>
+        <v>274</v>
+      </c>
+      <c r="I139" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="C140" t="s">
         <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G140" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H140" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="I140" t="s">
-        <v>277</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="B141" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="C141" t="s">
         <v>21</v>
@@ -5304,28 +5279,25 @@
       <c r="D141" t="s">
         <v>18</v>
       </c>
-      <c r="E141" t="s">
-        <v>134</v>
-      </c>
       <c r="F141" t="s">
-        <v>169</v>
+        <v>366</v>
       </c>
       <c r="G141" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H141" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="I141" t="s">
-        <v>277</v>
+        <v>367</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="B142" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c r="C142" t="s">
         <v>21</v>
@@ -5334,186 +5306,189 @@
         <v>18</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="G142" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H142" t="s">
-        <v>281</v>
-      </c>
-      <c r="I142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>14</v>
-      </c>
       <c r="B143" t="s">
-        <v>87</v>
+        <v>270</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D143" t="s">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="E143" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="F143" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="G143" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="H143" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="I143" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>307</v>
-      </c>
       <c r="B144" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="C144" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>270</v>
+      </c>
+      <c r="E144" t="s">
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="G144" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="H144" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="I144" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="B145" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D145" t="s">
+        <v>270</v>
+      </c>
+      <c r="E145" t="s">
+        <v>270</v>
+      </c>
+      <c r="F145" t="s">
+        <v>270</v>
+      </c>
+      <c r="G145" t="s">
+        <v>270</v>
+      </c>
+      <c r="H145" t="s">
+        <v>270</v>
+      </c>
+      <c r="I145" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>72</v>
+      </c>
+      <c r="B146" t="s">
+        <v>73</v>
+      </c>
+      <c r="C146" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" t="s">
         <v>18</v>
       </c>
-      <c r="E145" t="s">
-        <v>301</v>
-      </c>
-      <c r="G145" t="s">
-        <v>185</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="E146" t="s">
+        <v>78</v>
+      </c>
+      <c r="F146" t="s">
+        <v>165</v>
+      </c>
+      <c r="G146" t="s">
+        <v>187</v>
+      </c>
+      <c r="H146" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>277</v>
-      </c>
-      <c r="C146" t="s">
-        <v>277</v>
-      </c>
-      <c r="D146" t="s">
-        <v>277</v>
-      </c>
-      <c r="E146" t="s">
-        <v>277</v>
-      </c>
-      <c r="F146" t="s">
-        <v>277</v>
-      </c>
-      <c r="G146" t="s">
-        <v>277</v>
-      </c>
-      <c r="H146" t="s">
-        <v>277</v>
-      </c>
       <c r="I146" t="s">
-        <v>277</v>
+        <v>77</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>15</v>
+      </c>
       <c r="B147" t="s">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="C147" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="F147" t="s">
-        <v>277</v>
+        <v>165</v>
       </c>
       <c r="G147" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H147" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="I147" t="s">
-        <v>277</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="B148" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="C148" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="F148" t="s">
-        <v>277</v>
+        <v>165</v>
       </c>
       <c r="G148" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H148" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="B149" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="C149" t="s">
         <v>21</v>
@@ -5525,13 +5500,13 @@
         <v>78</v>
       </c>
       <c r="F149" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G149" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H149" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="I149" t="s">
         <v>77</v>
@@ -5539,10 +5514,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="B150" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="C150" t="s">
         <v>21</v>
@@ -5554,13 +5529,13 @@
         <v>78</v>
       </c>
       <c r="F150" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G150" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H150" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="I150" t="s">
         <v>77</v>
@@ -5568,10 +5543,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>221</v>
+      </c>
+      <c r="B151" t="s">
         <v>225</v>
-      </c>
-      <c r="B151" t="s">
-        <v>229</v>
       </c>
       <c r="C151" t="s">
         <v>21</v>
@@ -5583,192 +5558,192 @@
         <v>78</v>
       </c>
       <c r="F151" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G151" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H151" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="I151" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>226</v>
-      </c>
       <c r="B152" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="E152" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="F152" t="s">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="G152" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H152" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="I152" t="s">
-        <v>77</v>
+        <v>270</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>227</v>
-      </c>
       <c r="B153" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="E153" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="F153" t="s">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="G153" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H153" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="I153" t="s">
-        <v>77</v>
+        <v>270</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="B154" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D154" t="s">
+        <v>270</v>
+      </c>
+      <c r="E154" t="s">
+        <v>270</v>
+      </c>
+      <c r="F154" t="s">
+        <v>270</v>
+      </c>
+      <c r="G154" t="s">
+        <v>270</v>
+      </c>
+      <c r="H154" t="s">
+        <v>270</v>
+      </c>
+      <c r="I154" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" t="s">
         <v>18</v>
       </c>
-      <c r="E154" t="s">
-        <v>78</v>
-      </c>
-      <c r="F154" t="s">
-        <v>171</v>
-      </c>
-      <c r="G154" t="s">
-        <v>194</v>
-      </c>
-      <c r="H154" t="s">
-        <v>288</v>
-      </c>
-      <c r="I154" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>277</v>
-      </c>
-      <c r="C155" t="s">
-        <v>277</v>
-      </c>
-      <c r="D155" t="s">
-        <v>277</v>
-      </c>
       <c r="E155" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F155" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="G155" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="H155" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I155" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
       <c r="B156" t="s">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="C156" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D156" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E156" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="F156" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="G156" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="H156" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I156" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="B157" t="s">
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="C157" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D157" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="E157" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="F157" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="G157" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="H157" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I157" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B158" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="C158" t="s">
         <v>21</v>
@@ -5777,27 +5752,27 @@
         <v>18</v>
       </c>
       <c r="E158" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="F158" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="G158" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H158" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I158" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B159" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C159" t="s">
         <v>21</v>
@@ -5806,27 +5781,27 @@
         <v>18</v>
       </c>
       <c r="E159" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="F159" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G159" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H159" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I159" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="B160" t="s">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="C160" t="s">
         <v>21</v>
@@ -5834,762 +5809,675 @@
       <c r="D160" t="s">
         <v>18</v>
       </c>
-      <c r="E160" t="s">
-        <v>101</v>
-      </c>
       <c r="F160" t="s">
-        <v>170</v>
-      </c>
-      <c r="G160" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H160" t="s">
-        <v>283</v>
-      </c>
-      <c r="I160" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>1</v>
-      </c>
       <c r="B161" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D161" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="E161" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="F161" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="G161" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="H161" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="I161" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>106</v>
-      </c>
       <c r="B162" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D162" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="E162" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F162" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G162" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H162" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="I162" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B163" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D163" t="s">
-        <v>18</v>
+        <v>270</v>
+      </c>
+      <c r="E163" t="s">
+        <v>270</v>
       </c>
       <c r="F163" t="s">
-        <v>172</v>
+        <v>270</v>
+      </c>
+      <c r="G163" t="s">
+        <v>270</v>
       </c>
       <c r="H163" t="s">
-        <v>286</v>
+        <v>270</v>
+      </c>
+      <c r="I163" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>235</v>
+      </c>
       <c r="B164" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="C164" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D164" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="E164" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="F164" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="G164" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H164" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I164" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>236</v>
+      </c>
       <c r="B165" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="C165" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D165" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="E165" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="F165" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="G165" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H165" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I165" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="B166" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="C166" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D166" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="E166" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="F166" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="G166" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H166" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I166" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B167" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C167" t="s">
         <v>21</v>
       </c>
       <c r="D167" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E167" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F167" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G167" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H167" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I167" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B168" t="s">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="C168" t="s">
         <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="E168" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F168" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G168" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H168" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I168" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="B169" t="s">
-        <v>259</v>
+        <v>97</v>
       </c>
       <c r="C169" t="s">
         <v>21</v>
       </c>
       <c r="D169" t="s">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="E169" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F169" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G169" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H169" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I169" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B170" t="s">
-        <v>260</v>
+        <v>97</v>
       </c>
       <c r="C170" t="s">
         <v>21</v>
       </c>
       <c r="D170" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E170" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F170" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G170" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H170" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I170" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B171" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C171" t="s">
         <v>21</v>
       </c>
       <c r="D171" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="E171" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F171" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G171" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H171" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I171" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="B172" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C172" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D172" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="E172" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F172" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G172" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="H172" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="I172" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B173" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C173" t="s">
         <v>21</v>
       </c>
       <c r="D173" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E173" t="s">
-        <v>257</v>
+        <v>98</v>
       </c>
       <c r="F173" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G173" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H173" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I173" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B174" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C174" t="s">
         <v>21</v>
       </c>
       <c r="D174" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E174" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="F174" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G174" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H174" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I174" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>245</v>
+      </c>
+      <c r="B175" t="s">
+        <v>97</v>
+      </c>
+      <c r="C175" t="s">
+        <v>21</v>
+      </c>
+      <c r="D175" t="s">
         <v>249</v>
       </c>
-      <c r="B175" t="s">
-        <v>99</v>
-      </c>
-      <c r="C175" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" t="s">
-        <v>19</v>
-      </c>
       <c r="E175" t="s">
-        <v>277</v>
+        <v>98</v>
       </c>
       <c r="F175" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="G175" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="H175" t="s">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="I175" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>246</v>
+      </c>
+      <c r="B176" t="s">
+        <v>97</v>
+      </c>
+      <c r="C176" t="s">
+        <v>21</v>
+      </c>
+      <c r="D176" t="s">
+        <v>249</v>
+      </c>
+      <c r="E176" t="s">
+        <v>98</v>
+      </c>
+      <c r="F176" t="s">
         <v>250</v>
       </c>
-      <c r="B176" t="s">
-        <v>99</v>
-      </c>
-      <c r="C176" t="s">
-        <v>21</v>
-      </c>
-      <c r="D176" t="s">
-        <v>256</v>
-      </c>
-      <c r="E176" t="s">
-        <v>100</v>
-      </c>
-      <c r="F176" t="s">
-        <v>257</v>
-      </c>
       <c r="G176" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H176" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I176" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B177" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C177" t="s">
         <v>21</v>
       </c>
       <c r="D177" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E177" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F177" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G177" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H177" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I177" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>252</v>
-      </c>
-      <c r="B178" t="s">
-        <v>99</v>
-      </c>
-      <c r="C178" t="s">
-        <v>21</v>
-      </c>
-      <c r="D178" t="s">
-        <v>256</v>
-      </c>
-      <c r="E178" t="s">
-        <v>100</v>
-      </c>
-      <c r="F178" t="s">
-        <v>257</v>
-      </c>
-      <c r="G178" t="s">
-        <v>194</v>
-      </c>
-      <c r="H178" t="s">
-        <v>285</v>
-      </c>
-      <c r="I178" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>253</v>
-      </c>
       <c r="B179" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="C179" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D179" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E179" t="s">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="F179" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G179" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H179" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I179" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B180" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="C180" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="D180" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E180" t="s">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="F180" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G180" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="H180" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I180" t="s">
-        <v>277</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>211</v>
+      </c>
+      <c r="B181" t="s">
+        <v>212</v>
+      </c>
+      <c r="C181" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" t="s">
+        <v>135</v>
+      </c>
+      <c r="E181" t="s">
+        <v>91</v>
+      </c>
+      <c r="F181" t="s">
+        <v>163</v>
+      </c>
+      <c r="G181" t="s">
+        <v>187</v>
+      </c>
+      <c r="H181" t="s">
+        <v>279</v>
+      </c>
+      <c r="I181" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>58</v>
+      </c>
       <c r="B182" t="s">
-        <v>277</v>
+        <v>90</v>
       </c>
       <c r="C182" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D182" t="s">
-        <v>277</v>
+        <v>135</v>
       </c>
       <c r="E182" t="s">
-        <v>277</v>
+        <v>91</v>
       </c>
       <c r="F182" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="G182" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H182" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I182" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B183" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="C183" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D183" t="s">
-        <v>277</v>
+        <v>135</v>
       </c>
       <c r="E183" t="s">
-        <v>277</v>
+        <v>91</v>
       </c>
       <c r="F183" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="G183" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="H183" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I183" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="B184" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="C184" t="s">
         <v>21</v>
       </c>
       <c r="D184" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="E184" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="F184" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G184" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H184" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I184" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>58</v>
-      </c>
-      <c r="B185" t="s">
-        <v>92</v>
-      </c>
-      <c r="C185" t="s">
-        <v>21</v>
-      </c>
-      <c r="D185" t="s">
-        <v>139</v>
-      </c>
-      <c r="E185" t="s">
-        <v>93</v>
-      </c>
-      <c r="F185" t="s">
-        <v>169</v>
-      </c>
-      <c r="G185" t="s">
-        <v>194</v>
-      </c>
-      <c r="H185" t="s">
-        <v>286</v>
-      </c>
-      <c r="I185" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>220</v>
-      </c>
-      <c r="B186" t="s">
-        <v>221</v>
-      </c>
-      <c r="C186" t="s">
-        <v>21</v>
-      </c>
-      <c r="D186" t="s">
-        <v>139</v>
-      </c>
-      <c r="E186" t="s">
-        <v>93</v>
-      </c>
-      <c r="F186" t="s">
-        <v>169</v>
-      </c>
-      <c r="G186" t="s">
-        <v>194</v>
-      </c>
-      <c r="H186" t="s">
-        <v>286</v>
-      </c>
-      <c r="I186" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>59</v>
-      </c>
-      <c r="B187" t="s">
-        <v>132</v>
-      </c>
-      <c r="C187" t="s">
-        <v>21</v>
-      </c>
-      <c r="D187" t="s">
-        <v>18</v>
-      </c>
-      <c r="E187" t="s">
-        <v>133</v>
-      </c>
-      <c r="F187" t="s">
-        <v>178</v>
-      </c>
-      <c r="G187" t="s">
-        <v>194</v>
-      </c>
-      <c r="H187" t="s">
-        <v>286</v>
-      </c>
-      <c r="I187" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I187" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I142">
-    <sortCondition ref="A3:A142"/>
+  <autoFilter ref="A2:I184" xr:uid="{6ACFB32A-97A1-4D27-B533-EB469205C671}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I139">
+    <sortCondition ref="A3:A139"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6611,17 +6499,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
